--- a/Outputs/3. Prosumer percentage/Grid Search/Output Files/90/Output_4_25.xlsx
+++ b/Outputs/3. Prosumer percentage/Grid Search/Output Files/90/Output_4_25.xlsx
@@ -480,8 +480,10 @@
           <t>Required Level of Met Demand</t>
         </is>
       </c>
-      <c r="B4" t="n">
-        <v>0</v>
+      <c r="B4" t="inlineStr">
+        <is>
+          <t>inf</t>
+        </is>
       </c>
     </row>
     <row r="5">
@@ -501,7 +503,7 @@
         </is>
       </c>
       <c r="B6" t="n">
-        <v>1056115.435546642</v>
+        <v>1091069.51263357</v>
       </c>
     </row>
     <row r="7">
@@ -511,7 +513,7 @@
         </is>
       </c>
       <c r="B7" t="n">
-        <v>13360835.96253917</v>
+        <v>11857191.11602538</v>
       </c>
     </row>
     <row r="8">
@@ -521,7 +523,7 @@
         </is>
       </c>
       <c r="B8" t="n">
-        <v>2460204.061553705</v>
+        <v>698313.6830760745</v>
       </c>
     </row>
     <row r="9">
@@ -541,7 +543,7 @@
         </is>
       </c>
       <c r="B10" t="n">
-        <v>7322712.545865311</v>
+        <v>7943070.986236281</v>
       </c>
     </row>
     <row r="11">
@@ -656,7 +658,7 @@
         </is>
       </c>
       <c r="B2" t="n">
-        <v>376.9944247522367</v>
+        <v>15.64988064861473</v>
       </c>
       <c r="C2" t="n">
         <v>422.6317226868329</v>
@@ -668,13 +670,13 @@
         <v>21.71717045362101</v>
       </c>
       <c r="F2" t="n">
-        <v>20.87293999249374</v>
+        <v>420.8729399924937</v>
       </c>
       <c r="G2" t="n">
-        <v>0.2956717864458369</v>
+        <v>400.2956717864458</v>
       </c>
       <c r="H2" t="n">
-        <v>294.8896947407055</v>
+        <v>0</v>
       </c>
       <c r="I2" t="n">
         <v>0</v>
@@ -707,10 +709,10 @@
         <v>0</v>
       </c>
       <c r="S2" t="n">
-        <v>103.323621185591</v>
+        <v>0</v>
       </c>
       <c r="T2" t="n">
-        <v>218.7163152458132</v>
+        <v>0</v>
       </c>
       <c r="U2" t="n">
         <v>0</v>
@@ -725,7 +727,7 @@
         <v>407.6027988439302</v>
       </c>
       <c r="Y2" t="n">
-        <v>401.2838973446586</v>
+        <v>96.86449739519639</v>
       </c>
     </row>
     <row r="3">
@@ -814,13 +816,13 @@
         </is>
       </c>
       <c r="B4" t="n">
-        <v>188.264309024945</v>
+        <v>0</v>
       </c>
       <c r="C4" t="n">
         <v>0</v>
       </c>
       <c r="D4" t="n">
-        <v>0</v>
+        <v>161.683605144497</v>
       </c>
       <c r="E4" t="n">
         <v>164.546123788675</v>
@@ -832,10 +834,10 @@
         <v>164.5944000087102</v>
       </c>
       <c r="H4" t="n">
-        <v>0</v>
+        <v>142.3583058069271</v>
       </c>
       <c r="I4" t="n">
-        <v>0</v>
+        <v>98.77088257712678</v>
       </c>
       <c r="J4" t="n">
         <v>0</v>
@@ -868,10 +870,10 @@
         <v>0</v>
       </c>
       <c r="T4" t="n">
-        <v>178.4624730957109</v>
+        <v>240.905954296359</v>
       </c>
       <c r="U4" t="n">
-        <v>277.3826040146988</v>
+        <v>0.3906383104454403</v>
       </c>
       <c r="V4" t="n">
         <v>278.8943527180514</v>
@@ -902,10 +904,10 @@
         <v>419.0596946068497</v>
       </c>
       <c r="E5" t="n">
-        <v>21.71717045362101</v>
+        <v>421.717170453621</v>
       </c>
       <c r="F5" t="n">
-        <v>420.8729399924937</v>
+        <v>20.87293999249374</v>
       </c>
       <c r="G5" t="n">
         <v>0.2956717864458369</v>
@@ -914,7 +916,7 @@
         <v>294.8896947407055</v>
       </c>
       <c r="I5" t="n">
-        <v>34.5479025439635</v>
+        <v>0</v>
       </c>
       <c r="J5" t="n">
         <v>0</v>
@@ -944,7 +946,7 @@
         <v>0</v>
       </c>
       <c r="S5" t="n">
-        <v>103.323621185591</v>
+        <v>0</v>
       </c>
       <c r="T5" t="n">
         <v>0</v>
@@ -959,10 +961,10 @@
         <v>0</v>
       </c>
       <c r="X5" t="n">
-        <v>107.0302763744149</v>
+        <v>162.2082248787756</v>
       </c>
       <c r="Y5" t="n">
-        <v>401.2838973446586</v>
+        <v>1.283897344658556</v>
       </c>
     </row>
     <row r="6">
@@ -1057,7 +1059,7 @@
         <v>170.2528374898731</v>
       </c>
       <c r="D7" t="n">
-        <v>0</v>
+        <v>161.683605144497</v>
       </c>
       <c r="E7" t="n">
         <v>164.546123788675</v>
@@ -1066,10 +1068,10 @@
         <v>170.1431564831852</v>
       </c>
       <c r="G7" t="n">
-        <v>26.6972291500165</v>
+        <v>164.5944000087102</v>
       </c>
       <c r="H7" t="n">
-        <v>0</v>
+        <v>142.3583058069271</v>
       </c>
       <c r="I7" t="n">
         <v>98.77088257712678</v>
@@ -1099,7 +1101,7 @@
         <v>0</v>
       </c>
       <c r="R7" t="n">
-        <v>46.56822717969858</v>
+        <v>0</v>
       </c>
       <c r="S7" t="n">
         <v>0</v>
@@ -1108,16 +1110,16 @@
         <v>240.905954296359</v>
       </c>
       <c r="U7" t="n">
-        <v>277.3826040146988</v>
+        <v>0</v>
       </c>
       <c r="V7" t="n">
         <v>278.8943527180514</v>
       </c>
       <c r="W7" t="n">
-        <v>272.1038797892121</v>
+        <v>0</v>
       </c>
       <c r="X7" t="n">
-        <v>0</v>
+        <v>154.1156291734913</v>
       </c>
       <c r="Y7" t="n">
         <v>224.0793406271554</v>
@@ -1130,25 +1132,25 @@
         </is>
       </c>
       <c r="B8" t="n">
-        <v>15.64988064861473</v>
+        <v>415.6498806486147</v>
       </c>
       <c r="C8" t="n">
         <v>22.63172268683286</v>
       </c>
       <c r="D8" t="n">
-        <v>126.0597359346779</v>
+        <v>419.0596946068497</v>
       </c>
       <c r="E8" t="n">
         <v>421.717170453621</v>
       </c>
       <c r="F8" t="n">
-        <v>420.8729399924937</v>
+        <v>20.87293999249374</v>
       </c>
       <c r="G8" t="n">
         <v>400.2956717864458</v>
       </c>
       <c r="H8" t="n">
-        <v>294.8896947407055</v>
+        <v>14.94721823158759</v>
       </c>
       <c r="I8" t="n">
         <v>34.5479025439635</v>
@@ -1181,7 +1183,7 @@
         <v>0</v>
       </c>
       <c r="S8" t="n">
-        <v>103.323621185591</v>
+        <v>0</v>
       </c>
       <c r="T8" t="n">
         <v>0</v>
@@ -1193,13 +1195,13 @@
         <v>0</v>
       </c>
       <c r="W8" t="n">
-        <v>392.4274362026566</v>
+        <v>0</v>
       </c>
       <c r="X8" t="n">
-        <v>407.6027988439302</v>
+        <v>7.602798843930202</v>
       </c>
       <c r="Y8" t="n">
-        <v>1.283897344658556</v>
+        <v>401.2838973446586</v>
       </c>
     </row>
     <row r="9">
@@ -1291,25 +1293,25 @@
         <v>0</v>
       </c>
       <c r="C10" t="n">
-        <v>170.2528374898731</v>
+        <v>0</v>
       </c>
       <c r="D10" t="n">
-        <v>161.683605144497</v>
+        <v>0</v>
       </c>
       <c r="E10" t="n">
-        <v>78.16614128474214</v>
+        <v>0</v>
       </c>
       <c r="F10" t="n">
-        <v>0</v>
+        <v>4.378995526347924</v>
       </c>
       <c r="G10" t="n">
-        <v>0</v>
+        <v>164.5944000087102</v>
       </c>
       <c r="H10" t="n">
-        <v>0</v>
+        <v>142.3583058069271</v>
       </c>
       <c r="I10" t="n">
-        <v>0</v>
+        <v>98.77088257712678</v>
       </c>
       <c r="J10" t="n">
         <v>0</v>
@@ -1367,19 +1369,19 @@
         </is>
       </c>
       <c r="B11" t="n">
-        <v>0</v>
+        <v>415.6498806486147</v>
       </c>
       <c r="C11" t="n">
-        <v>0</v>
+        <v>422.6317226868329</v>
       </c>
       <c r="D11" t="n">
-        <v>0</v>
+        <v>419.0596946068497</v>
       </c>
       <c r="E11" t="n">
         <v>421.717170453621</v>
       </c>
       <c r="F11" t="n">
-        <v>0</v>
+        <v>420.8729399924937</v>
       </c>
       <c r="G11" t="n">
         <v>400.2956717864458</v>
@@ -1424,10 +1426,10 @@
         <v>218.7163152458132</v>
       </c>
       <c r="U11" t="n">
-        <v>255.7713603095518</v>
+        <v>147.7993290726188</v>
       </c>
       <c r="V11" t="n">
-        <v>112.0105010519132</v>
+        <v>353.914520725013</v>
       </c>
       <c r="W11" t="n">
         <v>392.4274362026566</v>
@@ -1436,7 +1438,7 @@
         <v>407.6027988439302</v>
       </c>
       <c r="Y11" t="n">
-        <v>0</v>
+        <v>401.2838973446586</v>
       </c>
     </row>
     <row r="12">
@@ -1616,16 +1618,16 @@
         <v>421.717170453621</v>
       </c>
       <c r="F14" t="n">
-        <v>153.3573077796844</v>
+        <v>420.8729399924937</v>
       </c>
       <c r="G14" t="n">
-        <v>0</v>
+        <v>292.3236405495131</v>
       </c>
       <c r="H14" t="n">
-        <v>0</v>
+        <v>294.8896947407055</v>
       </c>
       <c r="I14" t="n">
-        <v>0</v>
+        <v>34.5479025439635</v>
       </c>
       <c r="J14" t="n">
         <v>0</v>
@@ -1655,19 +1657,19 @@
         <v>0</v>
       </c>
       <c r="S14" t="n">
-        <v>0</v>
+        <v>103.323621185591</v>
       </c>
       <c r="T14" t="n">
-        <v>0</v>
+        <v>218.7163152458132</v>
       </c>
       <c r="U14" t="n">
-        <v>0</v>
+        <v>255.7713603095518</v>
       </c>
       <c r="V14" t="n">
-        <v>0</v>
+        <v>353.914520725013</v>
       </c>
       <c r="W14" t="n">
-        <v>0</v>
+        <v>392.4274362026566</v>
       </c>
       <c r="X14" t="n">
         <v>407.6027988439302</v>
@@ -2050,22 +2052,22 @@
         <v>46.56822717969858</v>
       </c>
       <c r="S19" t="n">
-        <v>0</v>
+        <v>168.4336970060565</v>
       </c>
       <c r="T19" t="n">
-        <v>240.905954296359</v>
+        <v>0</v>
       </c>
       <c r="U19" t="n">
         <v>0</v>
       </c>
       <c r="V19" t="n">
-        <v>0</v>
+        <v>278.8943527180514</v>
       </c>
       <c r="W19" t="n">
-        <v>146.3034971231916</v>
+        <v>0</v>
       </c>
       <c r="X19" t="n">
-        <v>240.1382575886529</v>
+        <v>180.0196592840957</v>
       </c>
       <c r="Y19" t="n">
         <v>224.0793406271554</v>
@@ -2096,7 +2098,7 @@
         <v>400.2956717864458</v>
       </c>
       <c r="H20" t="n">
-        <v>294.8896947407063</v>
+        <v>294.8896947407055</v>
       </c>
       <c r="I20" t="n">
         <v>34.5479025439635</v>
@@ -2132,7 +2134,7 @@
         <v>103.323621185591</v>
       </c>
       <c r="T20" t="n">
-        <v>218.7163152458132</v>
+        <v>218.7163152458144</v>
       </c>
       <c r="U20" t="n">
         <v>255.7713603095518</v>
@@ -2236,16 +2238,16 @@
         </is>
       </c>
       <c r="B22" t="n">
-        <v>188.264309024945</v>
+        <v>0</v>
       </c>
       <c r="C22" t="n">
-        <v>170.2528374898731</v>
+        <v>0</v>
       </c>
       <c r="D22" t="n">
-        <v>161.683605144497</v>
+        <v>0</v>
       </c>
       <c r="E22" t="n">
-        <v>164.546123788675</v>
+        <v>58.31517967031825</v>
       </c>
       <c r="F22" t="n">
         <v>170.1431564831852</v>
@@ -2257,7 +2259,7 @@
         <v>142.3583058069271</v>
       </c>
       <c r="I22" t="n">
-        <v>0</v>
+        <v>98.77088257712678</v>
       </c>
       <c r="J22" t="n">
         <v>0</v>
@@ -2284,19 +2286,19 @@
         <v>0</v>
       </c>
       <c r="R22" t="n">
-        <v>0</v>
+        <v>46.56822717969858</v>
       </c>
       <c r="S22" t="n">
-        <v>0</v>
+        <v>168.4336970060565</v>
       </c>
       <c r="T22" t="n">
-        <v>0</v>
+        <v>240.905954296359</v>
       </c>
       <c r="U22" t="n">
-        <v>0</v>
+        <v>277.3826040146988</v>
       </c>
       <c r="V22" t="n">
-        <v>260.444681387164</v>
+        <v>278.8943527180514</v>
       </c>
       <c r="W22" t="n">
         <v>272.1038797892121</v>
@@ -2305,7 +2307,7 @@
         <v>240.1382575886529</v>
       </c>
       <c r="Y22" t="n">
-        <v>224.0793406271554</v>
+        <v>0</v>
       </c>
     </row>
     <row r="23">
@@ -2479,22 +2481,22 @@
         <v>170.2528374898731</v>
       </c>
       <c r="D25" t="n">
-        <v>0</v>
+        <v>161.683605144497</v>
       </c>
       <c r="E25" t="n">
-        <v>0</v>
+        <v>164.546123788675</v>
       </c>
       <c r="F25" t="n">
         <v>170.1431564831852</v>
       </c>
       <c r="G25" t="n">
-        <v>0</v>
+        <v>164.5944000087102</v>
       </c>
       <c r="H25" t="n">
-        <v>0</v>
+        <v>142.3583058069271</v>
       </c>
       <c r="I25" t="n">
-        <v>0</v>
+        <v>98.77088257712678</v>
       </c>
       <c r="J25" t="n">
         <v>0</v>
@@ -2521,19 +2523,19 @@
         <v>0</v>
       </c>
       <c r="R25" t="n">
-        <v>0</v>
+        <v>46.56822717969858</v>
       </c>
       <c r="S25" t="n">
-        <v>96.44420510686429</v>
+        <v>0</v>
       </c>
       <c r="T25" t="n">
-        <v>240.905954296359</v>
+        <v>0</v>
       </c>
       <c r="U25" t="n">
-        <v>277.3826040146988</v>
+        <v>0</v>
       </c>
       <c r="V25" t="n">
-        <v>278.8943527180514</v>
+        <v>115.1055716303386</v>
       </c>
       <c r="W25" t="n">
         <v>272.1038797892121</v>
@@ -2728,10 +2730,10 @@
         <v>164.5944000087102</v>
       </c>
       <c r="H28" t="n">
-        <v>0</v>
+        <v>142.3583058069271</v>
       </c>
       <c r="I28" t="n">
-        <v>0</v>
+        <v>98.77088257712678</v>
       </c>
       <c r="J28" t="n">
         <v>0</v>
@@ -2767,13 +2769,13 @@
         <v>0</v>
       </c>
       <c r="U28" t="n">
-        <v>277.3826040146988</v>
+        <v>0</v>
       </c>
       <c r="V28" t="n">
-        <v>278.8943527180514</v>
+        <v>161.6737988100371</v>
       </c>
       <c r="W28" t="n">
-        <v>118.629910250553</v>
+        <v>272.1038797892121</v>
       </c>
       <c r="X28" t="n">
         <v>240.1382575886529</v>
@@ -2947,28 +2949,28 @@
         </is>
       </c>
       <c r="B31" t="n">
-        <v>188.264309024945</v>
+        <v>0</v>
       </c>
       <c r="C31" t="n">
         <v>170.2528374898731</v>
       </c>
       <c r="D31" t="n">
-        <v>0</v>
+        <v>161.683605144497</v>
       </c>
       <c r="E31" t="n">
-        <v>0</v>
+        <v>164.546123788675</v>
       </c>
       <c r="F31" t="n">
         <v>170.1431564831852</v>
       </c>
       <c r="G31" t="n">
-        <v>96.44420510686395</v>
+        <v>0</v>
       </c>
       <c r="H31" t="n">
         <v>0</v>
       </c>
       <c r="I31" t="n">
-        <v>0</v>
+        <v>98.77088257712678</v>
       </c>
       <c r="J31" t="n">
         <v>0</v>
@@ -2995,10 +2997,10 @@
         <v>0</v>
       </c>
       <c r="R31" t="n">
-        <v>0</v>
+        <v>46.56822717969858</v>
       </c>
       <c r="S31" t="n">
-        <v>0</v>
+        <v>168.4336970060565</v>
       </c>
       <c r="T31" t="n">
         <v>240.905954296359</v>
@@ -3013,10 +3015,10 @@
         <v>272.1038797892121</v>
       </c>
       <c r="X31" t="n">
-        <v>240.1382575886529</v>
+        <v>0</v>
       </c>
       <c r="Y31" t="n">
-        <v>224.0793406271554</v>
+        <v>108.9235766515635</v>
       </c>
     </row>
     <row r="32">
@@ -3196,7 +3198,7 @@
         <v>164.546123788675</v>
       </c>
       <c r="F34" t="n">
-        <v>170.1431564831852</v>
+        <v>0</v>
       </c>
       <c r="G34" t="n">
         <v>0</v>
@@ -3235,16 +3237,16 @@
         <v>0</v>
       </c>
       <c r="S34" t="n">
-        <v>168.4336970060565</v>
+        <v>0</v>
       </c>
       <c r="T34" t="n">
-        <v>240.905954296359</v>
+        <v>181.2635869532363</v>
       </c>
       <c r="U34" t="n">
-        <v>0</v>
+        <v>277.3826040146988</v>
       </c>
       <c r="V34" t="n">
-        <v>158.0577359003857</v>
+        <v>278.8943527180514</v>
       </c>
       <c r="W34" t="n">
         <v>272.1038797892121</v>
@@ -3421,7 +3423,7 @@
         </is>
       </c>
       <c r="B37" t="n">
-        <v>0</v>
+        <v>188.264309024945</v>
       </c>
       <c r="C37" t="n">
         <v>170.2528374898731</v>
@@ -3430,16 +3432,16 @@
         <v>161.683605144497</v>
       </c>
       <c r="E37" t="n">
-        <v>0</v>
+        <v>164.546123788675</v>
       </c>
       <c r="F37" t="n">
-        <v>170.1431564831852</v>
+        <v>0</v>
       </c>
       <c r="G37" t="n">
-        <v>164.5944000087102</v>
+        <v>0</v>
       </c>
       <c r="H37" t="n">
-        <v>142.3583058069271</v>
+        <v>0</v>
       </c>
       <c r="I37" t="n">
         <v>98.77088257712678</v>
@@ -3472,10 +3474,10 @@
         <v>0</v>
       </c>
       <c r="S37" t="n">
-        <v>0</v>
+        <v>168.4336970060565</v>
       </c>
       <c r="T37" t="n">
-        <v>0</v>
+        <v>186.1628871592653</v>
       </c>
       <c r="U37" t="n">
         <v>277.3826040146988</v>
@@ -3484,10 +3486,10 @@
         <v>278.8943527180514</v>
       </c>
       <c r="W37" t="n">
-        <v>272.1038797892121</v>
+        <v>0</v>
       </c>
       <c r="X37" t="n">
-        <v>198.3455324795596</v>
+        <v>240.1382575886529</v>
       </c>
       <c r="Y37" t="n">
         <v>224.0793406271554</v>
@@ -3673,10 +3675,10 @@
         <v>170.1431564831852</v>
       </c>
       <c r="G40" t="n">
-        <v>157.8345018126908</v>
+        <v>164.5944000087102</v>
       </c>
       <c r="H40" t="n">
-        <v>142.3583058069271</v>
+        <v>0</v>
       </c>
       <c r="I40" t="n">
         <v>98.77088257712678</v>
@@ -3709,16 +3711,16 @@
         <v>0</v>
       </c>
       <c r="S40" t="n">
-        <v>168.4336970060565</v>
+        <v>0</v>
       </c>
       <c r="T40" t="n">
         <v>0</v>
       </c>
       <c r="U40" t="n">
-        <v>0</v>
+        <v>277.3826040146988</v>
       </c>
       <c r="V40" t="n">
-        <v>0</v>
+        <v>26.64950060226561</v>
       </c>
       <c r="W40" t="n">
         <v>272.1038797892121</v>
@@ -3740,7 +3742,7 @@
         <v>415.6498806486147</v>
       </c>
       <c r="C41" t="n">
-        <v>422.6317226868329</v>
+        <v>417.9833126354911</v>
       </c>
       <c r="D41" t="n">
         <v>419.0596946068497</v>
@@ -3752,13 +3754,13 @@
         <v>420.8729399924937</v>
       </c>
       <c r="G41" t="n">
-        <v>0</v>
+        <v>400.2956717864458</v>
       </c>
       <c r="H41" t="n">
-        <v>0</v>
+        <v>294.8896947407055</v>
       </c>
       <c r="I41" t="n">
-        <v>0</v>
+        <v>34.5479025439635</v>
       </c>
       <c r="J41" t="n">
         <v>0</v>
@@ -3791,22 +3793,22 @@
         <v>0</v>
       </c>
       <c r="T41" t="n">
-        <v>0</v>
+        <v>218.7163152458132</v>
       </c>
       <c r="U41" t="n">
-        <v>0</v>
+        <v>255.7713603095518</v>
       </c>
       <c r="V41" t="n">
-        <v>0</v>
+        <v>353.914520725013</v>
       </c>
       <c r="W41" t="n">
-        <v>0</v>
+        <v>392.4274362026566</v>
       </c>
       <c r="X41" t="n">
         <v>407.6027988439302</v>
       </c>
       <c r="Y41" t="n">
-        <v>133.7682651318491</v>
+        <v>401.2838973446586</v>
       </c>
     </row>
     <row r="42">
@@ -3895,7 +3897,7 @@
         </is>
       </c>
       <c r="B43" t="n">
-        <v>188.264309024945</v>
+        <v>64.99733418373762</v>
       </c>
       <c r="C43" t="n">
         <v>170.2528374898731</v>
@@ -3913,10 +3915,10 @@
         <v>164.5944000087102</v>
       </c>
       <c r="H43" t="n">
-        <v>0</v>
+        <v>142.3583058069271</v>
       </c>
       <c r="I43" t="n">
-        <v>0</v>
+        <v>98.77088257712678</v>
       </c>
       <c r="J43" t="n">
         <v>0</v>
@@ -3952,16 +3954,16 @@
         <v>240.905954296359</v>
       </c>
       <c r="U43" t="n">
-        <v>0</v>
+        <v>277.3826040146988</v>
       </c>
       <c r="V43" t="n">
-        <v>161.8970328977321</v>
+        <v>278.8943527180514</v>
       </c>
       <c r="W43" t="n">
-        <v>272.1038797892121</v>
+        <v>0</v>
       </c>
       <c r="X43" t="n">
-        <v>240.1382575886529</v>
+        <v>0</v>
       </c>
       <c r="Y43" t="n">
         <v>224.0793406271554</v>
@@ -3974,13 +3976,13 @@
         </is>
       </c>
       <c r="B44" t="n">
-        <v>0</v>
+        <v>415.6498806486147</v>
       </c>
       <c r="C44" t="n">
-        <v>0</v>
+        <v>422.6317226868329</v>
       </c>
       <c r="D44" t="n">
-        <v>0</v>
+        <v>419.0596946068497</v>
       </c>
       <c r="E44" t="n">
         <v>421.717170453621</v>
@@ -3989,13 +3991,13 @@
         <v>420.8729399924937</v>
       </c>
       <c r="G44" t="n">
-        <v>0</v>
+        <v>400.2956717864458</v>
       </c>
       <c r="H44" t="n">
-        <v>294.8896947407055</v>
+        <v>186.9176635037728</v>
       </c>
       <c r="I44" t="n">
-        <v>0</v>
+        <v>34.5479025439635</v>
       </c>
       <c r="J44" t="n">
         <v>0</v>
@@ -4025,7 +4027,7 @@
         <v>0</v>
       </c>
       <c r="S44" t="n">
-        <v>0</v>
+        <v>103.323621185591</v>
       </c>
       <c r="T44" t="n">
         <v>218.7163152458132</v>
@@ -4037,13 +4039,13 @@
         <v>353.914520725013</v>
       </c>
       <c r="W44" t="n">
-        <v>267.8176720530631</v>
+        <v>392.4274362026566</v>
       </c>
       <c r="X44" t="n">
         <v>407.6027988439302</v>
       </c>
       <c r="Y44" t="n">
-        <v>0</v>
+        <v>401.2838973446586</v>
       </c>
     </row>
     <row r="45">
@@ -4135,25 +4137,25 @@
         <v>188.264309024945</v>
       </c>
       <c r="C46" t="n">
-        <v>170.2528374898731</v>
+        <v>0</v>
       </c>
       <c r="D46" t="n">
         <v>161.683605144497</v>
       </c>
       <c r="E46" t="n">
-        <v>164.546123788675</v>
+        <v>60.15466974967008</v>
       </c>
       <c r="F46" t="n">
-        <v>170.1431564831852</v>
+        <v>0</v>
       </c>
       <c r="G46" t="n">
-        <v>164.5944000087102</v>
+        <v>0</v>
       </c>
       <c r="H46" t="n">
-        <v>142.3583058069271</v>
+        <v>0</v>
       </c>
       <c r="I46" t="n">
-        <v>98.77088257712678</v>
+        <v>0</v>
       </c>
       <c r="J46" t="n">
         <v>0</v>
@@ -4180,13 +4182,13 @@
         <v>0</v>
       </c>
       <c r="R46" t="n">
-        <v>0</v>
+        <v>46.56822717969858</v>
       </c>
       <c r="S46" t="n">
         <v>168.4336970060565</v>
       </c>
       <c r="T46" t="n">
-        <v>0</v>
+        <v>240.905954296359</v>
       </c>
       <c r="U46" t="n">
         <v>277.3826040146988</v>
@@ -4195,13 +4197,13 @@
         <v>278.8943527180514</v>
       </c>
       <c r="W46" t="n">
-        <v>0</v>
+        <v>272.1038797892121</v>
       </c>
       <c r="X46" t="n">
-        <v>0</v>
+        <v>240.1382575886529</v>
       </c>
       <c r="Y46" t="n">
-        <v>173.2846230762509</v>
+        <v>224.0793406271554</v>
       </c>
     </row>
   </sheetData>
@@ -4304,76 +4306,76 @@
         </is>
       </c>
       <c r="B2" t="n">
-        <v>841.7889155111251</v>
+        <v>1342.050951843433</v>
       </c>
       <c r="C2" t="n">
-        <v>414.8881855244252</v>
+        <v>915.1502218567329</v>
       </c>
       <c r="D2" t="n">
-        <v>395.6359687498295</v>
+        <v>895.8980050821372</v>
       </c>
       <c r="E2" t="n">
-        <v>373.6994329380911</v>
+        <v>873.9614692703988</v>
       </c>
       <c r="F2" t="n">
-        <v>352.6156551678955</v>
+        <v>448.8372874597989</v>
       </c>
       <c r="G2" t="n">
-        <v>352.3169967977481</v>
+        <v>44.49822504924753</v>
       </c>
       <c r="H2" t="n">
-        <v>54.44861827178296</v>
+        <v>44.49822504924753</v>
       </c>
       <c r="I2" t="n">
-        <v>54.44861827178296</v>
+        <v>44.49822504924753</v>
       </c>
       <c r="J2" t="n">
-        <v>417.0520770886785</v>
+        <v>44.49822504924753</v>
       </c>
       <c r="K2" t="n">
-        <v>417.0520770886785</v>
+        <v>572.914647509062</v>
       </c>
       <c r="L2" t="n">
-        <v>417.0520770886785</v>
+        <v>1123.5801824935</v>
       </c>
       <c r="M2" t="n">
-        <v>1090.853728201993</v>
+        <v>1674.245717477938</v>
       </c>
       <c r="N2" t="n">
-        <v>1474.987448089748</v>
+        <v>2224.911252462377</v>
       </c>
       <c r="O2" t="n">
-        <v>1474.987448089748</v>
+        <v>2224.911252462377</v>
       </c>
       <c r="P2" t="n">
-        <v>2148.789099203062</v>
+        <v>2224.911252462377</v>
       </c>
       <c r="Q2" t="n">
-        <v>2604.874578707245</v>
+        <v>2224.911252462377</v>
       </c>
       <c r="R2" t="n">
-        <v>2722.430913589148</v>
+        <v>2224.911252462377</v>
       </c>
       <c r="S2" t="n">
-        <v>2618.063619462288</v>
+        <v>2224.911252462377</v>
       </c>
       <c r="T2" t="n">
-        <v>2397.138048506922</v>
+        <v>2224.911252462377</v>
       </c>
       <c r="U2" t="n">
-        <v>2397.138048506922</v>
+        <v>2224.911252462377</v>
       </c>
       <c r="V2" t="n">
-        <v>2039.648633633171</v>
+        <v>1867.421837588626</v>
       </c>
       <c r="W2" t="n">
-        <v>2039.648633633171</v>
+        <v>1867.421837588626</v>
       </c>
       <c r="X2" t="n">
-        <v>1627.928634800918</v>
+        <v>1455.701838756373</v>
       </c>
       <c r="Y2" t="n">
-        <v>1222.591364755809</v>
+        <v>1357.858912094559</v>
       </c>
     </row>
     <row r="3">
@@ -4383,76 +4385,76 @@
         </is>
       </c>
       <c r="B3" t="n">
-        <v>621.5721093032382</v>
+        <v>611.6217160807028</v>
       </c>
       <c r="C3" t="n">
-        <v>504.066205820743</v>
+        <v>494.1158125982075</v>
       </c>
       <c r="D3" t="n">
-        <v>400.226247336028</v>
+        <v>390.2758541134926</v>
       </c>
       <c r="E3" t="n">
-        <v>295.5243136089652</v>
+        <v>285.5739203864298</v>
       </c>
       <c r="F3" t="n">
-        <v>201.8784832918694</v>
+        <v>191.928090069334</v>
       </c>
       <c r="G3" t="n">
-        <v>107.8247115094734</v>
+        <v>97.87431828693795</v>
       </c>
       <c r="H3" t="n">
-        <v>54.44861827178296</v>
+        <v>44.49822504924753</v>
       </c>
       <c r="I3" t="n">
-        <v>54.44861827178296</v>
+        <v>44.49822504924753</v>
       </c>
       <c r="J3" t="n">
-        <v>54.44861827178296</v>
+        <v>44.49822504924753</v>
       </c>
       <c r="K3" t="n">
-        <v>54.44861827178296</v>
+        <v>44.49822504924753</v>
       </c>
       <c r="L3" t="n">
-        <v>54.44861827178296</v>
+        <v>201.1892506764427</v>
       </c>
       <c r="M3" t="n">
-        <v>725.1891208761992</v>
+        <v>201.1892506764427</v>
       </c>
       <c r="N3" t="n">
-        <v>1398.990771989513</v>
+        <v>751.8547856608809</v>
       </c>
       <c r="O3" t="n">
-        <v>1398.990771989513</v>
+        <v>1302.520320645319</v>
       </c>
       <c r="P3" t="n">
-        <v>1398.990771989513</v>
+        <v>1853.185855629757</v>
       </c>
       <c r="Q3" t="n">
-        <v>1863.136248852293</v>
+        <v>1853.185855629757</v>
       </c>
       <c r="R3" t="n">
-        <v>1863.136248852293</v>
+        <v>1853.185855629757</v>
       </c>
       <c r="S3" t="n">
-        <v>1781.812001413547</v>
+        <v>1771.861608191012</v>
       </c>
       <c r="T3" t="n">
-        <v>1639.932065711226</v>
+        <v>1629.98167248869</v>
       </c>
       <c r="U3" t="n">
-        <v>1455.163869630862</v>
+        <v>1445.213476408327</v>
       </c>
       <c r="V3" t="n">
-        <v>1250.190730770128</v>
+        <v>1240.240337547593</v>
       </c>
       <c r="W3" t="n">
-        <v>1053.669353603346</v>
+        <v>1043.71896038081</v>
       </c>
       <c r="X3" t="n">
-        <v>890.1920073700086</v>
+        <v>880.2416141474731</v>
       </c>
       <c r="Y3" t="n">
-        <v>750.499118723301</v>
+        <v>740.5487255007655</v>
       </c>
     </row>
     <row r="4">
@@ -4462,76 +4464,76 @@
         </is>
       </c>
       <c r="B4" t="n">
-        <v>1046.344835954374</v>
+        <v>955.7067844524004</v>
       </c>
       <c r="C4" t="n">
-        <v>1046.344835954374</v>
+        <v>955.7067844524004</v>
       </c>
       <c r="D4" t="n">
-        <v>1046.344835954374</v>
+        <v>792.3900115791711</v>
       </c>
       <c r="E4" t="n">
-        <v>880.1366301072271</v>
+        <v>626.1818057320246</v>
       </c>
       <c r="F4" t="n">
-        <v>708.2748558817875</v>
+        <v>454.3200315065851</v>
       </c>
       <c r="G4" t="n">
-        <v>542.0178861760197</v>
+        <v>288.0630618008172</v>
       </c>
       <c r="H4" t="n">
-        <v>542.0178861760197</v>
+        <v>144.2667933089716</v>
       </c>
       <c r="I4" t="n">
-        <v>542.0178861760197</v>
+        <v>44.49822504924753</v>
       </c>
       <c r="J4" t="n">
-        <v>599.5092144001777</v>
+        <v>101.9895532734058</v>
       </c>
       <c r="K4" t="n">
-        <v>826.0368156060149</v>
+        <v>328.5171544792431</v>
       </c>
       <c r="L4" t="n">
-        <v>1180.726136900436</v>
+        <v>683.2064757736639</v>
       </c>
       <c r="M4" t="n">
-        <v>1571.911931870686</v>
+        <v>1074.392270743915</v>
       </c>
       <c r="N4" t="n">
-        <v>1949.403442746722</v>
+        <v>1451.88378161995</v>
       </c>
       <c r="O4" t="n">
-        <v>2304.831571426485</v>
+        <v>1807.311910299714</v>
       </c>
       <c r="P4" t="n">
-        <v>2595.430783348386</v>
+        <v>2097.911122221615</v>
       </c>
       <c r="Q4" t="n">
-        <v>2722.430913589148</v>
+        <v>2224.911252462377</v>
       </c>
       <c r="R4" t="n">
-        <v>2722.430913589148</v>
+        <v>2224.911252462377</v>
       </c>
       <c r="S4" t="n">
-        <v>2722.430913589148</v>
+        <v>2224.911252462377</v>
       </c>
       <c r="T4" t="n">
-        <v>2542.165789250046</v>
+        <v>1981.571904688276</v>
       </c>
       <c r="U4" t="n">
-        <v>2261.98134075035</v>
+        <v>1981.177320536311</v>
       </c>
       <c r="V4" t="n">
-        <v>1980.269873358379</v>
+        <v>1699.46585314434</v>
       </c>
       <c r="W4" t="n">
-        <v>1705.417469530892</v>
+        <v>1424.613449316853</v>
       </c>
       <c r="X4" t="n">
-        <v>1462.853572976697</v>
+        <v>1182.049552762658</v>
       </c>
       <c r="Y4" t="n">
-        <v>1236.510804666439</v>
+        <v>955.7067844524004</v>
       </c>
     </row>
     <row r="5">
@@ -4541,76 +4543,76 @@
         </is>
       </c>
       <c r="B5" t="n">
-        <v>1684.766594848462</v>
+        <v>1639.919330369398</v>
       </c>
       <c r="C5" t="n">
-        <v>1257.865864861762</v>
+        <v>1213.018600382698</v>
       </c>
       <c r="D5" t="n">
-        <v>834.5732440467625</v>
+        <v>789.7259795676982</v>
       </c>
       <c r="E5" t="n">
-        <v>812.6367082350241</v>
+        <v>363.7490397155557</v>
       </c>
       <c r="F5" t="n">
-        <v>387.5125264244243</v>
+        <v>342.66526194536</v>
       </c>
       <c r="G5" t="n">
-        <v>387.2138680542769</v>
+        <v>342.3666035752127</v>
       </c>
       <c r="H5" t="n">
-        <v>89.34548952831176</v>
+        <v>44.49822504924753</v>
       </c>
       <c r="I5" t="n">
-        <v>54.44861827178296</v>
+        <v>44.49822504924753</v>
       </c>
       <c r="J5" t="n">
-        <v>54.44861827178296</v>
+        <v>44.49822504924753</v>
       </c>
       <c r="K5" t="n">
-        <v>54.44861827178296</v>
+        <v>44.49822504924753</v>
       </c>
       <c r="L5" t="n">
-        <v>54.44861827178296</v>
+        <v>595.1637600336857</v>
       </c>
       <c r="M5" t="n">
-        <v>583.4696253673028</v>
+        <v>595.1637600336857</v>
       </c>
       <c r="N5" t="n">
-        <v>1257.271276480617</v>
+        <v>1145.829295018124</v>
       </c>
       <c r="O5" t="n">
-        <v>1931.072927593931</v>
+        <v>1696.494830002562</v>
       </c>
       <c r="P5" t="n">
-        <v>2604.874578707245</v>
+        <v>1768.825772958194</v>
       </c>
       <c r="Q5" t="n">
-        <v>2604.874578707245</v>
+        <v>2224.911252462377</v>
       </c>
       <c r="R5" t="n">
-        <v>2722.430913589148</v>
+        <v>2224.911252462377</v>
       </c>
       <c r="S5" t="n">
-        <v>2618.063619462288</v>
+        <v>2224.911252462377</v>
       </c>
       <c r="T5" t="n">
-        <v>2618.063619462288</v>
+        <v>2224.911252462377</v>
       </c>
       <c r="U5" t="n">
-        <v>2618.063619462288</v>
+        <v>2224.911252462377</v>
       </c>
       <c r="V5" t="n">
-        <v>2618.063619462288</v>
+        <v>2224.911252462377</v>
       </c>
       <c r="W5" t="n">
-        <v>2618.063619462288</v>
+        <v>2224.911252462377</v>
       </c>
       <c r="X5" t="n">
-        <v>2509.952229185102</v>
+        <v>2061.064560665634</v>
       </c>
       <c r="Y5" t="n">
-        <v>2104.614959139992</v>
+        <v>2059.767694660928</v>
       </c>
     </row>
     <row r="6">
@@ -4620,76 +4622,76 @@
         </is>
       </c>
       <c r="B6" t="n">
-        <v>621.5721093032382</v>
+        <v>611.6217160807028</v>
       </c>
       <c r="C6" t="n">
-        <v>504.066205820743</v>
+        <v>494.1158125982075</v>
       </c>
       <c r="D6" t="n">
-        <v>400.226247336028</v>
+        <v>390.2758541134926</v>
       </c>
       <c r="E6" t="n">
-        <v>295.5243136089652</v>
+        <v>285.5739203864298</v>
       </c>
       <c r="F6" t="n">
-        <v>201.8784832918694</v>
+        <v>191.928090069334</v>
       </c>
       <c r="G6" t="n">
-        <v>107.8247115094734</v>
+        <v>97.87431828693795</v>
       </c>
       <c r="H6" t="n">
-        <v>54.44861827178296</v>
+        <v>44.49822504924753</v>
       </c>
       <c r="I6" t="n">
-        <v>54.44861827178296</v>
+        <v>44.49822504924753</v>
       </c>
       <c r="J6" t="n">
-        <v>54.44861827178296</v>
+        <v>316.1957143288386</v>
       </c>
       <c r="K6" t="n">
-        <v>644.9335448401225</v>
+        <v>316.1957143288386</v>
       </c>
       <c r="L6" t="n">
-        <v>644.9335448401225</v>
+        <v>866.8612493132769</v>
       </c>
       <c r="M6" t="n">
-        <v>725.1891208761992</v>
+        <v>866.8612493132769</v>
       </c>
       <c r="N6" t="n">
-        <v>725.1891208761992</v>
+        <v>866.8612493132769</v>
       </c>
       <c r="O6" t="n">
-        <v>1398.990771989513</v>
+        <v>1417.526784297715</v>
       </c>
       <c r="P6" t="n">
-        <v>1398.990771989513</v>
+        <v>1853.185855629757</v>
       </c>
       <c r="Q6" t="n">
-        <v>1863.136248852293</v>
+        <v>1853.185855629757</v>
       </c>
       <c r="R6" t="n">
-        <v>1863.136248852293</v>
+        <v>1853.185855629757</v>
       </c>
       <c r="S6" t="n">
-        <v>1781.812001413547</v>
+        <v>1771.861608191012</v>
       </c>
       <c r="T6" t="n">
-        <v>1639.932065711226</v>
+        <v>1629.98167248869</v>
       </c>
       <c r="U6" t="n">
-        <v>1455.163869630862</v>
+        <v>1445.213476408327</v>
       </c>
       <c r="V6" t="n">
-        <v>1250.190730770128</v>
+        <v>1240.240337547593</v>
       </c>
       <c r="W6" t="n">
-        <v>1053.669353603346</v>
+        <v>1043.71896038081</v>
       </c>
       <c r="X6" t="n">
-        <v>890.1920073700086</v>
+        <v>880.2416141474731</v>
       </c>
       <c r="Y6" t="n">
-        <v>750.499118723301</v>
+        <v>740.5487255007655</v>
       </c>
     </row>
     <row r="7">
@@ -4699,76 +4701,76 @@
         </is>
       </c>
       <c r="B7" t="n">
-        <v>691.2266278565069</v>
+        <v>1127.679347573484</v>
       </c>
       <c r="C7" t="n">
-        <v>519.2540647354228</v>
+        <v>955.7067844524004</v>
       </c>
       <c r="D7" t="n">
-        <v>519.2540647354228</v>
+        <v>792.3900115791711</v>
       </c>
       <c r="E7" t="n">
-        <v>353.0458588882764</v>
+        <v>626.1818057320246</v>
       </c>
       <c r="F7" t="n">
-        <v>181.1840846628368</v>
+        <v>454.3200315065851</v>
       </c>
       <c r="G7" t="n">
-        <v>154.217186531507</v>
+        <v>288.0630618008172</v>
       </c>
       <c r="H7" t="n">
-        <v>154.217186531507</v>
+        <v>144.2667933089716</v>
       </c>
       <c r="I7" t="n">
-        <v>54.44861827178296</v>
+        <v>44.49822504924753</v>
       </c>
       <c r="J7" t="n">
-        <v>111.939946495941</v>
+        <v>101.9895532734055</v>
       </c>
       <c r="K7" t="n">
-        <v>338.4675477017781</v>
+        <v>328.5171544792427</v>
       </c>
       <c r="L7" t="n">
-        <v>693.1568689961989</v>
+        <v>683.2064757736634</v>
       </c>
       <c r="M7" t="n">
-        <v>1084.34266396645</v>
+        <v>1074.392270743914</v>
       </c>
       <c r="N7" t="n">
-        <v>1461.834174842485</v>
+        <v>1451.88378161995</v>
       </c>
       <c r="O7" t="n">
-        <v>1817.262303522249</v>
+        <v>1807.311910299713</v>
       </c>
       <c r="P7" t="n">
-        <v>2107.86151544415</v>
+        <v>2097.911122221614</v>
       </c>
       <c r="Q7" t="n">
-        <v>2234.861645684911</v>
+        <v>2224.911252462376</v>
       </c>
       <c r="R7" t="n">
-        <v>2187.823032372085</v>
+        <v>2224.911252462376</v>
       </c>
       <c r="S7" t="n">
-        <v>2187.823032372085</v>
+        <v>2224.911252462376</v>
       </c>
       <c r="T7" t="n">
-        <v>1944.483684597984</v>
+        <v>1981.571904688275</v>
       </c>
       <c r="U7" t="n">
-        <v>1664.299236098289</v>
+        <v>1981.571904688275</v>
       </c>
       <c r="V7" t="n">
-        <v>1382.587768706318</v>
+        <v>1699.860437296304</v>
       </c>
       <c r="W7" t="n">
-        <v>1107.735364878831</v>
+        <v>1699.860437296304</v>
       </c>
       <c r="X7" t="n">
-        <v>1107.735364878831</v>
+        <v>1544.188084595808</v>
       </c>
       <c r="Y7" t="n">
-        <v>881.3925965685726</v>
+        <v>1317.84531628555</v>
       </c>
     </row>
     <row r="8">
@@ -4778,76 +4780,76 @@
         </is>
       </c>
       <c r="B8" t="n">
-        <v>1792.847444674551</v>
+        <v>1392.046023333888</v>
       </c>
       <c r="C8" t="n">
-        <v>1769.987118728255</v>
+        <v>1369.185697387592</v>
       </c>
       <c r="D8" t="n">
-        <v>1642.654052127571</v>
+        <v>945.8930765725927</v>
       </c>
       <c r="E8" t="n">
-        <v>1216.677112275428</v>
+        <v>519.9161367204503</v>
       </c>
       <c r="F8" t="n">
-        <v>791.5529304648283</v>
+        <v>498.8323589502546</v>
       </c>
       <c r="G8" t="n">
-        <v>387.2138680542769</v>
+        <v>94.49329653970318</v>
       </c>
       <c r="H8" t="n">
-        <v>89.34548952831176</v>
+        <v>79.39509630577632</v>
       </c>
       <c r="I8" t="n">
-        <v>54.44861827178296</v>
+        <v>44.49822504924753</v>
       </c>
       <c r="J8" t="n">
-        <v>417.0520770886785</v>
+        <v>44.49822504924753</v>
       </c>
       <c r="K8" t="n">
-        <v>1090.853728201993</v>
+        <v>44.49822504924753</v>
       </c>
       <c r="L8" t="n">
-        <v>1257.271276480617</v>
+        <v>549.9383681074144</v>
       </c>
       <c r="M8" t="n">
-        <v>1931.072927593931</v>
+        <v>1100.603903091853</v>
       </c>
       <c r="N8" t="n">
-        <v>2604.874578707245</v>
+        <v>1651.269438076291</v>
       </c>
       <c r="O8" t="n">
-        <v>2604.874578707245</v>
+        <v>1651.269438076291</v>
       </c>
       <c r="P8" t="n">
-        <v>2604.874578707245</v>
+        <v>1651.269438076291</v>
       </c>
       <c r="Q8" t="n">
-        <v>2604.874578707245</v>
+        <v>2107.354917580474</v>
       </c>
       <c r="R8" t="n">
-        <v>2722.430913589148</v>
+        <v>2224.911252462377</v>
       </c>
       <c r="S8" t="n">
-        <v>2618.063619462288</v>
+        <v>2224.911252462377</v>
       </c>
       <c r="T8" t="n">
-        <v>2618.063619462288</v>
+        <v>2224.911252462377</v>
       </c>
       <c r="U8" t="n">
-        <v>2618.063619462288</v>
+        <v>2224.911252462377</v>
       </c>
       <c r="V8" t="n">
-        <v>2618.063619462288</v>
+        <v>2224.911252462377</v>
       </c>
       <c r="W8" t="n">
-        <v>2221.672269762636</v>
+        <v>2224.911252462377</v>
       </c>
       <c r="X8" t="n">
-        <v>1809.952270930383</v>
+        <v>2217.231657670528</v>
       </c>
       <c r="Y8" t="n">
-        <v>1808.655404925677</v>
+        <v>1811.894387625418</v>
       </c>
     </row>
     <row r="9">
@@ -4857,76 +4859,76 @@
         </is>
       </c>
       <c r="B9" t="n">
-        <v>621.5721093032382</v>
+        <v>611.6217160807028</v>
       </c>
       <c r="C9" t="n">
-        <v>504.066205820743</v>
+        <v>494.1158125982075</v>
       </c>
       <c r="D9" t="n">
-        <v>400.226247336028</v>
+        <v>390.2758541134926</v>
       </c>
       <c r="E9" t="n">
-        <v>295.5243136089652</v>
+        <v>285.5739203864298</v>
       </c>
       <c r="F9" t="n">
-        <v>201.8784832918694</v>
+        <v>191.928090069334</v>
       </c>
       <c r="G9" t="n">
-        <v>107.8247115094734</v>
+        <v>97.87431828693795</v>
       </c>
       <c r="H9" t="n">
-        <v>54.44861827178296</v>
+        <v>44.49822504924753</v>
       </c>
       <c r="I9" t="n">
-        <v>54.44861827178296</v>
+        <v>44.49822504924753</v>
       </c>
       <c r="J9" t="n">
-        <v>326.146107551374</v>
+        <v>44.49822504924753</v>
       </c>
       <c r="K9" t="n">
-        <v>916.6310341197136</v>
+        <v>119.1699405917395</v>
       </c>
       <c r="L9" t="n">
-        <v>1398.990771989513</v>
+        <v>669.8354755761777</v>
       </c>
       <c r="M9" t="n">
-        <v>1398.990771989513</v>
+        <v>1220.501010560616</v>
       </c>
       <c r="N9" t="n">
-        <v>1398.990771989513</v>
+        <v>1220.501010560616</v>
       </c>
       <c r="O9" t="n">
-        <v>1398.990771989513</v>
+        <v>1771.166545545054</v>
       </c>
       <c r="P9" t="n">
-        <v>1398.990771989513</v>
+        <v>1771.166545545054</v>
       </c>
       <c r="Q9" t="n">
-        <v>1863.136248852293</v>
+        <v>1771.166545545054</v>
       </c>
       <c r="R9" t="n">
-        <v>1863.136248852293</v>
+        <v>1853.185855629757</v>
       </c>
       <c r="S9" t="n">
-        <v>1781.812001413547</v>
+        <v>1771.861608191012</v>
       </c>
       <c r="T9" t="n">
-        <v>1639.932065711226</v>
+        <v>1629.98167248869</v>
       </c>
       <c r="U9" t="n">
-        <v>1455.163869630862</v>
+        <v>1445.213476408327</v>
       </c>
       <c r="V9" t="n">
-        <v>1250.190730770128</v>
+        <v>1240.240337547593</v>
       </c>
       <c r="W9" t="n">
-        <v>1053.669353603346</v>
+        <v>1043.71896038081</v>
       </c>
       <c r="X9" t="n">
-        <v>890.1920073700086</v>
+        <v>880.2416141474731</v>
       </c>
       <c r="Y9" t="n">
-        <v>750.499118723301</v>
+        <v>740.5487255007655</v>
       </c>
     </row>
     <row r="10">
@@ -4936,76 +4938,76 @@
         </is>
       </c>
       <c r="B10" t="n">
-        <v>468.6936525335126</v>
+        <v>458.7432593109769</v>
       </c>
       <c r="C10" t="n">
-        <v>296.7210894124286</v>
+        <v>458.7432593109769</v>
       </c>
       <c r="D10" t="n">
-        <v>133.4043165391993</v>
+        <v>458.7432593109769</v>
       </c>
       <c r="E10" t="n">
-        <v>54.44861827178296</v>
+        <v>458.7432593109769</v>
       </c>
       <c r="F10" t="n">
-        <v>54.44861827178296</v>
+        <v>454.3200315065851</v>
       </c>
       <c r="G10" t="n">
-        <v>54.44861827178296</v>
+        <v>288.0630618008172</v>
       </c>
       <c r="H10" t="n">
-        <v>54.44861827178296</v>
+        <v>144.2667933089716</v>
       </c>
       <c r="I10" t="n">
-        <v>54.44861827178296</v>
+        <v>44.49822504924753</v>
       </c>
       <c r="J10" t="n">
-        <v>111.939946495941</v>
+        <v>101.9895532734055</v>
       </c>
       <c r="K10" t="n">
-        <v>338.4675477017781</v>
+        <v>328.5171544792427</v>
       </c>
       <c r="L10" t="n">
-        <v>693.1568689961989</v>
+        <v>683.2064757736634</v>
       </c>
       <c r="M10" t="n">
-        <v>1084.34266396645</v>
+        <v>1074.392270743914</v>
       </c>
       <c r="N10" t="n">
-        <v>1461.834174842485</v>
+        <v>1451.88378161995</v>
       </c>
       <c r="O10" t="n">
-        <v>1817.262303522249</v>
+        <v>1807.311910299713</v>
       </c>
       <c r="P10" t="n">
-        <v>2107.86151544415</v>
+        <v>2097.911122221614</v>
       </c>
       <c r="Q10" t="n">
-        <v>2234.861645684911</v>
+        <v>2224.911252462376</v>
       </c>
       <c r="R10" t="n">
-        <v>2187.823032372085</v>
+        <v>2177.872639149549</v>
       </c>
       <c r="S10" t="n">
-        <v>2017.687984891219</v>
+        <v>2007.737591668684</v>
       </c>
       <c r="T10" t="n">
-        <v>1774.348637117119</v>
+        <v>1764.398243894584</v>
       </c>
       <c r="U10" t="n">
-        <v>1494.164188617424</v>
+        <v>1484.213795394888</v>
       </c>
       <c r="V10" t="n">
-        <v>1212.452721225452</v>
+        <v>1202.502328002917</v>
       </c>
       <c r="W10" t="n">
-        <v>937.6003173979655</v>
+        <v>927.6499241754298</v>
       </c>
       <c r="X10" t="n">
-        <v>695.0364208437705</v>
+        <v>685.0860276212348</v>
       </c>
       <c r="Y10" t="n">
-        <v>468.6936525335126</v>
+        <v>458.7432593109769</v>
       </c>
     </row>
     <row r="11">
@@ -5015,76 +5017,76 @@
         </is>
       </c>
       <c r="B11" t="n">
-        <v>1217.529870316971</v>
+        <v>2538.475729536478</v>
       </c>
       <c r="C11" t="n">
-        <v>1217.529870316971</v>
+        <v>2111.574999549778</v>
       </c>
       <c r="D11" t="n">
-        <v>1217.529870316971</v>
+        <v>1688.282378734778</v>
       </c>
       <c r="E11" t="n">
-        <v>791.5529304648283</v>
+        <v>1262.305438882635</v>
       </c>
       <c r="F11" t="n">
-        <v>791.5529304648283</v>
+        <v>837.1812570720355</v>
       </c>
       <c r="G11" t="n">
-        <v>387.2138680542769</v>
+        <v>432.8421946614841</v>
       </c>
       <c r="H11" t="n">
-        <v>89.34548952831176</v>
+        <v>134.9738161355189</v>
       </c>
       <c r="I11" t="n">
-        <v>54.44861827178296</v>
+        <v>100.0769448789901</v>
       </c>
       <c r="J11" t="n">
-        <v>54.44861827178296</v>
+        <v>462.6804036958856</v>
       </c>
       <c r="K11" t="n">
-        <v>728.2502693850971</v>
+        <v>1130.984051391754</v>
       </c>
       <c r="L11" t="n">
-        <v>801.1857969764337</v>
+        <v>2060.609099011031</v>
       </c>
       <c r="M11" t="n">
-        <v>1474.987448089748</v>
+        <v>3064.895200430089</v>
       </c>
       <c r="N11" t="n">
-        <v>2148.789099203062</v>
+        <v>4041.14625891679</v>
       </c>
       <c r="O11" t="n">
-        <v>2148.789099203062</v>
+        <v>4886.290909067602</v>
       </c>
       <c r="P11" t="n">
-        <v>2148.789099203062</v>
+        <v>4886.290909067602</v>
       </c>
       <c r="Q11" t="n">
-        <v>2604.874578707245</v>
+        <v>4886.290909067602</v>
       </c>
       <c r="R11" t="n">
-        <v>2722.430913589148</v>
+        <v>5003.847243949504</v>
       </c>
       <c r="S11" t="n">
-        <v>2618.063619462288</v>
+        <v>4899.479949822645</v>
       </c>
       <c r="T11" t="n">
-        <v>2397.138048506922</v>
+        <v>4678.554378867278</v>
       </c>
       <c r="U11" t="n">
-        <v>2138.783139103334</v>
+        <v>4529.262127278774</v>
       </c>
       <c r="V11" t="n">
-        <v>2025.641218848876</v>
+        <v>4171.772712405023</v>
       </c>
       <c r="W11" t="n">
-        <v>1629.249869149223</v>
+        <v>3775.38136270537</v>
       </c>
       <c r="X11" t="n">
-        <v>1217.529870316971</v>
+        <v>3363.661363873117</v>
       </c>
       <c r="Y11" t="n">
-        <v>1217.529870316971</v>
+        <v>2958.324093828008</v>
       </c>
     </row>
     <row r="12">
@@ -5094,76 +5096,76 @@
         </is>
       </c>
       <c r="B12" t="n">
-        <v>621.5721093032382</v>
+        <v>667.2004359104453</v>
       </c>
       <c r="C12" t="n">
-        <v>504.066205820743</v>
+        <v>549.6945324279501</v>
       </c>
       <c r="D12" t="n">
-        <v>400.226247336028</v>
+        <v>445.8545739432351</v>
       </c>
       <c r="E12" t="n">
-        <v>295.5243136089652</v>
+        <v>341.1526402161723</v>
       </c>
       <c r="F12" t="n">
-        <v>201.8784832918694</v>
+        <v>247.5068098990765</v>
       </c>
       <c r="G12" t="n">
-        <v>107.8247115094734</v>
+        <v>153.4530381166805</v>
       </c>
       <c r="H12" t="n">
-        <v>54.44861827178296</v>
+        <v>100.0769448789901</v>
       </c>
       <c r="I12" t="n">
-        <v>54.44861827178296</v>
+        <v>100.0769448789901</v>
       </c>
       <c r="J12" t="n">
-        <v>54.44861827178296</v>
+        <v>100.0769448789901</v>
       </c>
       <c r="K12" t="n">
-        <v>54.44861827178296</v>
+        <v>100.0769448789901</v>
       </c>
       <c r="L12" t="n">
-        <v>515.5329466256644</v>
+        <v>303.0855804095302</v>
       </c>
       <c r="M12" t="n">
-        <v>1189.334597738979</v>
+        <v>303.0855804095302</v>
       </c>
       <c r="N12" t="n">
-        <v>1863.136248852293</v>
+        <v>303.0855804095302</v>
       </c>
       <c r="O12" t="n">
-        <v>1863.136248852293</v>
+        <v>1192.566858421002</v>
       </c>
       <c r="P12" t="n">
-        <v>1863.136248852293</v>
+        <v>1908.7645754595</v>
       </c>
       <c r="Q12" t="n">
-        <v>1863.136248852293</v>
+        <v>1908.7645754595</v>
       </c>
       <c r="R12" t="n">
-        <v>1863.136248852293</v>
+        <v>1908.7645754595</v>
       </c>
       <c r="S12" t="n">
-        <v>1781.812001413547</v>
+        <v>1827.440328020754</v>
       </c>
       <c r="T12" t="n">
-        <v>1639.932065711226</v>
+        <v>1685.560392318433</v>
       </c>
       <c r="U12" t="n">
-        <v>1455.163869630862</v>
+        <v>1500.792196238069</v>
       </c>
       <c r="V12" t="n">
-        <v>1250.190730770128</v>
+        <v>1295.819057377335</v>
       </c>
       <c r="W12" t="n">
-        <v>1053.669353603346</v>
+        <v>1099.297680210553</v>
       </c>
       <c r="X12" t="n">
-        <v>890.1920073700086</v>
+        <v>935.8203339772157</v>
       </c>
       <c r="Y12" t="n">
-        <v>750.499118723301</v>
+        <v>796.1274453305081</v>
       </c>
     </row>
     <row r="13">
@@ -5173,76 +5175,76 @@
         </is>
       </c>
       <c r="B13" t="n">
-        <v>1137.62974079602</v>
+        <v>1183.258067403227</v>
       </c>
       <c r="C13" t="n">
-        <v>965.6571776749358</v>
+        <v>1011.285504282143</v>
       </c>
       <c r="D13" t="n">
-        <v>802.3404048017065</v>
+        <v>847.9687314089136</v>
       </c>
       <c r="E13" t="n">
-        <v>636.1321989545601</v>
+        <v>681.7605255617672</v>
       </c>
       <c r="F13" t="n">
-        <v>464.2704247291205</v>
+        <v>509.8987513363276</v>
       </c>
       <c r="G13" t="n">
-        <v>298.0134550233526</v>
+        <v>343.6417816305598</v>
       </c>
       <c r="H13" t="n">
-        <v>154.217186531507</v>
+        <v>199.8455131387141</v>
       </c>
       <c r="I13" t="n">
-        <v>54.44861827178296</v>
+        <v>100.0769448789901</v>
       </c>
       <c r="J13" t="n">
-        <v>111.939946495941</v>
+        <v>157.5682731031481</v>
       </c>
       <c r="K13" t="n">
-        <v>338.4675477017781</v>
+        <v>384.0958743089853</v>
       </c>
       <c r="L13" t="n">
-        <v>693.1568689961989</v>
+        <v>738.785195603406</v>
       </c>
       <c r="M13" t="n">
-        <v>1084.34266396645</v>
+        <v>1129.970990573657</v>
       </c>
       <c r="N13" t="n">
-        <v>1461.834174842485</v>
+        <v>1507.462501449693</v>
       </c>
       <c r="O13" t="n">
-        <v>1817.262303522249</v>
+        <v>1862.890630129456</v>
       </c>
       <c r="P13" t="n">
-        <v>2107.86151544415</v>
+        <v>2153.489842051356</v>
       </c>
       <c r="Q13" t="n">
-        <v>2234.861645684911</v>
+        <v>2280.489972292118</v>
       </c>
       <c r="R13" t="n">
-        <v>2234.861645684911</v>
+        <v>2280.489972292118</v>
       </c>
       <c r="S13" t="n">
-        <v>2234.861645684911</v>
+        <v>2280.489972292118</v>
       </c>
       <c r="T13" t="n">
-        <v>2234.861645684911</v>
+        <v>2280.489972292118</v>
       </c>
       <c r="U13" t="n">
-        <v>2234.861645684911</v>
+        <v>2280.489972292118</v>
       </c>
       <c r="V13" t="n">
-        <v>2071.554778200025</v>
+        <v>2117.183104807232</v>
       </c>
       <c r="W13" t="n">
-        <v>1796.702374372538</v>
+        <v>1842.330700979745</v>
       </c>
       <c r="X13" t="n">
-        <v>1554.138477818344</v>
+        <v>1599.766804425551</v>
       </c>
       <c r="Y13" t="n">
-        <v>1327.795709508086</v>
+        <v>1373.424036115293</v>
       </c>
     </row>
     <row r="14">
@@ -5252,76 +5254,76 @@
         </is>
       </c>
       <c r="B14" t="n">
-        <v>1485.525280420256</v>
+        <v>2429.413071721394</v>
       </c>
       <c r="C14" t="n">
-        <v>1058.624550433556</v>
+        <v>2002.512341734694</v>
       </c>
       <c r="D14" t="n">
-        <v>635.3319296185562</v>
+        <v>1579.219720919694</v>
       </c>
       <c r="E14" t="n">
-        <v>209.3549897664137</v>
+        <v>1153.242781067552</v>
       </c>
       <c r="F14" t="n">
-        <v>54.44861827178296</v>
+        <v>728.1185992569519</v>
       </c>
       <c r="G14" t="n">
-        <v>54.44861827178296</v>
+        <v>432.8421946614841</v>
       </c>
       <c r="H14" t="n">
-        <v>54.44861827178296</v>
+        <v>134.9738161355189</v>
       </c>
       <c r="I14" t="n">
-        <v>54.44861827178296</v>
+        <v>100.0769448789901</v>
       </c>
       <c r="J14" t="n">
-        <v>54.44861827178296</v>
+        <v>462.6804036958856</v>
       </c>
       <c r="K14" t="n">
-        <v>728.2502693850971</v>
+        <v>462.6804036958856</v>
       </c>
       <c r="L14" t="n">
-        <v>1402.051920498411</v>
+        <v>1392.305451315162</v>
       </c>
       <c r="M14" t="n">
-        <v>1931.072927593931</v>
+        <v>2396.59155273422</v>
       </c>
       <c r="N14" t="n">
-        <v>2604.874578707245</v>
+        <v>3372.842611220921</v>
       </c>
       <c r="O14" t="n">
-        <v>2604.874578707245</v>
+        <v>4217.987261371733</v>
       </c>
       <c r="P14" t="n">
-        <v>2604.874578707245</v>
+        <v>4430.205429563419</v>
       </c>
       <c r="Q14" t="n">
-        <v>2604.874578707245</v>
+        <v>4886.290909067602</v>
       </c>
       <c r="R14" t="n">
-        <v>2722.430913589148</v>
+        <v>5003.847243949504</v>
       </c>
       <c r="S14" t="n">
-        <v>2722.430913589148</v>
+        <v>4899.479949822645</v>
       </c>
       <c r="T14" t="n">
-        <v>2722.430913589148</v>
+        <v>4678.554378867278</v>
       </c>
       <c r="U14" t="n">
-        <v>2722.430913589148</v>
+        <v>4420.19946946369</v>
       </c>
       <c r="V14" t="n">
-        <v>2722.430913589148</v>
+        <v>4062.710054589939</v>
       </c>
       <c r="W14" t="n">
-        <v>2722.430913589148</v>
+        <v>3666.318704890286</v>
       </c>
       <c r="X14" t="n">
-        <v>2310.710914756895</v>
+        <v>3254.598706058034</v>
       </c>
       <c r="Y14" t="n">
-        <v>1905.373644711786</v>
+        <v>2849.261436012924</v>
       </c>
     </row>
     <row r="15">
@@ -5331,76 +5333,76 @@
         </is>
       </c>
       <c r="B15" t="n">
-        <v>621.5721093032382</v>
+        <v>667.2004359104453</v>
       </c>
       <c r="C15" t="n">
-        <v>504.066205820743</v>
+        <v>549.6945324279501</v>
       </c>
       <c r="D15" t="n">
-        <v>400.226247336028</v>
+        <v>445.8545739432351</v>
       </c>
       <c r="E15" t="n">
-        <v>295.5243136089652</v>
+        <v>341.1526402161723</v>
       </c>
       <c r="F15" t="n">
-        <v>201.8784832918694</v>
+        <v>247.5068098990765</v>
       </c>
       <c r="G15" t="n">
-        <v>107.8247115094734</v>
+        <v>153.4530381166805</v>
       </c>
       <c r="H15" t="n">
-        <v>54.44861827178296</v>
+        <v>100.0769448789901</v>
       </c>
       <c r="I15" t="n">
-        <v>54.44861827178296</v>
+        <v>100.0769448789901</v>
       </c>
       <c r="J15" t="n">
-        <v>54.44861827178296</v>
+        <v>100.0769448789901</v>
       </c>
       <c r="K15" t="n">
-        <v>54.44861827178296</v>
+        <v>100.0769448789901</v>
       </c>
       <c r="L15" t="n">
-        <v>728.2502693850971</v>
+        <v>100.0769448789901</v>
       </c>
       <c r="M15" t="n">
-        <v>728.2502693850971</v>
+        <v>1156.063482855035</v>
       </c>
       <c r="N15" t="n">
-        <v>728.2502693850971</v>
+        <v>1908.7645754595</v>
       </c>
       <c r="O15" t="n">
-        <v>728.2502693850971</v>
+        <v>1908.7645754595</v>
       </c>
       <c r="P15" t="n">
-        <v>1398.990771989513</v>
+        <v>1908.7645754595</v>
       </c>
       <c r="Q15" t="n">
-        <v>1863.136248852293</v>
+        <v>1908.7645754595</v>
       </c>
       <c r="R15" t="n">
-        <v>1863.136248852293</v>
+        <v>1908.7645754595</v>
       </c>
       <c r="S15" t="n">
-        <v>1781.812001413547</v>
+        <v>1827.440328020754</v>
       </c>
       <c r="T15" t="n">
-        <v>1639.932065711226</v>
+        <v>1685.560392318433</v>
       </c>
       <c r="U15" t="n">
-        <v>1455.163869630862</v>
+        <v>1500.792196238069</v>
       </c>
       <c r="V15" t="n">
-        <v>1250.190730770128</v>
+        <v>1295.819057377335</v>
       </c>
       <c r="W15" t="n">
-        <v>1053.669353603346</v>
+        <v>1099.297680210553</v>
       </c>
       <c r="X15" t="n">
-        <v>890.1920073700086</v>
+        <v>935.8203339772157</v>
       </c>
       <c r="Y15" t="n">
-        <v>750.499118723301</v>
+        <v>796.1274453305081</v>
       </c>
     </row>
     <row r="16">
@@ -5410,76 +5412,76 @@
         </is>
       </c>
       <c r="B16" t="n">
-        <v>1137.62974079602</v>
+        <v>1183.258067403227</v>
       </c>
       <c r="C16" t="n">
-        <v>965.6571776749358</v>
+        <v>1011.285504282143</v>
       </c>
       <c r="D16" t="n">
-        <v>802.3404048017065</v>
+        <v>847.9687314089136</v>
       </c>
       <c r="E16" t="n">
-        <v>636.1321989545601</v>
+        <v>681.7605255617672</v>
       </c>
       <c r="F16" t="n">
-        <v>464.2704247291205</v>
+        <v>509.8987513363276</v>
       </c>
       <c r="G16" t="n">
-        <v>298.0134550233526</v>
+        <v>343.6417816305598</v>
       </c>
       <c r="H16" t="n">
-        <v>154.217186531507</v>
+        <v>199.8455131387141</v>
       </c>
       <c r="I16" t="n">
-        <v>54.44861827178296</v>
+        <v>100.0769448789901</v>
       </c>
       <c r="J16" t="n">
-        <v>111.939946495941</v>
+        <v>157.5682731031481</v>
       </c>
       <c r="K16" t="n">
-        <v>338.4675477017781</v>
+        <v>384.0958743089853</v>
       </c>
       <c r="L16" t="n">
-        <v>693.1568689961989</v>
+        <v>738.785195603406</v>
       </c>
       <c r="M16" t="n">
-        <v>1084.34266396645</v>
+        <v>1129.970990573657</v>
       </c>
       <c r="N16" t="n">
-        <v>1461.834174842485</v>
+        <v>1507.462501449693</v>
       </c>
       <c r="O16" t="n">
-        <v>1817.262303522249</v>
+        <v>1862.890630129456</v>
       </c>
       <c r="P16" t="n">
-        <v>2107.86151544415</v>
+        <v>2153.489842051356</v>
       </c>
       <c r="Q16" t="n">
-        <v>2234.861645684911</v>
+        <v>2280.489972292118</v>
       </c>
       <c r="R16" t="n">
-        <v>2234.861645684911</v>
+        <v>2280.489972292118</v>
       </c>
       <c r="S16" t="n">
-        <v>2234.861645684911</v>
+        <v>2280.489972292118</v>
       </c>
       <c r="T16" t="n">
-        <v>2234.861645684911</v>
+        <v>2280.489972292118</v>
       </c>
       <c r="U16" t="n">
-        <v>2234.861645684911</v>
+        <v>2280.489972292118</v>
       </c>
       <c r="V16" t="n">
-        <v>2071.554778200025</v>
+        <v>2117.183104807232</v>
       </c>
       <c r="W16" t="n">
-        <v>1796.702374372538</v>
+        <v>1842.330700979745</v>
       </c>
       <c r="X16" t="n">
-        <v>1554.138477818344</v>
+        <v>1599.766804425551</v>
       </c>
       <c r="Y16" t="n">
-        <v>1327.795709508086</v>
+        <v>1373.424036115293</v>
       </c>
     </row>
     <row r="17">
@@ -5513,28 +5515,28 @@
         <v>102.3027134058285</v>
       </c>
       <c r="J17" t="n">
-        <v>102.3027134058285</v>
+        <v>464.9061722227241</v>
       </c>
       <c r="K17" t="n">
-        <v>817.8110213813276</v>
+        <v>464.9061722227241</v>
       </c>
       <c r="L17" t="n">
-        <v>1747.436069000604</v>
+        <v>1394.531219842001</v>
       </c>
       <c r="M17" t="n">
-        <v>2751.722170419663</v>
+        <v>2398.817321261059</v>
       </c>
       <c r="N17" t="n">
-        <v>3727.973228906364</v>
+        <v>3375.06837974776</v>
       </c>
       <c r="O17" t="n">
-        <v>4573.117879057176</v>
+        <v>4220.213029898572</v>
       </c>
       <c r="P17" t="n">
-        <v>5115.135670291427</v>
+        <v>4928.4923090565</v>
       </c>
       <c r="Q17" t="n">
-        <v>5115.135670291427</v>
+        <v>4997.579335409525</v>
       </c>
       <c r="R17" t="n">
         <v>5115.135670291427</v>
@@ -5598,22 +5600,22 @@
         <v>102.3027134058285</v>
       </c>
       <c r="L18" t="n">
-        <v>939.1015214887346</v>
+        <v>102.3027134058285</v>
       </c>
       <c r="M18" t="n">
-        <v>939.1015214887346</v>
+        <v>821.6753975134684</v>
       </c>
       <c r="N18" t="n">
-        <v>939.1015214887346</v>
+        <v>1910.990343986338</v>
       </c>
       <c r="O18" t="n">
-        <v>1828.582799500206</v>
+        <v>1910.990343986338</v>
       </c>
       <c r="P18" t="n">
-        <v>1828.971033901635</v>
+        <v>1910.990343986338</v>
       </c>
       <c r="Q18" t="n">
-        <v>1828.971033901635</v>
+        <v>1910.990343986338</v>
       </c>
       <c r="R18" t="n">
         <v>1910.990343986338</v>
@@ -5698,19 +5700,19 @@
         <v>2235.67712750613</v>
       </c>
       <c r="S19" t="n">
-        <v>2235.67712750613</v>
+        <v>2065.542080025265</v>
       </c>
       <c r="T19" t="n">
-        <v>1992.33777973203</v>
+        <v>2065.542080025265</v>
       </c>
       <c r="U19" t="n">
-        <v>1992.33777973203</v>
+        <v>2065.542080025265</v>
       </c>
       <c r="V19" t="n">
-        <v>1992.33777973203</v>
+        <v>1783.830612633294</v>
       </c>
       <c r="W19" t="n">
-        <v>1844.556469506584</v>
+        <v>1783.830612633294</v>
       </c>
       <c r="X19" t="n">
         <v>1601.992572952389</v>
@@ -5726,22 +5728,22 @@
         </is>
       </c>
       <c r="B20" t="n">
-        <v>2540.701498063317</v>
+        <v>2540.701498063316</v>
       </c>
       <c r="C20" t="n">
-        <v>2113.800768076617</v>
+        <v>2113.800768076616</v>
       </c>
       <c r="D20" t="n">
-        <v>1690.508147261617</v>
+        <v>1690.508147261616</v>
       </c>
       <c r="E20" t="n">
-        <v>1264.531207409475</v>
+        <v>1264.531207409474</v>
       </c>
       <c r="F20" t="n">
-        <v>839.4070255988747</v>
+        <v>839.4070255988738</v>
       </c>
       <c r="G20" t="n">
-        <v>435.0679631883233</v>
+        <v>435.0679631883225</v>
       </c>
       <c r="H20" t="n">
         <v>137.1995846623573</v>
@@ -5780,22 +5782,22 @@
         <v>5010.768376164568</v>
       </c>
       <c r="T20" t="n">
-        <v>4789.8428052092</v>
+        <v>4789.842805209199</v>
       </c>
       <c r="U20" t="n">
         <v>4531.487895805612</v>
       </c>
       <c r="V20" t="n">
-        <v>4173.998480931862</v>
+        <v>4173.998480931861</v>
       </c>
       <c r="W20" t="n">
-        <v>3777.607131232209</v>
+        <v>3777.607131232208</v>
       </c>
       <c r="X20" t="n">
-        <v>3365.887132399956</v>
+        <v>3365.887132399955</v>
       </c>
       <c r="Y20" t="n">
-        <v>2960.549862354847</v>
+        <v>2960.549862354846</v>
       </c>
     </row>
     <row r="21">
@@ -5826,31 +5828,31 @@
         <v>102.3027134058285</v>
       </c>
       <c r="I21" t="n">
-        <v>109.7493563677404</v>
+        <v>102.3027134058285</v>
       </c>
       <c r="J21" t="n">
-        <v>381.4468456473314</v>
+        <v>102.3027134058285</v>
       </c>
       <c r="K21" t="n">
-        <v>971.931772215671</v>
+        <v>102.3027134058285</v>
       </c>
       <c r="L21" t="n">
-        <v>1112.773316863137</v>
+        <v>102.3027134058285</v>
       </c>
       <c r="M21" t="n">
-        <v>1112.773316863137</v>
+        <v>1158.289251381874</v>
       </c>
       <c r="N21" t="n">
-        <v>1112.773316863137</v>
+        <v>1910.990343986338</v>
       </c>
       <c r="O21" t="n">
-        <v>1112.773316863137</v>
+        <v>1910.990343986338</v>
       </c>
       <c r="P21" t="n">
-        <v>1828.971033901635</v>
+        <v>1910.990343986338</v>
       </c>
       <c r="Q21" t="n">
-        <v>1828.971033901635</v>
+        <v>1910.990343986338</v>
       </c>
       <c r="R21" t="n">
         <v>1910.990343986338</v>
@@ -5884,25 +5886,25 @@
         </is>
       </c>
       <c r="B22" t="n">
-        <v>1085.715267670341</v>
+        <v>742.8905159778161</v>
       </c>
       <c r="C22" t="n">
-        <v>913.7427045492574</v>
+        <v>742.8905159778161</v>
       </c>
       <c r="D22" t="n">
-        <v>750.4259316760281</v>
+        <v>742.8905159778161</v>
       </c>
       <c r="E22" t="n">
-        <v>584.2177258288816</v>
+        <v>683.9862940886057</v>
       </c>
       <c r="F22" t="n">
-        <v>412.355951603442</v>
+        <v>512.1245198631661</v>
       </c>
       <c r="G22" t="n">
-        <v>246.0989818976742</v>
+        <v>345.8675501573982</v>
       </c>
       <c r="H22" t="n">
-        <v>102.3027134058285</v>
+        <v>202.0712816655526</v>
       </c>
       <c r="I22" t="n">
         <v>102.3027134058285</v>
@@ -5932,28 +5934,28 @@
         <v>2282.715740818957</v>
       </c>
       <c r="R22" t="n">
-        <v>2282.715740818957</v>
+        <v>2235.67712750613</v>
       </c>
       <c r="S22" t="n">
-        <v>2282.715740818957</v>
+        <v>2065.542080025265</v>
       </c>
       <c r="T22" t="n">
-        <v>2282.715740818957</v>
+        <v>1822.202732251165</v>
       </c>
       <c r="U22" t="n">
-        <v>2282.715740818957</v>
+        <v>1542.018283751469</v>
       </c>
       <c r="V22" t="n">
-        <v>2019.640305074347</v>
+        <v>1260.306816359498</v>
       </c>
       <c r="W22" t="n">
-        <v>1744.78790124686</v>
+        <v>985.454412532011</v>
       </c>
       <c r="X22" t="n">
-        <v>1502.224004692665</v>
+        <v>742.8905159778161</v>
       </c>
       <c r="Y22" t="n">
-        <v>1275.881236382407</v>
+        <v>742.8905159778161</v>
       </c>
     </row>
     <row r="23">
@@ -5987,25 +5989,25 @@
         <v>102.3027134058285</v>
       </c>
       <c r="J23" t="n">
-        <v>464.9061722227241</v>
+        <v>102.3027134058285</v>
       </c>
       <c r="K23" t="n">
-        <v>1180.414480198223</v>
+        <v>817.8110213813276</v>
       </c>
       <c r="L23" t="n">
-        <v>2110.0395278175</v>
+        <v>1747.436069000604</v>
       </c>
       <c r="M23" t="n">
-        <v>3114.325629236558</v>
+        <v>2751.722170419663</v>
       </c>
       <c r="N23" t="n">
-        <v>3114.325629236558</v>
+        <v>3727.973228906364</v>
       </c>
       <c r="O23" t="n">
-        <v>3833.214576747414</v>
+        <v>4573.117879057176</v>
       </c>
       <c r="P23" t="n">
-        <v>4541.493855905342</v>
+        <v>4997.579335409525</v>
       </c>
       <c r="Q23" t="n">
         <v>4997.579335409525</v>
@@ -6042,76 +6044,76 @@
         </is>
       </c>
       <c r="B24" t="n">
-        <v>3873.571530742373</v>
+        <v>669.4262044372838</v>
       </c>
       <c r="C24" t="n">
-        <v>3756.065627259878</v>
+        <v>551.9203009547886</v>
       </c>
       <c r="D24" t="n">
-        <v>3652.225668775163</v>
+        <v>448.0803424700736</v>
       </c>
       <c r="E24" t="n">
-        <v>3547.523735048101</v>
+        <v>343.3784087430108</v>
       </c>
       <c r="F24" t="n">
-        <v>3453.877904731005</v>
+        <v>249.7325784259149</v>
       </c>
       <c r="G24" t="n">
-        <v>3359.824132948609</v>
+        <v>155.678806643519</v>
       </c>
       <c r="H24" t="n">
-        <v>3306.448039710919</v>
+        <v>102.3027134058285</v>
       </c>
       <c r="I24" t="n">
-        <v>3313.894682672831</v>
+        <v>102.3027134058285</v>
       </c>
       <c r="J24" t="n">
-        <v>3313.894682672831</v>
+        <v>102.3027134058285</v>
       </c>
       <c r="K24" t="n">
-        <v>3904.37960924117</v>
+        <v>102.3027134058285</v>
       </c>
       <c r="L24" t="n">
-        <v>3904.37960924117</v>
+        <v>102.3027134058285</v>
       </c>
       <c r="M24" t="n">
-        <v>3904.37960924117</v>
+        <v>1158.289251381874</v>
       </c>
       <c r="N24" t="n">
-        <v>3904.37960924117</v>
+        <v>1910.990343986338</v>
       </c>
       <c r="O24" t="n">
-        <v>3904.37960924117</v>
+        <v>1910.990343986338</v>
       </c>
       <c r="P24" t="n">
-        <v>4620.577326279668</v>
+        <v>1910.990343986338</v>
       </c>
       <c r="Q24" t="n">
-        <v>5033.116360206724</v>
+        <v>1910.990343986338</v>
       </c>
       <c r="R24" t="n">
-        <v>5115.135670291427</v>
+        <v>1910.990343986338</v>
       </c>
       <c r="S24" t="n">
-        <v>5033.811422852682</v>
+        <v>1829.666096547593</v>
       </c>
       <c r="T24" t="n">
-        <v>4891.93148715036</v>
+        <v>1687.786160845271</v>
       </c>
       <c r="U24" t="n">
-        <v>4707.163291069997</v>
+        <v>1503.017964764908</v>
       </c>
       <c r="V24" t="n">
-        <v>4502.190152209264</v>
+        <v>1298.044825904174</v>
       </c>
       <c r="W24" t="n">
-        <v>4305.668775042481</v>
+        <v>1101.523448737391</v>
       </c>
       <c r="X24" t="n">
-        <v>4142.191428809144</v>
+        <v>938.0461025040541</v>
       </c>
       <c r="Y24" t="n">
-        <v>4002.498540162436</v>
+        <v>798.3532138573465</v>
       </c>
     </row>
     <row r="25">
@@ -6121,25 +6123,25 @@
         </is>
       </c>
       <c r="B25" t="n">
-        <v>446.1370507523521</v>
+        <v>1185.483835930065</v>
       </c>
       <c r="C25" t="n">
-        <v>274.1644876312681</v>
+        <v>1013.511272808982</v>
       </c>
       <c r="D25" t="n">
-        <v>274.1644876312681</v>
+        <v>850.1944999357522</v>
       </c>
       <c r="E25" t="n">
-        <v>274.1644876312681</v>
+        <v>683.9862940886057</v>
       </c>
       <c r="F25" t="n">
-        <v>102.3027134058285</v>
+        <v>512.1245198631661</v>
       </c>
       <c r="G25" t="n">
-        <v>102.3027134058285</v>
+        <v>345.8675501573982</v>
       </c>
       <c r="H25" t="n">
-        <v>102.3027134058285</v>
+        <v>202.0712816655526</v>
       </c>
       <c r="I25" t="n">
         <v>102.3027134058285</v>
@@ -6169,28 +6171,28 @@
         <v>2282.715740818957</v>
       </c>
       <c r="R25" t="n">
-        <v>2282.715740818957</v>
+        <v>2235.67712750613</v>
       </c>
       <c r="S25" t="n">
-        <v>2185.297351822124</v>
+        <v>2235.67712750613</v>
       </c>
       <c r="T25" t="n">
-        <v>1941.958004048024</v>
+        <v>2235.67712750613</v>
       </c>
       <c r="U25" t="n">
-        <v>1661.773555548329</v>
+        <v>2235.67712750613</v>
       </c>
       <c r="V25" t="n">
-        <v>1380.062088156358</v>
+        <v>2119.408873334071</v>
       </c>
       <c r="W25" t="n">
-        <v>1105.20968432887</v>
+        <v>1844.556469506584</v>
       </c>
       <c r="X25" t="n">
-        <v>862.6457877746757</v>
+        <v>1601.992572952389</v>
       </c>
       <c r="Y25" t="n">
-        <v>636.3030194644177</v>
+        <v>1375.649804642131</v>
       </c>
     </row>
     <row r="26">
@@ -6306,22 +6308,22 @@
         <v>102.3027134058285</v>
       </c>
       <c r="K27" t="n">
-        <v>692.7876399741681</v>
+        <v>102.3027134058285</v>
       </c>
       <c r="L27" t="n">
-        <v>692.7876399741681</v>
+        <v>102.3027134058285</v>
       </c>
       <c r="M27" t="n">
-        <v>692.7876399741681</v>
+        <v>1021.509065974867</v>
       </c>
       <c r="N27" t="n">
-        <v>692.7876399741681</v>
+        <v>1021.509065974867</v>
       </c>
       <c r="O27" t="n">
-        <v>730.647150085061</v>
+        <v>1910.990343986338</v>
       </c>
       <c r="P27" t="n">
-        <v>1446.844867123559</v>
+        <v>1910.990343986338</v>
       </c>
       <c r="Q27" t="n">
         <v>1910.990343986338</v>
@@ -6358,25 +6360,25 @@
         </is>
       </c>
       <c r="B28" t="n">
-        <v>941.9189991784958</v>
+        <v>1185.483835930065</v>
       </c>
       <c r="C28" t="n">
-        <v>769.9464360574118</v>
+        <v>1013.511272808982</v>
       </c>
       <c r="D28" t="n">
-        <v>606.6296631841825</v>
+        <v>850.1944999357522</v>
       </c>
       <c r="E28" t="n">
-        <v>440.421457337036</v>
+        <v>683.9862940886057</v>
       </c>
       <c r="F28" t="n">
-        <v>268.5596831115964</v>
+        <v>512.1245198631661</v>
       </c>
       <c r="G28" t="n">
-        <v>102.3027134058285</v>
+        <v>345.8675501573982</v>
       </c>
       <c r="H28" t="n">
-        <v>102.3027134058285</v>
+        <v>202.0712816655526</v>
       </c>
       <c r="I28" t="n">
         <v>102.3027134058285</v>
@@ -6415,19 +6417,19 @@
         <v>2282.715740818957</v>
       </c>
       <c r="U28" t="n">
-        <v>2002.531292319261</v>
+        <v>2282.715740818957</v>
       </c>
       <c r="V28" t="n">
-        <v>1720.81982492729</v>
+        <v>2119.408873334071</v>
       </c>
       <c r="W28" t="n">
-        <v>1600.991632755014</v>
+        <v>1844.556469506584</v>
       </c>
       <c r="X28" t="n">
-        <v>1358.427736200819</v>
+        <v>1601.992572952389</v>
       </c>
       <c r="Y28" t="n">
-        <v>1132.084967890562</v>
+        <v>1375.649804642131</v>
       </c>
     </row>
     <row r="29">
@@ -6461,25 +6463,25 @@
         <v>102.3027134058285</v>
       </c>
       <c r="J29" t="n">
-        <v>464.9061722227241</v>
+        <v>102.3027134058285</v>
       </c>
       <c r="K29" t="n">
-        <v>1180.414480198223</v>
+        <v>817.8110213813276</v>
       </c>
       <c r="L29" t="n">
-        <v>2110.0395278175</v>
+        <v>1747.436069000604</v>
       </c>
       <c r="M29" t="n">
-        <v>3114.325629236558</v>
+        <v>2751.722170419663</v>
       </c>
       <c r="N29" t="n">
-        <v>4090.576687723259</v>
+        <v>3561.711740982687</v>
       </c>
       <c r="O29" t="n">
-        <v>4090.576687723259</v>
+        <v>4406.8563911335</v>
       </c>
       <c r="P29" t="n">
-        <v>4659.050190787244</v>
+        <v>5115.135670291427</v>
       </c>
       <c r="Q29" t="n">
         <v>5115.135670291427</v>
@@ -6516,76 +6518,76 @@
         </is>
       </c>
       <c r="B30" t="n">
-        <v>3873.571530742373</v>
+        <v>669.4262044372838</v>
       </c>
       <c r="C30" t="n">
-        <v>3756.065627259878</v>
+        <v>551.9203009547886</v>
       </c>
       <c r="D30" t="n">
-        <v>3652.225668775163</v>
+        <v>448.0803424700736</v>
       </c>
       <c r="E30" t="n">
-        <v>3547.523735048101</v>
+        <v>343.3784087430108</v>
       </c>
       <c r="F30" t="n">
-        <v>3453.877904731005</v>
+        <v>249.7325784259149</v>
       </c>
       <c r="G30" t="n">
-        <v>3359.824132948609</v>
+        <v>155.678806643519</v>
       </c>
       <c r="H30" t="n">
-        <v>3306.448039710919</v>
+        <v>102.3027134058285</v>
       </c>
       <c r="I30" t="n">
-        <v>3306.448039710919</v>
+        <v>102.3027134058285</v>
       </c>
       <c r="J30" t="n">
-        <v>3306.448039710919</v>
+        <v>102.3027134058285</v>
       </c>
       <c r="K30" t="n">
-        <v>3306.448039710919</v>
+        <v>102.3027134058285</v>
       </c>
       <c r="L30" t="n">
-        <v>3306.448039710919</v>
+        <v>939.1015214887346</v>
       </c>
       <c r="M30" t="n">
-        <v>3306.448039710919</v>
+        <v>939.1015214887346</v>
       </c>
       <c r="N30" t="n">
-        <v>3306.448039710919</v>
+        <v>939.1015214887346</v>
       </c>
       <c r="O30" t="n">
-        <v>3934.79247639015</v>
+        <v>1828.582799500206</v>
       </c>
       <c r="P30" t="n">
-        <v>4650.990193428648</v>
+        <v>1910.990343986338</v>
       </c>
       <c r="Q30" t="n">
-        <v>5115.135670291427</v>
+        <v>1910.990343986338</v>
       </c>
       <c r="R30" t="n">
-        <v>5115.135670291427</v>
+        <v>1910.990343986338</v>
       </c>
       <c r="S30" t="n">
-        <v>5033.811422852682</v>
+        <v>1829.666096547593</v>
       </c>
       <c r="T30" t="n">
-        <v>4891.93148715036</v>
+        <v>1687.786160845271</v>
       </c>
       <c r="U30" t="n">
-        <v>4707.163291069997</v>
+        <v>1503.017964764908</v>
       </c>
       <c r="V30" t="n">
-        <v>4502.190152209264</v>
+        <v>1298.044825904174</v>
       </c>
       <c r="W30" t="n">
-        <v>4305.668775042481</v>
+        <v>1101.523448737391</v>
       </c>
       <c r="X30" t="n">
-        <v>4142.191428809144</v>
+        <v>938.0461025040541</v>
       </c>
       <c r="Y30" t="n">
-        <v>4002.498540162436</v>
+        <v>798.3532138573465</v>
       </c>
     </row>
     <row r="31">
@@ -6595,25 +6597,25 @@
         </is>
       </c>
       <c r="B31" t="n">
-        <v>543.5554397491844</v>
+        <v>875.4305977324519</v>
       </c>
       <c r="C31" t="n">
-        <v>371.5828766281004</v>
+        <v>703.4580346113679</v>
       </c>
       <c r="D31" t="n">
-        <v>371.5828766281004</v>
+        <v>540.1412617381386</v>
       </c>
       <c r="E31" t="n">
-        <v>371.5828766281004</v>
+        <v>373.9330558909921</v>
       </c>
       <c r="F31" t="n">
-        <v>199.7211024026608</v>
+        <v>202.0712816655526</v>
       </c>
       <c r="G31" t="n">
-        <v>102.3027134058285</v>
+        <v>202.0712816655526</v>
       </c>
       <c r="H31" t="n">
-        <v>102.3027134058285</v>
+        <v>202.0712816655526</v>
       </c>
       <c r="I31" t="n">
         <v>102.3027134058285</v>
@@ -6643,28 +6645,28 @@
         <v>2282.715740818957</v>
       </c>
       <c r="R31" t="n">
-        <v>2282.715740818957</v>
+        <v>2235.67712750613</v>
       </c>
       <c r="S31" t="n">
-        <v>2282.715740818957</v>
+        <v>2065.542080025265</v>
       </c>
       <c r="T31" t="n">
-        <v>2039.376393044857</v>
+        <v>1822.202732251165</v>
       </c>
       <c r="U31" t="n">
-        <v>1759.191944545161</v>
+        <v>1542.018283751469</v>
       </c>
       <c r="V31" t="n">
-        <v>1477.48047715319</v>
+        <v>1260.306816359498</v>
       </c>
       <c r="W31" t="n">
-        <v>1202.628073325703</v>
+        <v>985.454412532011</v>
       </c>
       <c r="X31" t="n">
-        <v>960.064176771508</v>
+        <v>985.454412532011</v>
       </c>
       <c r="Y31" t="n">
-        <v>733.72140846125</v>
+        <v>875.4305977324519</v>
       </c>
     </row>
     <row r="32">
@@ -6698,28 +6700,28 @@
         <v>102.3027134058285</v>
       </c>
       <c r="J32" t="n">
-        <v>102.3027134058285</v>
+        <v>464.9061722227241</v>
       </c>
       <c r="K32" t="n">
-        <v>102.3027134058285</v>
+        <v>1125.089101572745</v>
       </c>
       <c r="L32" t="n">
-        <v>1031.927761025105</v>
+        <v>1125.089101572745</v>
       </c>
       <c r="M32" t="n">
-        <v>2036.213862444163</v>
+        <v>2129.375202991803</v>
       </c>
       <c r="N32" t="n">
-        <v>3012.464920930865</v>
+        <v>3105.626261478504</v>
       </c>
       <c r="O32" t="n">
-        <v>3857.609571081677</v>
+        <v>3950.770911629316</v>
       </c>
       <c r="P32" t="n">
-        <v>4565.888850239604</v>
+        <v>4659.050190787244</v>
       </c>
       <c r="Q32" t="n">
-        <v>4997.579335409525</v>
+        <v>5115.135670291427</v>
       </c>
       <c r="R32" t="n">
         <v>5115.135670291427</v>
@@ -6783,16 +6785,16 @@
         <v>102.3027134058285</v>
       </c>
       <c r="L33" t="n">
-        <v>102.3027134058285</v>
+        <v>305.3113489363686</v>
       </c>
       <c r="M33" t="n">
-        <v>821.6753975134684</v>
+        <v>305.3113489363686</v>
       </c>
       <c r="N33" t="n">
-        <v>1910.990343986338</v>
+        <v>305.3113489363686</v>
       </c>
       <c r="O33" t="n">
-        <v>1910.990343986338</v>
+        <v>1194.79262694784</v>
       </c>
       <c r="P33" t="n">
         <v>1910.990343986338</v>
@@ -6832,16 +6834,16 @@
         </is>
       </c>
       <c r="B34" t="n">
-        <v>775.6620294727279</v>
+        <v>603.8002552472883</v>
       </c>
       <c r="C34" t="n">
-        <v>603.6894663516439</v>
+        <v>431.8276921262043</v>
       </c>
       <c r="D34" t="n">
-        <v>440.3726934784146</v>
+        <v>268.510919252975</v>
       </c>
       <c r="E34" t="n">
-        <v>274.1644876312681</v>
+        <v>102.3027134058285</v>
       </c>
       <c r="F34" t="n">
         <v>102.3027134058285</v>
@@ -6883,25 +6885,25 @@
         <v>2282.715740818957</v>
       </c>
       <c r="S34" t="n">
-        <v>2112.580693338092</v>
+        <v>2282.715740818957</v>
       </c>
       <c r="T34" t="n">
-        <v>1869.241345563992</v>
+        <v>2099.621208542961</v>
       </c>
       <c r="U34" t="n">
-        <v>1869.241345563992</v>
+        <v>1819.436760043265</v>
       </c>
       <c r="V34" t="n">
-        <v>1709.587066876733</v>
+        <v>1537.725292651294</v>
       </c>
       <c r="W34" t="n">
-        <v>1434.734663049246</v>
+        <v>1262.872888823807</v>
       </c>
       <c r="X34" t="n">
-        <v>1192.170766495052</v>
+        <v>1020.308992269612</v>
       </c>
       <c r="Y34" t="n">
-        <v>965.8279981847936</v>
+        <v>793.966223959354</v>
       </c>
     </row>
     <row r="35">
@@ -6935,25 +6937,25 @@
         <v>102.3027134058285</v>
       </c>
       <c r="J35" t="n">
-        <v>102.3027134058285</v>
+        <v>464.9061722227241</v>
       </c>
       <c r="K35" t="n">
-        <v>817.8110213813276</v>
+        <v>1180.414480198223</v>
       </c>
       <c r="L35" t="n">
-        <v>1747.436069000604</v>
+        <v>2110.0395278175</v>
       </c>
       <c r="M35" t="n">
-        <v>2751.722170419663</v>
+        <v>3114.325629236558</v>
       </c>
       <c r="N35" t="n">
-        <v>3727.973228906364</v>
+        <v>4090.576687723259</v>
       </c>
       <c r="O35" t="n">
-        <v>4573.117879057176</v>
+        <v>4659.050190787244</v>
       </c>
       <c r="P35" t="n">
-        <v>5115.135670291427</v>
+        <v>4659.050190787244</v>
       </c>
       <c r="Q35" t="n">
         <v>5115.135670291427</v>
@@ -6990,76 +6992,76 @@
         </is>
       </c>
       <c r="B36" t="n">
-        <v>3873.571530742373</v>
+        <v>669.4262044372838</v>
       </c>
       <c r="C36" t="n">
-        <v>3756.065627259878</v>
+        <v>551.9203009547886</v>
       </c>
       <c r="D36" t="n">
-        <v>3652.225668775163</v>
+        <v>448.0803424700736</v>
       </c>
       <c r="E36" t="n">
-        <v>3547.523735048101</v>
+        <v>343.3784087430108</v>
       </c>
       <c r="F36" t="n">
-        <v>3453.877904731005</v>
+        <v>249.7325784259149</v>
       </c>
       <c r="G36" t="n">
-        <v>3359.824132948609</v>
+        <v>155.678806643519</v>
       </c>
       <c r="H36" t="n">
-        <v>3306.448039710919</v>
+        <v>102.3027134058285</v>
       </c>
       <c r="I36" t="n">
-        <v>3306.448039710919</v>
+        <v>102.3027134058285</v>
       </c>
       <c r="J36" t="n">
-        <v>3306.448039710919</v>
+        <v>102.3027134058285</v>
       </c>
       <c r="K36" t="n">
-        <v>3306.448039710919</v>
+        <v>102.3027134058285</v>
       </c>
       <c r="L36" t="n">
-        <v>3306.448039710919</v>
+        <v>102.3027134058285</v>
       </c>
       <c r="M36" t="n">
-        <v>4025.820723818557</v>
+        <v>1158.289251381874</v>
       </c>
       <c r="N36" t="n">
-        <v>5115.135670291427</v>
+        <v>1158.289251381874</v>
       </c>
       <c r="O36" t="n">
-        <v>5115.135670291427</v>
+        <v>1910.990343986338</v>
       </c>
       <c r="P36" t="n">
-        <v>5115.135670291427</v>
+        <v>1910.990343986338</v>
       </c>
       <c r="Q36" t="n">
-        <v>5115.135670291427</v>
+        <v>1910.990343986338</v>
       </c>
       <c r="R36" t="n">
-        <v>5115.135670291427</v>
+        <v>1910.990343986338</v>
       </c>
       <c r="S36" t="n">
-        <v>5033.811422852682</v>
+        <v>1829.666096547593</v>
       </c>
       <c r="T36" t="n">
-        <v>4891.93148715036</v>
+        <v>1687.786160845271</v>
       </c>
       <c r="U36" t="n">
-        <v>4707.163291069997</v>
+        <v>1503.017964764908</v>
       </c>
       <c r="V36" t="n">
-        <v>4502.190152209264</v>
+        <v>1298.044825904174</v>
       </c>
       <c r="W36" t="n">
-        <v>4305.668775042481</v>
+        <v>1101.523448737391</v>
       </c>
       <c r="X36" t="n">
-        <v>4142.191428809144</v>
+        <v>938.0461025040541</v>
       </c>
       <c r="Y36" t="n">
-        <v>4002.498540162436</v>
+        <v>798.3532138573465</v>
       </c>
     </row>
     <row r="37">
@@ -7069,22 +7071,22 @@
         </is>
       </c>
       <c r="B37" t="n">
-        <v>1019.275630082919</v>
+        <v>703.5688235070123</v>
       </c>
       <c r="C37" t="n">
-        <v>847.303066961835</v>
+        <v>531.5962603859283</v>
       </c>
       <c r="D37" t="n">
-        <v>683.9862940886057</v>
+        <v>368.279487512699</v>
       </c>
       <c r="E37" t="n">
-        <v>683.9862940886057</v>
+        <v>202.0712816655526</v>
       </c>
       <c r="F37" t="n">
-        <v>512.1245198631661</v>
+        <v>202.0712816655526</v>
       </c>
       <c r="G37" t="n">
-        <v>345.8675501573982</v>
+        <v>202.0712816655526</v>
       </c>
       <c r="H37" t="n">
         <v>202.0712816655526</v>
@@ -7120,25 +7122,25 @@
         <v>2282.715740818957</v>
       </c>
       <c r="S37" t="n">
-        <v>2282.715740818957</v>
+        <v>2112.580693338092</v>
       </c>
       <c r="T37" t="n">
-        <v>2282.715740818957</v>
+        <v>1924.537372975198</v>
       </c>
       <c r="U37" t="n">
-        <v>2002.531292319261</v>
+        <v>1644.352924475502</v>
       </c>
       <c r="V37" t="n">
-        <v>1720.81982492729</v>
+        <v>1362.641457083531</v>
       </c>
       <c r="W37" t="n">
-        <v>1445.967421099803</v>
+        <v>1362.641457083531</v>
       </c>
       <c r="X37" t="n">
-        <v>1245.618398393177</v>
+        <v>1120.077560529336</v>
       </c>
       <c r="Y37" t="n">
-        <v>1019.275630082919</v>
+        <v>893.7347922190779</v>
       </c>
     </row>
     <row r="38">
@@ -7260,16 +7262,16 @@
         <v>102.3027134058285</v>
       </c>
       <c r="M39" t="n">
-        <v>102.3027134058285</v>
+        <v>821.6753975134684</v>
       </c>
       <c r="N39" t="n">
-        <v>102.3027134058285</v>
+        <v>1910.990343986338</v>
       </c>
       <c r="O39" t="n">
-        <v>991.7839914173002</v>
+        <v>1910.990343986338</v>
       </c>
       <c r="P39" t="n">
-        <v>1707.981708455798</v>
+        <v>1910.990343986338</v>
       </c>
       <c r="Q39" t="n">
         <v>1910.990343986338</v>
@@ -7306,22 +7308,22 @@
         </is>
       </c>
       <c r="B40" t="n">
-        <v>1178.655655934086</v>
+        <v>1041.68756743822</v>
       </c>
       <c r="C40" t="n">
-        <v>1006.683092813002</v>
+        <v>869.7150043171358</v>
       </c>
       <c r="D40" t="n">
-        <v>843.366319939773</v>
+        <v>706.3982314439065</v>
       </c>
       <c r="E40" t="n">
-        <v>677.1581140926265</v>
+        <v>540.1900255967601</v>
       </c>
       <c r="F40" t="n">
-        <v>505.2963398671869</v>
+        <v>368.3282513713204</v>
       </c>
       <c r="G40" t="n">
-        <v>345.8675501573982</v>
+        <v>202.0712816655526</v>
       </c>
       <c r="H40" t="n">
         <v>202.0712816655526</v>
@@ -7357,25 +7359,25 @@
         <v>2282.715740818957</v>
       </c>
       <c r="S40" t="n">
-        <v>2112.580693338092</v>
+        <v>2282.715740818957</v>
       </c>
       <c r="T40" t="n">
-        <v>2112.580693338092</v>
+        <v>2282.715740818957</v>
       </c>
       <c r="U40" t="n">
-        <v>2112.580693338092</v>
+        <v>2002.531292319261</v>
       </c>
       <c r="V40" t="n">
-        <v>2112.580693338092</v>
+        <v>1975.612604842225</v>
       </c>
       <c r="W40" t="n">
-        <v>1837.728289510605</v>
+        <v>1700.760201014738</v>
       </c>
       <c r="X40" t="n">
-        <v>1595.16439295641</v>
+        <v>1458.196304460543</v>
       </c>
       <c r="Y40" t="n">
-        <v>1368.821624646152</v>
+        <v>1231.853536150285</v>
       </c>
     </row>
     <row r="41">
@@ -7385,76 +7387,76 @@
         </is>
       </c>
       <c r="B41" t="n">
-        <v>1755.743090736225</v>
+        <v>2533.780365848253</v>
       </c>
       <c r="C41" t="n">
-        <v>1328.842360749525</v>
+        <v>2111.574999549778</v>
       </c>
       <c r="D41" t="n">
-        <v>905.5497399345252</v>
+        <v>1688.282378734778</v>
       </c>
       <c r="E41" t="n">
-        <v>479.5728000823827</v>
+        <v>1262.305438882635</v>
       </c>
       <c r="F41" t="n">
-        <v>54.44861827178296</v>
+        <v>837.1812570720355</v>
       </c>
       <c r="G41" t="n">
-        <v>54.44861827178296</v>
+        <v>432.8421946614841</v>
       </c>
       <c r="H41" t="n">
-        <v>54.44861827178296</v>
+        <v>134.9738161355189</v>
       </c>
       <c r="I41" t="n">
-        <v>54.44861827178296</v>
+        <v>100.0769448789901</v>
       </c>
       <c r="J41" t="n">
-        <v>54.44861827178296</v>
+        <v>462.6804036958856</v>
       </c>
       <c r="K41" t="n">
-        <v>701.0259602492056</v>
+        <v>462.6804036958856</v>
       </c>
       <c r="L41" t="n">
-        <v>701.0259602492056</v>
+        <v>896.2443403489199</v>
       </c>
       <c r="M41" t="n">
-        <v>1374.82761136252</v>
+        <v>1900.530441767978</v>
       </c>
       <c r="N41" t="n">
-        <v>2048.629262475834</v>
+        <v>2876.781500254679</v>
       </c>
       <c r="O41" t="n">
-        <v>2722.430913589148</v>
+        <v>3721.926150405491</v>
       </c>
       <c r="P41" t="n">
-        <v>2722.430913589148</v>
+        <v>4430.205429563419</v>
       </c>
       <c r="Q41" t="n">
-        <v>2722.430913589148</v>
+        <v>4886.290909067602</v>
       </c>
       <c r="R41" t="n">
-        <v>2722.430913589148</v>
+        <v>5003.847243949504</v>
       </c>
       <c r="S41" t="n">
-        <v>2722.430913589148</v>
+        <v>5003.847243949504</v>
       </c>
       <c r="T41" t="n">
-        <v>2722.430913589148</v>
+        <v>4782.921672994137</v>
       </c>
       <c r="U41" t="n">
-        <v>2722.430913589148</v>
+        <v>4524.566763590549</v>
       </c>
       <c r="V41" t="n">
-        <v>2722.430913589148</v>
+        <v>4167.077348716799</v>
       </c>
       <c r="W41" t="n">
-        <v>2722.430913589148</v>
+        <v>3770.685999017146</v>
       </c>
       <c r="X41" t="n">
-        <v>2310.710914756895</v>
+        <v>3358.966000184893</v>
       </c>
       <c r="Y41" t="n">
-        <v>2175.591455027755</v>
+        <v>2953.628730139784</v>
       </c>
     </row>
     <row r="42">
@@ -7464,76 +7466,76 @@
         </is>
       </c>
       <c r="B42" t="n">
-        <v>621.5721093032382</v>
+        <v>667.2004359104453</v>
       </c>
       <c r="C42" t="n">
-        <v>504.066205820743</v>
+        <v>549.6945324279501</v>
       </c>
       <c r="D42" t="n">
-        <v>400.226247336028</v>
+        <v>445.8545739432351</v>
       </c>
       <c r="E42" t="n">
-        <v>295.5243136089652</v>
+        <v>341.1526402161723</v>
       </c>
       <c r="F42" t="n">
-        <v>201.8784832918694</v>
+        <v>247.5068098990765</v>
       </c>
       <c r="G42" t="n">
-        <v>107.8247115094734</v>
+        <v>153.4530381166805</v>
       </c>
       <c r="H42" t="n">
-        <v>54.44861827178296</v>
+        <v>100.0769448789901</v>
       </c>
       <c r="I42" t="n">
-        <v>54.44861827178296</v>
+        <v>100.0769448789901</v>
       </c>
       <c r="J42" t="n">
-        <v>54.44861827178296</v>
+        <v>371.7744341585812</v>
       </c>
       <c r="K42" t="n">
-        <v>644.9335448401225</v>
+        <v>388.6325606206753</v>
       </c>
       <c r="L42" t="n">
-        <v>1189.334597738979</v>
+        <v>388.6325606206753</v>
       </c>
       <c r="M42" t="n">
-        <v>1189.334597738979</v>
+        <v>1444.619098596721</v>
       </c>
       <c r="N42" t="n">
-        <v>1189.334597738979</v>
+        <v>1444.619098596721</v>
       </c>
       <c r="O42" t="n">
-        <v>1863.136248852293</v>
+        <v>1444.619098596721</v>
       </c>
       <c r="P42" t="n">
-        <v>1863.136248852293</v>
+        <v>1444.619098596721</v>
       </c>
       <c r="Q42" t="n">
-        <v>1863.136248852293</v>
+        <v>1908.7645754595</v>
       </c>
       <c r="R42" t="n">
-        <v>1863.136248852293</v>
+        <v>1908.7645754595</v>
       </c>
       <c r="S42" t="n">
-        <v>1781.812001413547</v>
+        <v>1827.440328020754</v>
       </c>
       <c r="T42" t="n">
-        <v>1639.932065711226</v>
+        <v>1685.560392318433</v>
       </c>
       <c r="U42" t="n">
-        <v>1455.163869630862</v>
+        <v>1500.792196238069</v>
       </c>
       <c r="V42" t="n">
-        <v>1250.190730770128</v>
+        <v>1295.819057377335</v>
       </c>
       <c r="W42" t="n">
-        <v>1053.669353603346</v>
+        <v>1099.297680210553</v>
       </c>
       <c r="X42" t="n">
-        <v>890.1920073700086</v>
+        <v>935.8203339772157</v>
       </c>
       <c r="Y42" t="n">
-        <v>750.499118723301</v>
+        <v>796.1274453305081</v>
       </c>
     </row>
     <row r="43">
@@ -7543,76 +7545,76 @@
         </is>
       </c>
       <c r="B43" t="n">
-        <v>894.0649040444501</v>
+        <v>1183.258067403227</v>
       </c>
       <c r="C43" t="n">
-        <v>722.0923409233661</v>
+        <v>1011.285504282143</v>
       </c>
       <c r="D43" t="n">
-        <v>558.7755680501368</v>
+        <v>847.9687314089136</v>
       </c>
       <c r="E43" t="n">
-        <v>392.5673622029904</v>
+        <v>681.7605255617672</v>
       </c>
       <c r="F43" t="n">
-        <v>220.7055879775508</v>
+        <v>509.8987513363276</v>
       </c>
       <c r="G43" t="n">
-        <v>54.44861827178296</v>
+        <v>343.6417816305598</v>
       </c>
       <c r="H43" t="n">
-        <v>54.44861827178296</v>
+        <v>199.8455131387141</v>
       </c>
       <c r="I43" t="n">
-        <v>54.44861827178296</v>
+        <v>100.0769448789901</v>
       </c>
       <c r="J43" t="n">
-        <v>111.939946495941</v>
+        <v>157.5682731031481</v>
       </c>
       <c r="K43" t="n">
-        <v>338.4675477017781</v>
+        <v>384.0958743089853</v>
       </c>
       <c r="L43" t="n">
-        <v>693.1568689961989</v>
+        <v>738.785195603406</v>
       </c>
       <c r="M43" t="n">
-        <v>1084.34266396645</v>
+        <v>1129.970990573657</v>
       </c>
       <c r="N43" t="n">
-        <v>1461.834174842485</v>
+        <v>1507.462501449693</v>
       </c>
       <c r="O43" t="n">
-        <v>1817.262303522249</v>
+        <v>1862.890630129456</v>
       </c>
       <c r="P43" t="n">
-        <v>2107.86151544415</v>
+        <v>2153.489842051356</v>
       </c>
       <c r="Q43" t="n">
-        <v>2234.861645684911</v>
+        <v>2280.489972292118</v>
       </c>
       <c r="R43" t="n">
-        <v>2234.861645684911</v>
+        <v>2280.489972292118</v>
       </c>
       <c r="S43" t="n">
-        <v>2234.861645684911</v>
+        <v>2280.489972292118</v>
       </c>
       <c r="T43" t="n">
-        <v>1991.522297910811</v>
+        <v>2037.150624518018</v>
       </c>
       <c r="U43" t="n">
-        <v>1991.522297910811</v>
+        <v>1756.966176018322</v>
       </c>
       <c r="V43" t="n">
-        <v>1827.989941448456</v>
+        <v>1475.254708626351</v>
       </c>
       <c r="W43" t="n">
-        <v>1553.137537620968</v>
+        <v>1475.254708626351</v>
       </c>
       <c r="X43" t="n">
-        <v>1310.573641066774</v>
+        <v>1475.254708626351</v>
       </c>
       <c r="Y43" t="n">
-        <v>1084.230872756516</v>
+        <v>1248.911940316093</v>
       </c>
     </row>
     <row r="44">
@@ -7622,76 +7624,76 @@
         </is>
       </c>
       <c r="B44" t="n">
-        <v>1203.41811846049</v>
+        <v>2429.413071721394</v>
       </c>
       <c r="C44" t="n">
-        <v>1203.41811846049</v>
+        <v>2002.512341734694</v>
       </c>
       <c r="D44" t="n">
-        <v>1203.41811846049</v>
+        <v>1579.219720919694</v>
       </c>
       <c r="E44" t="n">
-        <v>777.4411786083479</v>
+        <v>1153.242781067552</v>
       </c>
       <c r="F44" t="n">
-        <v>352.3169967977481</v>
+        <v>728.1185992569519</v>
       </c>
       <c r="G44" t="n">
-        <v>352.3169967977481</v>
+        <v>323.7795368464006</v>
       </c>
       <c r="H44" t="n">
-        <v>54.44861827178296</v>
+        <v>134.9738161355189</v>
       </c>
       <c r="I44" t="n">
-        <v>54.44861827178296</v>
+        <v>100.0769448789901</v>
       </c>
       <c r="J44" t="n">
-        <v>417.0520770886785</v>
+        <v>462.6804036958856</v>
       </c>
       <c r="K44" t="n">
-        <v>1090.853728201993</v>
+        <v>462.6804036958856</v>
       </c>
       <c r="L44" t="n">
-        <v>1764.655379315307</v>
+        <v>896.2443403489199</v>
       </c>
       <c r="M44" t="n">
-        <v>1764.655379315307</v>
+        <v>1900.530441767978</v>
       </c>
       <c r="N44" t="n">
-        <v>1931.072927593931</v>
+        <v>2876.781500254679</v>
       </c>
       <c r="O44" t="n">
-        <v>2604.874578707245</v>
+        <v>3721.926150405491</v>
       </c>
       <c r="P44" t="n">
-        <v>2604.874578707245</v>
+        <v>4430.205429563419</v>
       </c>
       <c r="Q44" t="n">
-        <v>2604.874578707245</v>
+        <v>4886.290909067602</v>
       </c>
       <c r="R44" t="n">
-        <v>2722.430913589148</v>
+        <v>5003.847243949504</v>
       </c>
       <c r="S44" t="n">
-        <v>2722.430913589148</v>
+        <v>4899.479949822645</v>
       </c>
       <c r="T44" t="n">
-        <v>2501.505342633781</v>
+        <v>4678.554378867278</v>
       </c>
       <c r="U44" t="n">
-        <v>2243.150433230194</v>
+        <v>4420.19946946369</v>
       </c>
       <c r="V44" t="n">
-        <v>1885.661018356443</v>
+        <v>4062.710054589939</v>
       </c>
       <c r="W44" t="n">
-        <v>1615.138117292743</v>
+        <v>3666.318704890286</v>
       </c>
       <c r="X44" t="n">
-        <v>1203.41811846049</v>
+        <v>3254.598706058034</v>
       </c>
       <c r="Y44" t="n">
-        <v>1203.41811846049</v>
+        <v>2849.261436012924</v>
       </c>
     </row>
     <row r="45">
@@ -7701,76 +7703,76 @@
         </is>
       </c>
       <c r="B45" t="n">
-        <v>621.5721093032382</v>
+        <v>667.2004359104453</v>
       </c>
       <c r="C45" t="n">
-        <v>504.066205820743</v>
+        <v>549.6945324279501</v>
       </c>
       <c r="D45" t="n">
-        <v>400.226247336028</v>
+        <v>445.8545739432351</v>
       </c>
       <c r="E45" t="n">
-        <v>295.5243136089652</v>
+        <v>341.1526402161723</v>
       </c>
       <c r="F45" t="n">
-        <v>201.8784832918694</v>
+        <v>247.5068098990765</v>
       </c>
       <c r="G45" t="n">
-        <v>107.8247115094734</v>
+        <v>153.4530381166805</v>
       </c>
       <c r="H45" t="n">
-        <v>54.44861827178296</v>
+        <v>100.0769448789901</v>
       </c>
       <c r="I45" t="n">
-        <v>54.44861827178296</v>
+        <v>100.0769448789901</v>
       </c>
       <c r="J45" t="n">
-        <v>54.44861827178296</v>
+        <v>100.0769448789901</v>
       </c>
       <c r="K45" t="n">
-        <v>54.44861827178296</v>
+        <v>100.0769448789901</v>
       </c>
       <c r="L45" t="n">
-        <v>54.44861827178296</v>
+        <v>100.0769448789901</v>
       </c>
       <c r="M45" t="n">
-        <v>728.2502693850971</v>
+        <v>819.4496289866299</v>
       </c>
       <c r="N45" t="n">
-        <v>728.2502693850971</v>
+        <v>1908.7645754595</v>
       </c>
       <c r="O45" t="n">
-        <v>1402.051920498411</v>
+        <v>1908.7645754595</v>
       </c>
       <c r="P45" t="n">
-        <v>1402.051920498411</v>
+        <v>1908.7645754595</v>
       </c>
       <c r="Q45" t="n">
-        <v>1863.136248852293</v>
+        <v>1908.7645754595</v>
       </c>
       <c r="R45" t="n">
-        <v>1863.136248852293</v>
+        <v>1908.7645754595</v>
       </c>
       <c r="S45" t="n">
-        <v>1781.812001413547</v>
+        <v>1827.440328020754</v>
       </c>
       <c r="T45" t="n">
-        <v>1639.932065711226</v>
+        <v>1685.560392318433</v>
       </c>
       <c r="U45" t="n">
-        <v>1455.163869630862</v>
+        <v>1500.792196238069</v>
       </c>
       <c r="V45" t="n">
-        <v>1250.190730770128</v>
+        <v>1295.819057377335</v>
       </c>
       <c r="W45" t="n">
-        <v>1053.669353603346</v>
+        <v>1099.297680210553</v>
       </c>
       <c r="X45" t="n">
-        <v>890.1920073700086</v>
+        <v>935.8203339772157</v>
       </c>
       <c r="Y45" t="n">
-        <v>750.499118723301</v>
+        <v>796.1274453305081</v>
       </c>
     </row>
     <row r="46">
@@ -7780,76 +7782,76 @@
         </is>
       </c>
       <c r="B46" t="n">
-        <v>1137.62974079602</v>
+        <v>324.1560104286538</v>
       </c>
       <c r="C46" t="n">
-        <v>965.6571776749358</v>
+        <v>324.1560104286538</v>
       </c>
       <c r="D46" t="n">
-        <v>802.3404048017065</v>
+        <v>160.8392375554245</v>
       </c>
       <c r="E46" t="n">
-        <v>636.1321989545601</v>
+        <v>100.0769448789901</v>
       </c>
       <c r="F46" t="n">
-        <v>464.2704247291205</v>
+        <v>100.0769448789901</v>
       </c>
       <c r="G46" t="n">
-        <v>298.0134550233526</v>
+        <v>100.0769448789901</v>
       </c>
       <c r="H46" t="n">
-        <v>154.217186531507</v>
+        <v>100.0769448789901</v>
       </c>
       <c r="I46" t="n">
-        <v>54.44861827178296</v>
+        <v>100.0769448789901</v>
       </c>
       <c r="J46" t="n">
-        <v>111.939946495941</v>
+        <v>157.5682731031481</v>
       </c>
       <c r="K46" t="n">
-        <v>338.4675477017781</v>
+        <v>384.0958743089853</v>
       </c>
       <c r="L46" t="n">
-        <v>693.1568689961989</v>
+        <v>738.785195603406</v>
       </c>
       <c r="M46" t="n">
-        <v>1084.34266396645</v>
+        <v>1129.970990573657</v>
       </c>
       <c r="N46" t="n">
-        <v>1461.834174842485</v>
+        <v>1507.462501449693</v>
       </c>
       <c r="O46" t="n">
-        <v>1817.262303522249</v>
+        <v>1862.890630129456</v>
       </c>
       <c r="P46" t="n">
-        <v>2107.86151544415</v>
+        <v>2153.489842051356</v>
       </c>
       <c r="Q46" t="n">
-        <v>2234.861645684911</v>
+        <v>2280.489972292118</v>
       </c>
       <c r="R46" t="n">
-        <v>2234.861645684911</v>
+        <v>2233.451358979291</v>
       </c>
       <c r="S46" t="n">
-        <v>2064.726598204046</v>
+        <v>2063.316311498426</v>
       </c>
       <c r="T46" t="n">
-        <v>2064.726598204046</v>
+        <v>1819.976963724326</v>
       </c>
       <c r="U46" t="n">
-        <v>1784.542149704351</v>
+        <v>1539.792515224631</v>
       </c>
       <c r="V46" t="n">
-        <v>1502.830682312379</v>
+        <v>1258.081047832659</v>
       </c>
       <c r="W46" t="n">
-        <v>1502.830682312379</v>
+        <v>983.2286440051723</v>
       </c>
       <c r="X46" t="n">
-        <v>1502.830682312379</v>
+        <v>740.6647474509774</v>
       </c>
       <c r="Y46" t="n">
-        <v>1327.795709508086</v>
+        <v>514.3219791407195</v>
       </c>
     </row>
   </sheetData>
@@ -7976,31 +7978,31 @@
         <v>0</v>
       </c>
       <c r="J2" t="n">
-        <v>395.6860795026527</v>
+        <v>29.41995948558652</v>
       </c>
       <c r="K2" t="n">
-        <v>35.76460079480934</v>
+        <v>569.51856287543</v>
       </c>
       <c r="L2" t="n">
-        <v>38.31204243262292</v>
+        <v>594.539855548217</v>
       </c>
       <c r="M2" t="n">
-        <v>718.0389912967188</v>
+        <v>593.6590760150259</v>
       </c>
       <c r="N2" t="n">
-        <v>425.293481306926</v>
+        <v>593.5074359500402</v>
       </c>
       <c r="O2" t="n">
         <v>37.3909593560241</v>
       </c>
       <c r="P2" t="n">
-        <v>718.1830902075183</v>
+        <v>37.5753618102313</v>
       </c>
       <c r="Q2" t="n">
-        <v>496.8170781441769</v>
+        <v>36.12467460459804</v>
       </c>
       <c r="R2" t="n">
-        <v>153.7764225027789</v>
+        <v>35.03264989479647</v>
       </c>
       <c r="S2" t="n">
         <v>0</v>
@@ -8061,22 +8063,22 @@
         <v>22.39923383333334</v>
       </c>
       <c r="L3" t="n">
-        <v>22.51508671422956</v>
+        <v>180.7888499740227</v>
       </c>
       <c r="M3" t="n">
-        <v>700.6124397087081</v>
+        <v>23.09678051232798</v>
       </c>
       <c r="N3" t="n">
-        <v>701.9507566108286</v>
+        <v>577.5708413291358</v>
       </c>
       <c r="O3" t="n">
-        <v>23.17188972222222</v>
+        <v>579.3997028378163</v>
       </c>
       <c r="P3" t="n">
-        <v>21.77084120482866</v>
+        <v>577.9986543204228</v>
       </c>
       <c r="Q3" t="n">
-        <v>491.5808533018869</v>
+        <v>22.7470382889785</v>
       </c>
       <c r="R3" t="n">
         <v>23.67291939414415</v>
@@ -8219,25 +8221,25 @@
         <v>35.76460079480934</v>
       </c>
       <c r="L5" t="n">
-        <v>38.31204243262292</v>
+        <v>594.539855548217</v>
       </c>
       <c r="M5" t="n">
-        <v>571.79591653127</v>
+        <v>37.43126289943181</v>
       </c>
       <c r="N5" t="n">
-        <v>717.8873512317331</v>
+        <v>593.5074359500402</v>
       </c>
       <c r="O5" t="n">
-        <v>717.9986877533111</v>
+        <v>593.6187724716183</v>
       </c>
       <c r="P5" t="n">
-        <v>718.1830902075183</v>
+        <v>110.6369203512731</v>
       </c>
       <c r="Q5" t="n">
-        <v>36.12467460459804</v>
+        <v>496.8170781441769</v>
       </c>
       <c r="R5" t="n">
-        <v>153.7764225027789</v>
+        <v>35.03264989479647</v>
       </c>
       <c r="S5" t="n">
         <v>0</v>
@@ -8292,28 +8294,28 @@
         <v>16.17238675</v>
       </c>
       <c r="J6" t="n">
-        <v>20.61111433333334</v>
+        <v>295.0530226965566</v>
       </c>
       <c r="K6" t="n">
-        <v>618.848654609434</v>
+        <v>22.39923383333334</v>
       </c>
       <c r="L6" t="n">
-        <v>22.51508671422956</v>
+        <v>578.7428998298237</v>
       </c>
       <c r="M6" t="n">
-        <v>104.1630189326075</v>
+        <v>23.09678051232798</v>
       </c>
       <c r="N6" t="n">
         <v>21.34302821354166</v>
       </c>
       <c r="O6" t="n">
-        <v>703.7796181195092</v>
+        <v>579.3997028378163</v>
       </c>
       <c r="P6" t="n">
-        <v>21.77084120482866</v>
+        <v>461.8305092169925</v>
       </c>
       <c r="Q6" t="n">
-        <v>491.5808533018869</v>
+        <v>22.7470382889785</v>
       </c>
       <c r="R6" t="n">
         <v>23.67291939414415</v>
@@ -8450,19 +8452,19 @@
         <v>0</v>
       </c>
       <c r="J8" t="n">
-        <v>395.6860795026527</v>
+        <v>29.41995948558652</v>
       </c>
       <c r="K8" t="n">
-        <v>716.3723291920963</v>
+        <v>35.76460079480934</v>
       </c>
       <c r="L8" t="n">
-        <v>206.4105760473949</v>
+        <v>548.8576414812762</v>
       </c>
       <c r="M8" t="n">
-        <v>718.0389912967188</v>
+        <v>593.6590760150259</v>
       </c>
       <c r="N8" t="n">
-        <v>717.8873512317331</v>
+        <v>593.5074359500402</v>
       </c>
       <c r="O8" t="n">
         <v>37.3909593560241</v>
@@ -8471,7 +8473,7 @@
         <v>37.5753618102313</v>
       </c>
       <c r="Q8" t="n">
-        <v>36.12467460459804</v>
+        <v>496.8170781441769</v>
       </c>
       <c r="R8" t="n">
         <v>153.7764225027789</v>
@@ -8529,31 +8531,31 @@
         <v>16.17238675</v>
       </c>
       <c r="J9" t="n">
-        <v>295.0530226965566</v>
+        <v>20.61111433333334</v>
       </c>
       <c r="K9" t="n">
-        <v>618.848654609434</v>
+        <v>97.8252091287798</v>
       </c>
       <c r="L9" t="n">
-        <v>509.7471451685728</v>
+        <v>578.7428998298237</v>
       </c>
       <c r="M9" t="n">
-        <v>23.09678051232798</v>
+        <v>579.3245936279221</v>
       </c>
       <c r="N9" t="n">
         <v>21.34302821354166</v>
       </c>
       <c r="O9" t="n">
-        <v>23.17188972222222</v>
+        <v>579.3997028378163</v>
       </c>
       <c r="P9" t="n">
         <v>21.77084120482866</v>
       </c>
       <c r="Q9" t="n">
-        <v>491.5808533018869</v>
+        <v>22.7470382889785</v>
       </c>
       <c r="R9" t="n">
-        <v>23.67291939414415</v>
+        <v>106.5207073584907</v>
       </c>
       <c r="S9" t="n">
         <v>0</v>
@@ -8687,28 +8689,28 @@
         <v>0</v>
       </c>
       <c r="J11" t="n">
-        <v>29.41995948558652</v>
+        <v>395.6860795026527</v>
       </c>
       <c r="K11" t="n">
-        <v>716.3723291920963</v>
+        <v>710.8187903865954</v>
       </c>
       <c r="L11" t="n">
-        <v>111.9842925248821</v>
+        <v>977.3272420480539</v>
       </c>
       <c r="M11" t="n">
-        <v>718.0389912967188</v>
+        <v>1051.861668373228</v>
       </c>
       <c r="N11" t="n">
-        <v>717.8873512317331</v>
+        <v>1023.391803124043</v>
       </c>
       <c r="O11" t="n">
-        <v>37.3909593560241</v>
+        <v>891.0724241548241</v>
       </c>
       <c r="P11" t="n">
         <v>37.5753618102313</v>
       </c>
       <c r="Q11" t="n">
-        <v>496.8170781441769</v>
+        <v>36.12467460459804</v>
       </c>
       <c r="R11" t="n">
         <v>153.7764225027789</v>
@@ -8772,19 +8774,19 @@
         <v>22.39923383333334</v>
       </c>
       <c r="L12" t="n">
-        <v>488.256832526231</v>
+        <v>227.5743145228559</v>
       </c>
       <c r="M12" t="n">
-        <v>703.704508909615</v>
+        <v>23.09678051232798</v>
       </c>
       <c r="N12" t="n">
-        <v>701.9507566108286</v>
+        <v>21.34302821354166</v>
       </c>
       <c r="O12" t="n">
-        <v>23.17188972222222</v>
+        <v>921.6378271075471</v>
       </c>
       <c r="P12" t="n">
-        <v>21.77084120482866</v>
+        <v>745.2028786174529</v>
       </c>
       <c r="Q12" t="n">
         <v>22.7470382889785</v>
@@ -8924,28 +8926,28 @@
         <v>0</v>
       </c>
       <c r="J14" t="n">
-        <v>29.41995948558652</v>
+        <v>395.6860795026527</v>
       </c>
       <c r="K14" t="n">
-        <v>716.3723291920963</v>
+        <v>35.76460079480934</v>
       </c>
       <c r="L14" t="n">
-        <v>718.9197708299099</v>
+        <v>977.3272420480539</v>
       </c>
       <c r="M14" t="n">
-        <v>571.7959165312701</v>
+        <v>1051.861668373228</v>
       </c>
       <c r="N14" t="n">
-        <v>717.8873512317331</v>
+        <v>1023.391803124043</v>
       </c>
       <c r="O14" t="n">
-        <v>37.3909593560241</v>
+        <v>891.0724241548241</v>
       </c>
       <c r="P14" t="n">
-        <v>37.5753618102313</v>
+        <v>251.9371478624388</v>
       </c>
       <c r="Q14" t="n">
-        <v>36.12467460459804</v>
+        <v>496.8170781441769</v>
       </c>
       <c r="R14" t="n">
         <v>153.7764225027789</v>
@@ -9009,22 +9011,22 @@
         <v>22.39923383333334</v>
       </c>
       <c r="L15" t="n">
-        <v>703.1228151115166</v>
+        <v>22.51508671422956</v>
       </c>
       <c r="M15" t="n">
-        <v>23.09678051232798</v>
+        <v>1089.749849175</v>
       </c>
       <c r="N15" t="n">
-        <v>21.34302821354166</v>
+        <v>781.6471621574452</v>
       </c>
       <c r="O15" t="n">
         <v>23.17188972222222</v>
       </c>
       <c r="P15" t="n">
-        <v>699.2865004012087</v>
+        <v>21.77084120482866</v>
       </c>
       <c r="Q15" t="n">
-        <v>491.5808533018869</v>
+        <v>22.7470382889785</v>
       </c>
       <c r="R15" t="n">
         <v>23.67291939414415</v>
@@ -9161,10 +9163,10 @@
         <v>0</v>
       </c>
       <c r="J17" t="n">
-        <v>29.41995948558652</v>
+        <v>395.6860795026527</v>
       </c>
       <c r="K17" t="n">
-        <v>758.5002654165255</v>
+        <v>35.76460079480934</v>
       </c>
       <c r="L17" t="n">
         <v>977.3272420480539</v>
@@ -9179,13 +9181,13 @@
         <v>891.0724241548241</v>
       </c>
       <c r="P17" t="n">
-        <v>585.0680802286672</v>
+        <v>753.0089771212694</v>
       </c>
       <c r="Q17" t="n">
-        <v>36.12467460459804</v>
+        <v>105.9095497086638</v>
       </c>
       <c r="R17" t="n">
-        <v>35.03264989479647</v>
+        <v>153.7764225027789</v>
       </c>
       <c r="S17" t="n">
         <v>0</v>
@@ -9246,25 +9248,25 @@
         <v>22.39923383333334</v>
       </c>
       <c r="L18" t="n">
-        <v>867.7664080100944</v>
+        <v>22.51508671422956</v>
       </c>
       <c r="M18" t="n">
-        <v>23.09678051232798</v>
+        <v>749.7358553685299</v>
       </c>
       <c r="N18" t="n">
-        <v>21.34302821354166</v>
+        <v>1121.661155963915</v>
       </c>
       <c r="O18" t="n">
-        <v>921.6378271075471</v>
+        <v>23.17188972222222</v>
       </c>
       <c r="P18" t="n">
-        <v>22.16299716586774</v>
+        <v>21.77084120482866</v>
       </c>
       <c r="Q18" t="n">
         <v>22.7470382889785</v>
       </c>
       <c r="R18" t="n">
-        <v>106.5207073584907</v>
+        <v>23.67291939414415</v>
       </c>
       <c r="S18" t="n">
         <v>0</v>
@@ -9474,34 +9476,34 @@
         <v>0</v>
       </c>
       <c r="I21" t="n">
-        <v>23.69424832768873</v>
+        <v>16.17238675</v>
       </c>
       <c r="J21" t="n">
-        <v>295.0530226965566</v>
+        <v>20.61111433333334</v>
       </c>
       <c r="K21" t="n">
-        <v>618.848654609434</v>
+        <v>22.39923383333334</v>
       </c>
       <c r="L21" t="n">
-        <v>164.7792732268216</v>
+        <v>22.51508671422956</v>
       </c>
       <c r="M21" t="n">
-        <v>23.09678051232798</v>
+        <v>1089.749849175</v>
       </c>
       <c r="N21" t="n">
-        <v>21.34302821354166</v>
+        <v>781.6471621574452</v>
       </c>
       <c r="O21" t="n">
         <v>23.17188972222222</v>
       </c>
       <c r="P21" t="n">
-        <v>745.2028786174529</v>
+        <v>21.77084120482866</v>
       </c>
       <c r="Q21" t="n">
         <v>22.7470382889785</v>
       </c>
       <c r="R21" t="n">
-        <v>106.5207073584907</v>
+        <v>23.67291939414415</v>
       </c>
       <c r="S21" t="n">
         <v>0</v>
@@ -9635,7 +9637,7 @@
         <v>0</v>
       </c>
       <c r="J23" t="n">
-        <v>395.6860795026527</v>
+        <v>29.41995948558652</v>
       </c>
       <c r="K23" t="n">
         <v>758.5002654165255</v>
@@ -9647,16 +9649,16 @@
         <v>1051.861668373228</v>
       </c>
       <c r="N23" t="n">
-        <v>37.27962283444602</v>
+        <v>1023.391803124043</v>
       </c>
       <c r="O23" t="n">
-        <v>763.5414113871921</v>
+        <v>891.0724241548241</v>
       </c>
       <c r="P23" t="n">
-        <v>753.0089771212694</v>
+        <v>466.324307620685</v>
       </c>
       <c r="Q23" t="n">
-        <v>496.8170781441769</v>
+        <v>36.12467460459804</v>
       </c>
       <c r="R23" t="n">
         <v>153.7764225027789</v>
@@ -9711,34 +9713,34 @@
         <v>0</v>
       </c>
       <c r="I24" t="n">
-        <v>23.69424832768873</v>
+        <v>16.17238675</v>
       </c>
       <c r="J24" t="n">
         <v>20.61111433333334</v>
       </c>
       <c r="K24" t="n">
-        <v>618.848654609434</v>
+        <v>22.39923383333334</v>
       </c>
       <c r="L24" t="n">
         <v>22.51508671422956</v>
       </c>
       <c r="M24" t="n">
-        <v>23.09678051232798</v>
+        <v>1089.749849175</v>
       </c>
       <c r="N24" t="n">
-        <v>21.34302821354166</v>
+        <v>781.6471621574452</v>
       </c>
       <c r="O24" t="n">
         <v>23.17188972222222</v>
       </c>
       <c r="P24" t="n">
-        <v>745.2028786174529</v>
+        <v>21.77084120482866</v>
       </c>
       <c r="Q24" t="n">
-        <v>439.4531331647928</v>
+        <v>22.7470382889785</v>
       </c>
       <c r="R24" t="n">
-        <v>106.5207073584907</v>
+        <v>23.67291939414415</v>
       </c>
       <c r="S24" t="n">
         <v>0</v>
@@ -9954,25 +9956,25 @@
         <v>20.61111433333334</v>
       </c>
       <c r="K27" t="n">
-        <v>618.848654609434</v>
+        <v>22.39923383333334</v>
       </c>
       <c r="L27" t="n">
         <v>22.51508671422956</v>
       </c>
       <c r="M27" t="n">
-        <v>23.09678051232798</v>
+        <v>951.5880457335786</v>
       </c>
       <c r="N27" t="n">
         <v>21.34302821354166</v>
       </c>
       <c r="O27" t="n">
-        <v>61.41381912716452</v>
+        <v>921.6378271075471</v>
       </c>
       <c r="P27" t="n">
-        <v>745.2028786174529</v>
+        <v>21.77084120482866</v>
       </c>
       <c r="Q27" t="n">
-        <v>491.5808533018869</v>
+        <v>22.7470382889785</v>
       </c>
       <c r="R27" t="n">
         <v>23.67291939414415</v>
@@ -10109,7 +10111,7 @@
         <v>0</v>
       </c>
       <c r="J29" t="n">
-        <v>395.6860795026527</v>
+        <v>29.41995948558652</v>
       </c>
       <c r="K29" t="n">
         <v>758.5002654165255</v>
@@ -10121,16 +10123,16 @@
         <v>1051.861668373228</v>
       </c>
       <c r="N29" t="n">
-        <v>1023.391803124043</v>
+        <v>855.4509062314407</v>
       </c>
       <c r="O29" t="n">
-        <v>37.3909593560241</v>
+        <v>891.0724241548241</v>
       </c>
       <c r="P29" t="n">
-        <v>611.7910214708227</v>
+        <v>753.0089771212694</v>
       </c>
       <c r="Q29" t="n">
-        <v>496.8170781441769</v>
+        <v>36.12467460459804</v>
       </c>
       <c r="R29" t="n">
         <v>35.03264989479647</v>
@@ -10194,7 +10196,7 @@
         <v>22.39923383333334</v>
       </c>
       <c r="L30" t="n">
-        <v>22.51508671422956</v>
+        <v>867.7664080100944</v>
       </c>
       <c r="M30" t="n">
         <v>23.09678051232798</v>
@@ -10203,13 +10205,13 @@
         <v>21.34302821354166</v>
       </c>
       <c r="O30" t="n">
-        <v>657.863239903264</v>
+        <v>921.6378271075471</v>
       </c>
       <c r="P30" t="n">
-        <v>745.2028786174529</v>
+        <v>105.0107851302144</v>
       </c>
       <c r="Q30" t="n">
-        <v>491.5808533018869</v>
+        <v>22.7470382889785</v>
       </c>
       <c r="R30" t="n">
         <v>23.67291939414415</v>
@@ -10346,13 +10348,13 @@
         <v>0</v>
       </c>
       <c r="J32" t="n">
-        <v>29.41995948558652</v>
+        <v>395.6860795026527</v>
       </c>
       <c r="K32" t="n">
-        <v>35.76460079480934</v>
+        <v>702.6160445827093</v>
       </c>
       <c r="L32" t="n">
-        <v>977.3272420480539</v>
+        <v>38.31204243262292</v>
       </c>
       <c r="M32" t="n">
         <v>1051.861668373228</v>
@@ -10367,10 +10369,10 @@
         <v>753.0089771212694</v>
       </c>
       <c r="Q32" t="n">
-        <v>472.1756697257304</v>
+        <v>496.8170781441769</v>
       </c>
       <c r="R32" t="n">
-        <v>153.7764225027789</v>
+        <v>35.03264989479647</v>
       </c>
       <c r="S32" t="n">
         <v>0</v>
@@ -10431,19 +10433,19 @@
         <v>22.39923383333334</v>
       </c>
       <c r="L33" t="n">
-        <v>22.51508671422956</v>
+        <v>227.5743145228559</v>
       </c>
       <c r="M33" t="n">
-        <v>749.7358553685299</v>
+        <v>23.09678051232798</v>
       </c>
       <c r="N33" t="n">
-        <v>1121.661155963915</v>
+        <v>21.34302821354166</v>
       </c>
       <c r="O33" t="n">
-        <v>23.17188972222222</v>
+        <v>921.6378271075471</v>
       </c>
       <c r="P33" t="n">
-        <v>21.77084120482866</v>
+        <v>745.2028786174529</v>
       </c>
       <c r="Q33" t="n">
         <v>22.7470382889785</v>
@@ -10583,7 +10585,7 @@
         <v>0</v>
       </c>
       <c r="J35" t="n">
-        <v>29.41995948558652</v>
+        <v>395.6860795026527</v>
       </c>
       <c r="K35" t="n">
         <v>758.5002654165255</v>
@@ -10598,13 +10600,13 @@
         <v>1023.391803124043</v>
       </c>
       <c r="O35" t="n">
-        <v>891.0724241548241</v>
+        <v>611.6066190166155</v>
       </c>
       <c r="P35" t="n">
-        <v>585.0680802286672</v>
+        <v>37.5753618102313</v>
       </c>
       <c r="Q35" t="n">
-        <v>36.12467460459804</v>
+        <v>496.8170781441769</v>
       </c>
       <c r="R35" t="n">
         <v>35.03264989479647</v>
@@ -10671,13 +10673,13 @@
         <v>22.51508671422956</v>
       </c>
       <c r="M36" t="n">
-        <v>749.7358553685286</v>
+        <v>1089.749849175</v>
       </c>
       <c r="N36" t="n">
-        <v>1121.661155963915</v>
+        <v>21.34302821354166</v>
       </c>
       <c r="O36" t="n">
-        <v>23.17188972222222</v>
+        <v>783.4760236661258</v>
       </c>
       <c r="P36" t="n">
         <v>21.77084120482866</v>
@@ -10908,19 +10910,19 @@
         <v>22.51508671422956</v>
       </c>
       <c r="M39" t="n">
-        <v>23.09678051232798</v>
+        <v>749.7358553685299</v>
       </c>
       <c r="N39" t="n">
-        <v>21.34302821354166</v>
+        <v>1121.661155963915</v>
       </c>
       <c r="O39" t="n">
-        <v>921.6378271075471</v>
+        <v>23.17188972222222</v>
       </c>
       <c r="P39" t="n">
-        <v>745.2028786174529</v>
+        <v>21.77084120482866</v>
       </c>
       <c r="Q39" t="n">
-        <v>227.806266097605</v>
+        <v>22.7470382889785</v>
       </c>
       <c r="R39" t="n">
         <v>23.67291939414415</v>
@@ -11057,31 +11059,31 @@
         <v>0</v>
       </c>
       <c r="J41" t="n">
-        <v>29.41995948558652</v>
+        <v>395.6860795026527</v>
       </c>
       <c r="K41" t="n">
-        <v>688.8730270346301</v>
+        <v>35.76460079480934</v>
       </c>
       <c r="L41" t="n">
-        <v>38.31204243262292</v>
+        <v>476.2554127892232</v>
       </c>
       <c r="M41" t="n">
-        <v>718.0389912967188</v>
+        <v>1051.861668373228</v>
       </c>
       <c r="N41" t="n">
-        <v>717.8873512317331</v>
+        <v>1023.391803124043</v>
       </c>
       <c r="O41" t="n">
-        <v>717.9986877533111</v>
+        <v>891.0724241548241</v>
       </c>
       <c r="P41" t="n">
-        <v>37.5753618102313</v>
+        <v>753.0089771212694</v>
       </c>
       <c r="Q41" t="n">
-        <v>36.12467460459804</v>
+        <v>496.8170781441769</v>
       </c>
       <c r="R41" t="n">
-        <v>35.03264989479647</v>
+        <v>153.7764225027789</v>
       </c>
       <c r="S41" t="n">
         <v>0</v>
@@ -11136,28 +11138,28 @@
         <v>16.17238675</v>
       </c>
       <c r="J42" t="n">
-        <v>20.61111433333334</v>
+        <v>295.0530226965566</v>
       </c>
       <c r="K42" t="n">
-        <v>618.848654609434</v>
+        <v>39.42764440110522</v>
       </c>
       <c r="L42" t="n">
-        <v>572.4151401474176</v>
+        <v>22.51508671422956</v>
       </c>
       <c r="M42" t="n">
-        <v>23.09678051232798</v>
+        <v>1089.749849175</v>
       </c>
       <c r="N42" t="n">
         <v>21.34302821354166</v>
       </c>
       <c r="O42" t="n">
-        <v>703.7796181195092</v>
+        <v>23.17188972222222</v>
       </c>
       <c r="P42" t="n">
         <v>21.77084120482866</v>
       </c>
       <c r="Q42" t="n">
-        <v>22.7470382889785</v>
+        <v>491.5808533018869</v>
       </c>
       <c r="R42" t="n">
         <v>23.67291939414415</v>
@@ -11297,25 +11299,25 @@
         <v>395.6860795026527</v>
       </c>
       <c r="K44" t="n">
-        <v>716.3723291920963</v>
+        <v>35.76460079480934</v>
       </c>
       <c r="L44" t="n">
-        <v>718.9197708299099</v>
+        <v>476.2554127892232</v>
       </c>
       <c r="M44" t="n">
-        <v>37.43126289943181</v>
+        <v>1051.861668373228</v>
       </c>
       <c r="N44" t="n">
-        <v>205.378156449218</v>
+        <v>1023.391803124043</v>
       </c>
       <c r="O44" t="n">
-        <v>717.9986877533111</v>
+        <v>891.0724241548241</v>
       </c>
       <c r="P44" t="n">
-        <v>37.5753618102313</v>
+        <v>753.0089771212694</v>
       </c>
       <c r="Q44" t="n">
-        <v>36.12467460459804</v>
+        <v>496.8170781441769</v>
       </c>
       <c r="R44" t="n">
         <v>153.7764225027789</v>
@@ -11382,19 +11384,19 @@
         <v>22.51508671422956</v>
       </c>
       <c r="M45" t="n">
-        <v>703.704508909615</v>
+        <v>749.7358553685299</v>
       </c>
       <c r="N45" t="n">
-        <v>21.34302821354166</v>
+        <v>1121.661155963915</v>
       </c>
       <c r="O45" t="n">
-        <v>703.7796181195092</v>
+        <v>23.17188972222222</v>
       </c>
       <c r="P45" t="n">
         <v>21.77084120482866</v>
       </c>
       <c r="Q45" t="n">
-        <v>488.4887841009801</v>
+        <v>22.7470382889785</v>
       </c>
       <c r="R45" t="n">
         <v>23.67291939414415</v>
@@ -23255,19 +23257,19 @@
         </is>
       </c>
       <c r="B11" t="n">
-        <v>415.6498806486147</v>
+        <v>0</v>
       </c>
       <c r="C11" t="n">
-        <v>422.6317226868329</v>
+        <v>0</v>
       </c>
       <c r="D11" t="n">
-        <v>419.0596946068497</v>
+        <v>0</v>
       </c>
       <c r="E11" t="n">
         <v>0</v>
       </c>
       <c r="F11" t="n">
-        <v>420.8729399924937</v>
+        <v>0</v>
       </c>
       <c r="G11" t="n">
         <v>0</v>
@@ -23312,10 +23314,10 @@
         <v>0</v>
       </c>
       <c r="U11" t="n">
-        <v>0</v>
+        <v>107.972031236933</v>
       </c>
       <c r="V11" t="n">
-        <v>241.9040196730998</v>
+        <v>0</v>
       </c>
       <c r="W11" t="n">
         <v>0</v>
@@ -23324,7 +23326,7 @@
         <v>0</v>
       </c>
       <c r="Y11" t="n">
-        <v>401.2838973446586</v>
+        <v>0</v>
       </c>
     </row>
     <row r="12">
@@ -23504,16 +23506,16 @@
         <v>0</v>
       </c>
       <c r="F14" t="n">
-        <v>267.5156322128093</v>
+        <v>0</v>
       </c>
       <c r="G14" t="n">
-        <v>400.2956717864458</v>
+        <v>107.9720312369327</v>
       </c>
       <c r="H14" t="n">
-        <v>294.8896947407055</v>
+        <v>0</v>
       </c>
       <c r="I14" t="n">
-        <v>34.5479025439635</v>
+        <v>0</v>
       </c>
       <c r="J14" t="n">
         <v>0</v>
@@ -23543,19 +23545,19 @@
         <v>0</v>
       </c>
       <c r="S14" t="n">
-        <v>103.323621185591</v>
+        <v>0</v>
       </c>
       <c r="T14" t="n">
-        <v>218.7163152458132</v>
+        <v>0</v>
       </c>
       <c r="U14" t="n">
-        <v>255.7713603095518</v>
+        <v>0</v>
       </c>
       <c r="V14" t="n">
-        <v>353.914520725013</v>
+        <v>0</v>
       </c>
       <c r="W14" t="n">
-        <v>392.4274362026566</v>
+        <v>0</v>
       </c>
       <c r="X14" t="n">
         <v>0</v>
@@ -23938,22 +23940,22 @@
         <v>0</v>
       </c>
       <c r="S19" t="n">
-        <v>168.4336970060565</v>
+        <v>0</v>
       </c>
       <c r="T19" t="n">
-        <v>0</v>
+        <v>240.905954296359</v>
       </c>
       <c r="U19" t="n">
         <v>277.3826040146988</v>
       </c>
       <c r="V19" t="n">
-        <v>278.8943527180514</v>
+        <v>0</v>
       </c>
       <c r="W19" t="n">
-        <v>125.8003826660205</v>
+        <v>272.1038797892121</v>
       </c>
       <c r="X19" t="n">
-        <v>0</v>
+        <v>60.1185983045572</v>
       </c>
       <c r="Y19" t="n">
         <v>0</v>
@@ -24124,16 +24126,16 @@
         </is>
       </c>
       <c r="B22" t="n">
-        <v>0</v>
+        <v>188.264309024945</v>
       </c>
       <c r="C22" t="n">
-        <v>0</v>
+        <v>170.2528374898731</v>
       </c>
       <c r="D22" t="n">
-        <v>0</v>
+        <v>161.683605144497</v>
       </c>
       <c r="E22" t="n">
-        <v>0</v>
+        <v>106.2309441183567</v>
       </c>
       <c r="F22" t="n">
         <v>0</v>
@@ -24145,7 +24147,7 @@
         <v>0</v>
       </c>
       <c r="I22" t="n">
-        <v>98.77088257712678</v>
+        <v>0</v>
       </c>
       <c r="J22" t="n">
         <v>0</v>
@@ -24172,19 +24174,19 @@
         <v>0</v>
       </c>
       <c r="R22" t="n">
-        <v>46.56822717969858</v>
+        <v>0</v>
       </c>
       <c r="S22" t="n">
-        <v>168.4336970060565</v>
+        <v>0</v>
       </c>
       <c r="T22" t="n">
-        <v>240.905954296359</v>
+        <v>0</v>
       </c>
       <c r="U22" t="n">
-        <v>277.3826040146988</v>
+        <v>0</v>
       </c>
       <c r="V22" t="n">
-        <v>18.44967133088738</v>
+        <v>0</v>
       </c>
       <c r="W22" t="n">
         <v>0</v>
@@ -24193,7 +24195,7 @@
         <v>0</v>
       </c>
       <c r="Y22" t="n">
-        <v>0</v>
+        <v>224.0793406271554</v>
       </c>
     </row>
     <row r="23">
@@ -24367,22 +24369,22 @@
         <v>0</v>
       </c>
       <c r="D25" t="n">
-        <v>161.683605144497</v>
+        <v>0</v>
       </c>
       <c r="E25" t="n">
-        <v>164.546123788675</v>
+        <v>0</v>
       </c>
       <c r="F25" t="n">
         <v>0</v>
       </c>
       <c r="G25" t="n">
-        <v>164.5944000087102</v>
+        <v>0</v>
       </c>
       <c r="H25" t="n">
-        <v>142.3583058069271</v>
+        <v>0</v>
       </c>
       <c r="I25" t="n">
-        <v>98.77088257712678</v>
+        <v>0</v>
       </c>
       <c r="J25" t="n">
         <v>0</v>
@@ -24409,19 +24411,19 @@
         <v>0</v>
       </c>
       <c r="R25" t="n">
-        <v>46.56822717969858</v>
+        <v>0</v>
       </c>
       <c r="S25" t="n">
-        <v>71.9894918991922</v>
+        <v>168.4336970060565</v>
       </c>
       <c r="T25" t="n">
-        <v>0</v>
+        <v>240.905954296359</v>
       </c>
       <c r="U25" t="n">
-        <v>0</v>
+        <v>277.3826040146988</v>
       </c>
       <c r="V25" t="n">
-        <v>0</v>
+        <v>163.7887810877128</v>
       </c>
       <c r="W25" t="n">
         <v>0</v>
@@ -24616,10 +24618,10 @@
         <v>0</v>
       </c>
       <c r="H28" t="n">
-        <v>142.3583058069271</v>
+        <v>0</v>
       </c>
       <c r="I28" t="n">
-        <v>98.77088257712678</v>
+        <v>0</v>
       </c>
       <c r="J28" t="n">
         <v>0</v>
@@ -24655,13 +24657,13 @@
         <v>240.905954296359</v>
       </c>
       <c r="U28" t="n">
-        <v>0</v>
+        <v>277.3826040146988</v>
       </c>
       <c r="V28" t="n">
-        <v>0</v>
+        <v>117.2205539080143</v>
       </c>
       <c r="W28" t="n">
-        <v>153.4739695386591</v>
+        <v>0</v>
       </c>
       <c r="X28" t="n">
         <v>0</v>
@@ -24835,28 +24837,28 @@
         </is>
       </c>
       <c r="B31" t="n">
-        <v>0</v>
+        <v>188.264309024945</v>
       </c>
       <c r="C31" t="n">
         <v>0</v>
       </c>
       <c r="D31" t="n">
-        <v>161.683605144497</v>
+        <v>0</v>
       </c>
       <c r="E31" t="n">
-        <v>164.546123788675</v>
+        <v>0</v>
       </c>
       <c r="F31" t="n">
         <v>0</v>
       </c>
       <c r="G31" t="n">
-        <v>68.15019490184623</v>
+        <v>164.5944000087102</v>
       </c>
       <c r="H31" t="n">
         <v>142.3583058069271</v>
       </c>
       <c r="I31" t="n">
-        <v>98.77088257712678</v>
+        <v>0</v>
       </c>
       <c r="J31" t="n">
         <v>0</v>
@@ -24883,10 +24885,10 @@
         <v>0</v>
       </c>
       <c r="R31" t="n">
-        <v>46.56822717969858</v>
+        <v>0</v>
       </c>
       <c r="S31" t="n">
-        <v>168.4336970060565</v>
+        <v>0</v>
       </c>
       <c r="T31" t="n">
         <v>0</v>
@@ -24901,10 +24903,10 @@
         <v>0</v>
       </c>
       <c r="X31" t="n">
-        <v>0</v>
+        <v>240.1382575886529</v>
       </c>
       <c r="Y31" t="n">
-        <v>0</v>
+        <v>115.1557639755919</v>
       </c>
     </row>
     <row r="32">
@@ -25084,7 +25086,7 @@
         <v>0</v>
       </c>
       <c r="F34" t="n">
-        <v>0</v>
+        <v>170.1431564831852</v>
       </c>
       <c r="G34" t="n">
         <v>164.5944000087102</v>
@@ -25123,16 +25125,16 @@
         <v>46.56822717969858</v>
       </c>
       <c r="S34" t="n">
-        <v>0</v>
+        <v>168.4336970060565</v>
       </c>
       <c r="T34" t="n">
-        <v>0</v>
+        <v>59.64236734312274</v>
       </c>
       <c r="U34" t="n">
-        <v>277.3826040146988</v>
+        <v>0</v>
       </c>
       <c r="V34" t="n">
-        <v>120.8366168176657</v>
+        <v>0</v>
       </c>
       <c r="W34" t="n">
         <v>0</v>
@@ -25309,7 +25311,7 @@
         </is>
       </c>
       <c r="B37" t="n">
-        <v>188.264309024945</v>
+        <v>0</v>
       </c>
       <c r="C37" t="n">
         <v>0</v>
@@ -25318,16 +25320,16 @@
         <v>0</v>
       </c>
       <c r="E37" t="n">
-        <v>164.546123788675</v>
+        <v>0</v>
       </c>
       <c r="F37" t="n">
-        <v>0</v>
+        <v>170.1431564831852</v>
       </c>
       <c r="G37" t="n">
-        <v>0</v>
+        <v>164.5944000087102</v>
       </c>
       <c r="H37" t="n">
-        <v>0</v>
+        <v>142.3583058069271</v>
       </c>
       <c r="I37" t="n">
         <v>0</v>
@@ -25360,10 +25362,10 @@
         <v>46.56822717969858</v>
       </c>
       <c r="S37" t="n">
-        <v>168.4336970060565</v>
+        <v>0</v>
       </c>
       <c r="T37" t="n">
-        <v>240.905954296359</v>
+        <v>54.74306713709368</v>
       </c>
       <c r="U37" t="n">
         <v>0</v>
@@ -25372,10 +25374,10 @@
         <v>0</v>
       </c>
       <c r="W37" t="n">
-        <v>0</v>
+        <v>272.1038797892121</v>
       </c>
       <c r="X37" t="n">
-        <v>41.79272510909331</v>
+        <v>0</v>
       </c>
       <c r="Y37" t="n">
         <v>0</v>
@@ -25561,10 +25563,10 @@
         <v>0</v>
       </c>
       <c r="G40" t="n">
-        <v>6.759898196019378</v>
+        <v>0</v>
       </c>
       <c r="H40" t="n">
-        <v>0</v>
+        <v>142.3583058069271</v>
       </c>
       <c r="I40" t="n">
         <v>0</v>
@@ -25597,16 +25599,16 @@
         <v>46.56822717969858</v>
       </c>
       <c r="S40" t="n">
-        <v>0</v>
+        <v>168.4336970060565</v>
       </c>
       <c r="T40" t="n">
         <v>240.905954296359</v>
       </c>
       <c r="U40" t="n">
-        <v>277.3826040146988</v>
+        <v>0</v>
       </c>
       <c r="V40" t="n">
-        <v>278.8943527180514</v>
+        <v>252.2448521157858</v>
       </c>
       <c r="W40" t="n">
         <v>0</v>
@@ -25628,7 +25630,7 @@
         <v>0</v>
       </c>
       <c r="C41" t="n">
-        <v>0</v>
+        <v>4.648410051341784</v>
       </c>
       <c r="D41" t="n">
         <v>0</v>
@@ -25640,13 +25642,13 @@
         <v>0</v>
       </c>
       <c r="G41" t="n">
-        <v>400.2956717864458</v>
+        <v>0</v>
       </c>
       <c r="H41" t="n">
-        <v>294.8896947407055</v>
+        <v>0</v>
       </c>
       <c r="I41" t="n">
-        <v>34.5479025439635</v>
+        <v>0</v>
       </c>
       <c r="J41" t="n">
         <v>0</v>
@@ -25679,22 +25681,22 @@
         <v>103.323621185591</v>
       </c>
       <c r="T41" t="n">
-        <v>218.7163152458132</v>
+        <v>0</v>
       </c>
       <c r="U41" t="n">
-        <v>255.7713603095518</v>
+        <v>0</v>
       </c>
       <c r="V41" t="n">
-        <v>353.914520725013</v>
+        <v>0</v>
       </c>
       <c r="W41" t="n">
-        <v>392.4274362026566</v>
+        <v>0</v>
       </c>
       <c r="X41" t="n">
         <v>0</v>
       </c>
       <c r="Y41" t="n">
-        <v>267.5156322128095</v>
+        <v>0</v>
       </c>
     </row>
     <row r="42">
@@ -25783,7 +25785,7 @@
         </is>
       </c>
       <c r="B43" t="n">
-        <v>0</v>
+        <v>123.2669748412074</v>
       </c>
       <c r="C43" t="n">
         <v>0</v>
@@ -25801,10 +25803,10 @@
         <v>0</v>
       </c>
       <c r="H43" t="n">
-        <v>142.3583058069271</v>
+        <v>0</v>
       </c>
       <c r="I43" t="n">
-        <v>98.77088257712678</v>
+        <v>0</v>
       </c>
       <c r="J43" t="n">
         <v>0</v>
@@ -25840,16 +25842,16 @@
         <v>0</v>
       </c>
       <c r="U43" t="n">
-        <v>277.3826040146988</v>
+        <v>0</v>
       </c>
       <c r="V43" t="n">
-        <v>116.9973198203193</v>
+        <v>0</v>
       </c>
       <c r="W43" t="n">
-        <v>0</v>
+        <v>272.1038797892121</v>
       </c>
       <c r="X43" t="n">
-        <v>0</v>
+        <v>240.1382575886529</v>
       </c>
       <c r="Y43" t="n">
         <v>0</v>
@@ -25862,13 +25864,13 @@
         </is>
       </c>
       <c r="B44" t="n">
-        <v>415.6498806486147</v>
+        <v>0</v>
       </c>
       <c r="C44" t="n">
-        <v>422.6317226868329</v>
+        <v>0</v>
       </c>
       <c r="D44" t="n">
-        <v>419.0596946068497</v>
+        <v>0</v>
       </c>
       <c r="E44" t="n">
         <v>0</v>
@@ -25877,13 +25879,13 @@
         <v>0</v>
       </c>
       <c r="G44" t="n">
-        <v>400.2956717864458</v>
+        <v>0</v>
       </c>
       <c r="H44" t="n">
-        <v>0</v>
+        <v>107.9720312369327</v>
       </c>
       <c r="I44" t="n">
-        <v>34.5479025439635</v>
+        <v>0</v>
       </c>
       <c r="J44" t="n">
         <v>0</v>
@@ -25913,7 +25915,7 @@
         <v>0</v>
       </c>
       <c r="S44" t="n">
-        <v>103.323621185591</v>
+        <v>0</v>
       </c>
       <c r="T44" t="n">
         <v>0</v>
@@ -25925,13 +25927,13 @@
         <v>0</v>
       </c>
       <c r="W44" t="n">
-        <v>124.6097641495934</v>
+        <v>0</v>
       </c>
       <c r="X44" t="n">
         <v>0</v>
       </c>
       <c r="Y44" t="n">
-        <v>401.2838973446586</v>
+        <v>0</v>
       </c>
     </row>
     <row r="45">
@@ -26023,25 +26025,25 @@
         <v>0</v>
       </c>
       <c r="C46" t="n">
-        <v>0</v>
+        <v>170.2528374898731</v>
       </c>
       <c r="D46" t="n">
         <v>0</v>
       </c>
       <c r="E46" t="n">
-        <v>0</v>
+        <v>104.3914540390049</v>
       </c>
       <c r="F46" t="n">
-        <v>0</v>
+        <v>170.1431564831852</v>
       </c>
       <c r="G46" t="n">
-        <v>0</v>
+        <v>164.5944000087102</v>
       </c>
       <c r="H46" t="n">
-        <v>0</v>
+        <v>142.3583058069271</v>
       </c>
       <c r="I46" t="n">
-        <v>0</v>
+        <v>98.77088257712678</v>
       </c>
       <c r="J46" t="n">
         <v>0</v>
@@ -26068,13 +26070,13 @@
         <v>0</v>
       </c>
       <c r="R46" t="n">
-        <v>46.56822717969858</v>
+        <v>0</v>
       </c>
       <c r="S46" t="n">
         <v>0</v>
       </c>
       <c r="T46" t="n">
-        <v>240.905954296359</v>
+        <v>0</v>
       </c>
       <c r="U46" t="n">
         <v>0</v>
@@ -26083,13 +26085,13 @@
         <v>0</v>
       </c>
       <c r="W46" t="n">
-        <v>272.1038797892121</v>
+        <v>0</v>
       </c>
       <c r="X46" t="n">
-        <v>240.1382575886529</v>
+        <v>0</v>
       </c>
       <c r="Y46" t="n">
-        <v>50.79471755090449</v>
+        <v>0</v>
       </c>
     </row>
   </sheetData>
@@ -26123,7 +26125,7 @@
         <v>0</v>
       </c>
       <c r="B2" t="n">
-        <v>693658.9083710775</v>
+        <v>689738.6544594434</v>
       </c>
     </row>
     <row r="3">
@@ -26131,7 +26133,7 @@
         <v>1</v>
       </c>
       <c r="B3" t="n">
-        <v>693658.9083710775</v>
+        <v>689738.6544594434</v>
       </c>
     </row>
     <row r="4">
@@ -26139,7 +26141,7 @@
         <v>2</v>
       </c>
       <c r="B4" t="n">
-        <v>693658.9083710775</v>
+        <v>689738.6544594434</v>
       </c>
     </row>
     <row r="5">
@@ -26147,7 +26149,7 @@
         <v>3</v>
       </c>
       <c r="B5" t="n">
-        <v>462813.5474121465</v>
+        <v>679002.8538897434</v>
       </c>
     </row>
     <row r="6">
@@ -26155,7 +26157,7 @@
         <v>4</v>
       </c>
       <c r="B6" t="n">
-        <v>462813.5474121465</v>
+        <v>679002.8538897434</v>
       </c>
     </row>
     <row r="7">
@@ -26187,7 +26189,7 @@
         <v>8</v>
       </c>
       <c r="B10" t="n">
-        <v>689548.6571215645</v>
+        <v>689548.6571215644</v>
       </c>
     </row>
     <row r="11">
@@ -26211,7 +26213,7 @@
         <v>11</v>
       </c>
       <c r="B13" t="n">
-        <v>689548.6571215644</v>
+        <v>689548.6571215645</v>
       </c>
     </row>
     <row r="14">
@@ -26219,7 +26221,7 @@
         <v>12</v>
       </c>
       <c r="B14" t="n">
-        <v>689548.6571215644</v>
+        <v>689548.6571215645</v>
       </c>
     </row>
     <row r="15">
@@ -26227,7 +26229,7 @@
         <v>13</v>
       </c>
       <c r="B15" t="n">
-        <v>462813.5474121464</v>
+        <v>679002.8538897436</v>
       </c>
     </row>
     <row r="16">
@@ -26235,7 +26237,7 @@
         <v>14</v>
       </c>
       <c r="B16" t="n">
-        <v>462813.5474121463</v>
+        <v>679002.8538897436</v>
       </c>
     </row>
   </sheetData>
@@ -26314,31 +26316,31 @@
         <v>364026.667506977</v>
       </c>
       <c r="C2" t="n">
-        <v>364026.667506977</v>
+        <v>364026.6675069771</v>
       </c>
       <c r="D2" t="n">
-        <v>364026.6675069771</v>
+        <v>364026.6675069772</v>
       </c>
       <c r="E2" t="n">
-        <v>235779.2447520152</v>
+        <v>345897.3934068672</v>
       </c>
       <c r="F2" t="n">
-        <v>235779.2447520152</v>
+        <v>345897.3934068672</v>
       </c>
       <c r="G2" t="n">
-        <v>351269.0019609047</v>
+        <v>351269.0019609046</v>
       </c>
       <c r="H2" t="n">
         <v>351269.0019609047</v>
       </c>
       <c r="I2" t="n">
-        <v>351269.0019609048</v>
+        <v>351269.0019609045</v>
       </c>
       <c r="J2" t="n">
-        <v>351269.0019609045</v>
+        <v>351269.0019609046</v>
       </c>
       <c r="K2" t="n">
-        <v>351269.0019609046</v>
+        <v>351269.0019609047</v>
       </c>
       <c r="L2" t="n">
         <v>351269.0019609046</v>
@@ -26347,13 +26349,13 @@
         <v>351269.0019609046</v>
       </c>
       <c r="N2" t="n">
-        <v>351269.0019609046</v>
+        <v>351269.0019609047</v>
       </c>
       <c r="O2" t="n">
-        <v>235779.2447520151</v>
+        <v>345897.3934068672</v>
       </c>
       <c r="P2" t="n">
-        <v>235779.2447520152</v>
+        <v>345897.3934068672</v>
       </c>
     </row>
     <row r="3">
@@ -26363,7 +26365,7 @@
         </is>
       </c>
       <c r="B3" t="n">
-        <v>228087.303763684</v>
+        <v>186404.7334147372</v>
       </c>
       <c r="C3" t="n">
         <v>0</v>
@@ -26372,13 +26374,13 @@
         <v>0</v>
       </c>
       <c r="E3" t="n">
-        <v>0</v>
+        <v>207432.2876165609</v>
       </c>
       <c r="F3" t="n">
         <v>0</v>
       </c>
       <c r="G3" t="n">
-        <v>163951.1208101861</v>
+        <v>7625.622083481478</v>
       </c>
       <c r="H3" t="n">
         <v>0</v>
@@ -26387,7 +26389,7 @@
         <v>0</v>
       </c>
       <c r="J3" t="n">
-        <v>178076.9284887798</v>
+        <v>145533.6699348165</v>
       </c>
       <c r="K3" t="n">
         <v>0</v>
@@ -26396,7 +26398,7 @@
         <v>0</v>
       </c>
       <c r="M3" t="n">
-        <v>0</v>
+        <v>173130.4912056396</v>
       </c>
       <c r="N3" t="n">
         <v>0</v>
@@ -26415,19 +26417,19 @@
         </is>
       </c>
       <c r="B4" t="n">
-        <v>156047.2142134704</v>
+        <v>173998.4022791778</v>
       </c>
       <c r="C4" t="n">
-        <v>156047.2142134704</v>
+        <v>173998.4022791778</v>
       </c>
       <c r="D4" t="n">
-        <v>156047.2142134704</v>
+        <v>173998.4022791778</v>
       </c>
       <c r="E4" t="n">
-        <v>38928.16391746106</v>
+        <v>57174.45239980773</v>
       </c>
       <c r="F4" t="n">
-        <v>38928.16391746107</v>
+        <v>57174.45239980773</v>
       </c>
       <c r="G4" t="n">
         <v>58064.51385187964</v>
@@ -26454,10 +26456,10 @@
         <v>58064.51385187964</v>
       </c>
       <c r="O4" t="n">
-        <v>38928.16391746108</v>
+        <v>57174.45239980773</v>
       </c>
       <c r="P4" t="n">
-        <v>38928.16391746106</v>
+        <v>57174.45239980773</v>
       </c>
     </row>
     <row r="5">
@@ -26467,19 +26469,19 @@
         </is>
       </c>
       <c r="B5" t="n">
-        <v>75008.54988655505</v>
+        <v>67446.25103742813</v>
       </c>
       <c r="C5" t="n">
-        <v>75008.54988655505</v>
+        <v>67446.25103742813</v>
       </c>
       <c r="D5" t="n">
-        <v>75008.54988655505</v>
+        <v>67446.25103742813</v>
       </c>
       <c r="E5" t="n">
-        <v>41380.94988655505</v>
+        <v>76058.47810803246</v>
       </c>
       <c r="F5" t="n">
-        <v>41380.94988655505</v>
+        <v>76058.47810803246</v>
       </c>
       <c r="G5" t="n">
         <v>77750.06218842969</v>
@@ -26506,10 +26508,10 @@
         <v>77750.06218842969</v>
       </c>
       <c r="O5" t="n">
-        <v>41380.94988655505</v>
+        <v>76058.47810803246</v>
       </c>
       <c r="P5" t="n">
-        <v>41380.94988655505</v>
+        <v>76058.47810803246</v>
       </c>
     </row>
     <row r="6">
@@ -26519,49 +26521,49 @@
         </is>
       </c>
       <c r="B6" t="n">
-        <v>-95116.40035673247</v>
+        <v>-63822.71922436616</v>
       </c>
       <c r="C6" t="n">
-        <v>132970.9034069515</v>
+        <v>122582.0141903711</v>
       </c>
       <c r="D6" t="n">
-        <v>132970.9034069516</v>
+        <v>122582.0141903712</v>
       </c>
       <c r="E6" t="n">
-        <v>155470.1309479991</v>
+        <v>5232.175282466051</v>
       </c>
       <c r="F6" t="n">
-        <v>155470.130947999</v>
+        <v>212664.462899027</v>
       </c>
       <c r="G6" t="n">
-        <v>51503.30511040938</v>
+        <v>207828.8038371138</v>
       </c>
       <c r="H6" t="n">
         <v>215454.4259205954</v>
       </c>
       <c r="I6" t="n">
-        <v>215454.4259205955</v>
+        <v>215454.4259205952</v>
       </c>
       <c r="J6" t="n">
-        <v>37377.4974318154</v>
+        <v>69920.75598577876</v>
       </c>
       <c r="K6" t="n">
+        <v>215454.4259205954</v>
+      </c>
+      <c r="L6" t="n">
         <v>215454.4259205953</v>
       </c>
-      <c r="L6" t="n">
-        <v>215454.4259205952</v>
-      </c>
       <c r="M6" t="n">
-        <v>215454.4259205952</v>
+        <v>42323.9347149557</v>
       </c>
       <c r="N6" t="n">
-        <v>215454.4259205953</v>
+        <v>215454.4259205954</v>
       </c>
       <c r="O6" t="n">
-        <v>155470.130947999</v>
+        <v>212664.462899027</v>
       </c>
       <c r="P6" t="n">
-        <v>155470.130947999</v>
+        <v>212664.462899027</v>
       </c>
     </row>
   </sheetData>
@@ -26787,19 +26789,19 @@
         </is>
       </c>
       <c r="B4" t="n">
-        <v>680.607728397287</v>
+        <v>556.2278131155941</v>
       </c>
       <c r="C4" t="n">
-        <v>680.607728397287</v>
+        <v>556.2278131155941</v>
       </c>
       <c r="D4" t="n">
-        <v>680.607728397287</v>
+        <v>556.2278131155941</v>
       </c>
       <c r="E4" t="n">
-        <v>680.607728397287</v>
+        <v>1250.961810987376</v>
       </c>
       <c r="F4" t="n">
-        <v>680.607728397287</v>
+        <v>1250.961810987376</v>
       </c>
       <c r="G4" t="n">
         <v>1278.783917572857</v>
@@ -26826,10 +26828,10 @@
         <v>1278.783917572857</v>
       </c>
       <c r="O4" t="n">
-        <v>680.607728397287</v>
+        <v>1250.961810987376</v>
       </c>
       <c r="P4" t="n">
-        <v>680.607728397287</v>
+        <v>1250.961810987376</v>
       </c>
     </row>
   </sheetData>
@@ -27009,7 +27011,7 @@
         </is>
       </c>
       <c r="B4" t="n">
-        <v>680.607728397287</v>
+        <v>556.2278131155941</v>
       </c>
       <c r="C4" t="n">
         <v>0</v>
@@ -27018,13 +27020,13 @@
         <v>0</v>
       </c>
       <c r="E4" t="n">
-        <v>0</v>
+        <v>694.733997871782</v>
       </c>
       <c r="F4" t="n">
         <v>0</v>
       </c>
       <c r="G4" t="n">
-        <v>598.1761891755698</v>
+        <v>27.8221065854807</v>
       </c>
       <c r="H4" t="n">
         <v>0</v>
@@ -27033,7 +27035,7 @@
         <v>0</v>
       </c>
       <c r="J4" t="n">
-        <v>680.6077283972871</v>
+        <v>556.2278131155941</v>
       </c>
       <c r="K4" t="n">
         <v>0</v>
@@ -27042,7 +27044,7 @@
         <v>0</v>
       </c>
       <c r="M4" t="n">
-        <v>0</v>
+        <v>694.733997871782</v>
       </c>
       <c r="N4" t="n">
         <v>0</v>
@@ -27255,7 +27257,7 @@
         <v>0</v>
       </c>
       <c r="J4" t="n">
-        <v>680.607728397287</v>
+        <v>556.2278131155941</v>
       </c>
       <c r="K4" t="n">
         <v>0</v>
@@ -27264,13 +27266,13 @@
         <v>0</v>
       </c>
       <c r="M4" t="n">
-        <v>0</v>
+        <v>694.733997871782</v>
       </c>
       <c r="N4" t="n">
         <v>0</v>
       </c>
       <c r="O4" t="n">
-        <v>598.1761891755698</v>
+        <v>27.8221065854807</v>
       </c>
       <c r="P4" t="n">
         <v>0</v>
@@ -27376,7 +27378,7 @@
         </is>
       </c>
       <c r="B2" t="n">
-        <v>38.65545589637804</v>
+        <v>400</v>
       </c>
       <c r="C2" t="n">
         <v>0</v>
@@ -27388,13 +27390,13 @@
         <v>400</v>
       </c>
       <c r="F2" t="n">
-        <v>400</v>
+        <v>0</v>
       </c>
       <c r="G2" t="n">
-        <v>400</v>
+        <v>0</v>
       </c>
       <c r="H2" t="n">
-        <v>0</v>
+        <v>294.8896947407055</v>
       </c>
       <c r="I2" t="n">
         <v>34.5479025439635</v>
@@ -27427,10 +27429,10 @@
         <v>0</v>
       </c>
       <c r="S2" t="n">
-        <v>0</v>
+        <v>103.323621185591</v>
       </c>
       <c r="T2" t="n">
-        <v>0</v>
+        <v>218.7163152458132</v>
       </c>
       <c r="U2" t="n">
         <v>255.7713603095518</v>
@@ -27445,7 +27447,7 @@
         <v>0</v>
       </c>
       <c r="Y2" t="n">
-        <v>0</v>
+        <v>304.4193999494622</v>
       </c>
     </row>
     <row r="3">
@@ -27534,13 +27536,13 @@
         </is>
       </c>
       <c r="B4" t="n">
-        <v>0</v>
+        <v>188.264309024945</v>
       </c>
       <c r="C4" t="n">
         <v>170.2528374898731</v>
       </c>
       <c r="D4" t="n">
-        <v>161.683605144497</v>
+        <v>0</v>
       </c>
       <c r="E4" t="n">
         <v>0</v>
@@ -27552,10 +27554,10 @@
         <v>0</v>
       </c>
       <c r="H4" t="n">
-        <v>142.3583058069271</v>
+        <v>0</v>
       </c>
       <c r="I4" t="n">
-        <v>98.77088257712678</v>
+        <v>0</v>
       </c>
       <c r="J4" t="n">
         <v>0</v>
@@ -27588,10 +27590,10 @@
         <v>168.4336970060565</v>
       </c>
       <c r="T4" t="n">
-        <v>62.44348120064811</v>
+        <v>0</v>
       </c>
       <c r="U4" t="n">
-        <v>0</v>
+        <v>276.9919657042533</v>
       </c>
       <c r="V4" t="n">
         <v>0</v>
@@ -27622,10 +27624,10 @@
         <v>0</v>
       </c>
       <c r="E5" t="n">
+        <v>0</v>
+      </c>
+      <c r="F5" t="n">
         <v>400</v>
-      </c>
-      <c r="F5" t="n">
-        <v>0</v>
       </c>
       <c r="G5" t="n">
         <v>400</v>
@@ -27634,7 +27636,7 @@
         <v>0</v>
       </c>
       <c r="I5" t="n">
-        <v>0</v>
+        <v>34.5479025439635</v>
       </c>
       <c r="J5" t="n">
         <v>0</v>
@@ -27664,7 +27666,7 @@
         <v>0</v>
       </c>
       <c r="S5" t="n">
-        <v>0</v>
+        <v>103.323621185591</v>
       </c>
       <c r="T5" t="n">
         <v>218.7163152458132</v>
@@ -27679,10 +27681,10 @@
         <v>392.4274362026566</v>
       </c>
       <c r="X5" t="n">
-        <v>300.5725224695153</v>
+        <v>245.3945739651546</v>
       </c>
       <c r="Y5" t="n">
-        <v>0</v>
+        <v>400</v>
       </c>
     </row>
     <row r="6">
@@ -27777,7 +27779,7 @@
         <v>0</v>
       </c>
       <c r="D7" t="n">
-        <v>161.683605144497</v>
+        <v>0</v>
       </c>
       <c r="E7" t="n">
         <v>0</v>
@@ -27786,10 +27788,10 @@
         <v>0</v>
       </c>
       <c r="G7" t="n">
-        <v>137.8971708586937</v>
+        <v>0</v>
       </c>
       <c r="H7" t="n">
-        <v>142.3583058069271</v>
+        <v>0</v>
       </c>
       <c r="I7" t="n">
         <v>0</v>
@@ -27819,7 +27821,7 @@
         <v>0</v>
       </c>
       <c r="R7" t="n">
-        <v>0</v>
+        <v>46.56822717969858</v>
       </c>
       <c r="S7" t="n">
         <v>168.4336970060565</v>
@@ -27828,16 +27830,16 @@
         <v>0</v>
       </c>
       <c r="U7" t="n">
-        <v>0</v>
+        <v>277.3826040146988</v>
       </c>
       <c r="V7" t="n">
         <v>0</v>
       </c>
       <c r="W7" t="n">
-        <v>0</v>
+        <v>272.1038797892121</v>
       </c>
       <c r="X7" t="n">
-        <v>240.1382575886529</v>
+        <v>86.02262841516162</v>
       </c>
       <c r="Y7" t="n">
         <v>0</v>
@@ -27850,25 +27852,25 @@
         </is>
       </c>
       <c r="B8" t="n">
-        <v>400</v>
+        <v>0</v>
       </c>
       <c r="C8" t="n">
         <v>400</v>
       </c>
       <c r="D8" t="n">
-        <v>292.9999586721718</v>
+        <v>0</v>
       </c>
       <c r="E8" t="n">
         <v>0</v>
       </c>
       <c r="F8" t="n">
-        <v>0</v>
+        <v>400</v>
       </c>
       <c r="G8" t="n">
         <v>0</v>
       </c>
       <c r="H8" t="n">
-        <v>0</v>
+        <v>279.9424765091179</v>
       </c>
       <c r="I8" t="n">
         <v>0</v>
@@ -27901,7 +27903,7 @@
         <v>0</v>
       </c>
       <c r="S8" t="n">
-        <v>0</v>
+        <v>103.323621185591</v>
       </c>
       <c r="T8" t="n">
         <v>218.7163152458132</v>
@@ -27913,13 +27915,13 @@
         <v>353.914520725013</v>
       </c>
       <c r="W8" t="n">
-        <v>0</v>
+        <v>392.4274362026566</v>
       </c>
       <c r="X8" t="n">
-        <v>0</v>
+        <v>400</v>
       </c>
       <c r="Y8" t="n">
-        <v>400</v>
+        <v>0</v>
       </c>
     </row>
     <row r="9">
@@ -28011,25 +28013,25 @@
         <v>188.264309024945</v>
       </c>
       <c r="C10" t="n">
-        <v>0</v>
+        <v>170.2528374898731</v>
       </c>
       <c r="D10" t="n">
-        <v>0</v>
+        <v>161.683605144497</v>
       </c>
       <c r="E10" t="n">
-        <v>86.37998250393284</v>
+        <v>164.546123788675</v>
       </c>
       <c r="F10" t="n">
-        <v>170.1431564831852</v>
+        <v>165.7641609568373</v>
       </c>
       <c r="G10" t="n">
-        <v>164.5944000087102</v>
+        <v>0</v>
       </c>
       <c r="H10" t="n">
-        <v>142.3583058069271</v>
+        <v>0</v>
       </c>
       <c r="I10" t="n">
-        <v>98.77088257712678</v>
+        <v>0</v>
       </c>
       <c r="J10" t="n">
         <v>0</v>
@@ -34696,31 +34698,31 @@
         <v>0</v>
       </c>
       <c r="J2" t="n">
-        <v>366.2661200170662</v>
+        <v>0</v>
       </c>
       <c r="K2" t="n">
-        <v>0</v>
+        <v>533.7539620806207</v>
       </c>
       <c r="L2" t="n">
-        <v>0</v>
+        <v>556.2278131155941</v>
       </c>
       <c r="M2" t="n">
-        <v>680.607728397287</v>
+        <v>556.2278131155941</v>
       </c>
       <c r="N2" t="n">
-        <v>388.01385847248</v>
+        <v>556.2278131155941</v>
       </c>
       <c r="O2" t="n">
         <v>0</v>
       </c>
       <c r="P2" t="n">
-        <v>680.607728397287</v>
+        <v>0</v>
       </c>
       <c r="Q2" t="n">
-        <v>460.6924035395789</v>
+        <v>0</v>
       </c>
       <c r="R2" t="n">
-        <v>118.7437726079824</v>
+        <v>0</v>
       </c>
       <c r="S2" t="n">
         <v>0</v>
@@ -34781,22 +34783,22 @@
         <v>0</v>
       </c>
       <c r="L3" t="n">
-        <v>0</v>
+        <v>158.2737632597931</v>
       </c>
       <c r="M3" t="n">
-        <v>677.5156591963801</v>
+        <v>0</v>
       </c>
       <c r="N3" t="n">
-        <v>680.607728397287</v>
+        <v>556.2278131155941</v>
       </c>
       <c r="O3" t="n">
-        <v>0</v>
+        <v>556.2278131155941</v>
       </c>
       <c r="P3" t="n">
-        <v>0</v>
+        <v>556.2278131155941</v>
       </c>
       <c r="Q3" t="n">
-        <v>468.8338150129084</v>
+        <v>0</v>
       </c>
       <c r="R3" t="n">
         <v>0</v>
@@ -34939,25 +34941,25 @@
         <v>0</v>
       </c>
       <c r="L5" t="n">
-        <v>0</v>
+        <v>556.2278131155941</v>
       </c>
       <c r="M5" t="n">
-        <v>534.3646536318382</v>
+        <v>0</v>
       </c>
       <c r="N5" t="n">
-        <v>680.607728397287</v>
+        <v>556.2278131155941</v>
       </c>
       <c r="O5" t="n">
-        <v>680.607728397287</v>
+        <v>556.2278131155941</v>
       </c>
       <c r="P5" t="n">
-        <v>680.607728397287</v>
+        <v>73.06155854104179</v>
       </c>
       <c r="Q5" t="n">
-        <v>0</v>
+        <v>460.6924035395789</v>
       </c>
       <c r="R5" t="n">
-        <v>118.7437726079824</v>
+        <v>0</v>
       </c>
       <c r="S5" t="n">
         <v>0</v>
@@ -35012,28 +35014,28 @@
         <v>0</v>
       </c>
       <c r="J6" t="n">
-        <v>0</v>
+        <v>274.4419083632233</v>
       </c>
       <c r="K6" t="n">
-        <v>596.4494207761006</v>
+        <v>0</v>
       </c>
       <c r="L6" t="n">
-        <v>0</v>
+        <v>556.2278131155941</v>
       </c>
       <c r="M6" t="n">
-        <v>81.06623842027952</v>
+        <v>0</v>
       </c>
       <c r="N6" t="n">
         <v>0</v>
       </c>
       <c r="O6" t="n">
-        <v>680.607728397287</v>
+        <v>556.2278131155941</v>
       </c>
       <c r="P6" t="n">
-        <v>0</v>
+        <v>440.0596680121639</v>
       </c>
       <c r="Q6" t="n">
-        <v>468.8338150129084</v>
+        <v>0</v>
       </c>
       <c r="R6" t="n">
         <v>0</v>
@@ -35170,19 +35172,19 @@
         <v>0</v>
       </c>
       <c r="J8" t="n">
-        <v>366.2661200170662</v>
+        <v>0</v>
       </c>
       <c r="K8" t="n">
-        <v>680.607728397287</v>
+        <v>0</v>
       </c>
       <c r="L8" t="n">
-        <v>168.098533614772</v>
+        <v>510.5455990486533</v>
       </c>
       <c r="M8" t="n">
-        <v>680.607728397287</v>
+        <v>556.2278131155941</v>
       </c>
       <c r="N8" t="n">
-        <v>680.607728397287</v>
+        <v>556.2278131155941</v>
       </c>
       <c r="O8" t="n">
         <v>0</v>
@@ -35191,7 +35193,7 @@
         <v>0</v>
       </c>
       <c r="Q8" t="n">
-        <v>0</v>
+        <v>460.6924035395789</v>
       </c>
       <c r="R8" t="n">
         <v>118.7437726079824</v>
@@ -35249,31 +35251,31 @@
         <v>0</v>
       </c>
       <c r="J9" t="n">
-        <v>274.4419083632233</v>
+        <v>0</v>
       </c>
       <c r="K9" t="n">
-        <v>596.4494207761006</v>
+        <v>75.42597529544646</v>
       </c>
       <c r="L9" t="n">
-        <v>487.2320584543432</v>
+        <v>556.2278131155941</v>
       </c>
       <c r="M9" t="n">
-        <v>0</v>
+        <v>556.2278131155941</v>
       </c>
       <c r="N9" t="n">
         <v>0</v>
       </c>
       <c r="O9" t="n">
-        <v>0</v>
+        <v>556.2278131155941</v>
       </c>
       <c r="P9" t="n">
         <v>0</v>
       </c>
       <c r="Q9" t="n">
-        <v>468.8338150129084</v>
+        <v>0</v>
       </c>
       <c r="R9" t="n">
-        <v>0</v>
+        <v>82.84778796434657</v>
       </c>
       <c r="S9" t="n">
         <v>0</v>
@@ -35407,28 +35409,28 @@
         <v>0</v>
       </c>
       <c r="J11" t="n">
-        <v>0</v>
+        <v>366.2661200170662</v>
       </c>
       <c r="K11" t="n">
-        <v>680.607728397287</v>
+        <v>675.0541895917861</v>
       </c>
       <c r="L11" t="n">
-        <v>73.6722500922592</v>
+        <v>939.015199615431</v>
       </c>
       <c r="M11" t="n">
-        <v>680.607728397287</v>
+        <v>1014.430405473796</v>
       </c>
       <c r="N11" t="n">
-        <v>680.607728397287</v>
+        <v>986.1121802895968</v>
       </c>
       <c r="O11" t="n">
-        <v>0</v>
+        <v>853.6814647988001</v>
       </c>
       <c r="P11" t="n">
         <v>0</v>
       </c>
       <c r="Q11" t="n">
-        <v>460.6924035395789</v>
+        <v>0</v>
       </c>
       <c r="R11" t="n">
         <v>118.7437726079824</v>
@@ -35492,19 +35494,19 @@
         <v>0</v>
       </c>
       <c r="L12" t="n">
-        <v>465.7417458120015</v>
+        <v>205.0592278086263</v>
       </c>
       <c r="M12" t="n">
-        <v>680.607728397287</v>
+        <v>0</v>
       </c>
       <c r="N12" t="n">
-        <v>680.607728397287</v>
+        <v>0</v>
       </c>
       <c r="O12" t="n">
-        <v>0</v>
+        <v>898.4659373853249</v>
       </c>
       <c r="P12" t="n">
-        <v>0</v>
+        <v>723.4320374126243</v>
       </c>
       <c r="Q12" t="n">
         <v>0</v>
@@ -35644,28 +35646,28 @@
         <v>0</v>
       </c>
       <c r="J14" t="n">
-        <v>0</v>
+        <v>366.2661200170662</v>
       </c>
       <c r="K14" t="n">
-        <v>680.607728397287</v>
+        <v>0</v>
       </c>
       <c r="L14" t="n">
-        <v>680.607728397287</v>
+        <v>939.015199615431</v>
       </c>
       <c r="M14" t="n">
-        <v>534.3646536318383</v>
+        <v>1014.430405473796</v>
       </c>
       <c r="N14" t="n">
-        <v>680.607728397287</v>
+        <v>986.1121802895968</v>
       </c>
       <c r="O14" t="n">
-        <v>0</v>
+        <v>853.6814647988001</v>
       </c>
       <c r="P14" t="n">
-        <v>0</v>
+        <v>214.3617860522075</v>
       </c>
       <c r="Q14" t="n">
-        <v>0</v>
+        <v>460.6924035395789</v>
       </c>
       <c r="R14" t="n">
         <v>118.7437726079824</v>
@@ -35729,22 +35731,22 @@
         <v>0</v>
       </c>
       <c r="L15" t="n">
-        <v>680.607728397287</v>
+        <v>0</v>
       </c>
       <c r="M15" t="n">
-        <v>0</v>
+        <v>1066.653068662672</v>
       </c>
       <c r="N15" t="n">
-        <v>0</v>
+        <v>760.3041339439036</v>
       </c>
       <c r="O15" t="n">
         <v>0</v>
       </c>
       <c r="P15" t="n">
-        <v>677.5156591963801</v>
+        <v>0</v>
       </c>
       <c r="Q15" t="n">
-        <v>468.8338150129084</v>
+        <v>0</v>
       </c>
       <c r="R15" t="n">
         <v>0</v>
@@ -35881,10 +35883,10 @@
         <v>0</v>
       </c>
       <c r="J17" t="n">
-        <v>0</v>
+        <v>366.2661200170662</v>
       </c>
       <c r="K17" t="n">
-        <v>722.7356646217162</v>
+        <v>0</v>
       </c>
       <c r="L17" t="n">
         <v>939.015199615431</v>
@@ -35899,13 +35901,13 @@
         <v>853.6814647988001</v>
       </c>
       <c r="P17" t="n">
-        <v>547.4927184184359</v>
+        <v>715.433615311038</v>
       </c>
       <c r="Q17" t="n">
-        <v>0</v>
+        <v>69.78487510406572</v>
       </c>
       <c r="R17" t="n">
-        <v>0</v>
+        <v>118.7437726079824</v>
       </c>
       <c r="S17" t="n">
         <v>0</v>
@@ -35966,25 +35968,25 @@
         <v>0</v>
       </c>
       <c r="L18" t="n">
-        <v>845.2513212958648</v>
+        <v>0</v>
       </c>
       <c r="M18" t="n">
-        <v>0</v>
+        <v>726.6390748562019</v>
       </c>
       <c r="N18" t="n">
-        <v>0</v>
+        <v>1100.318127750374</v>
       </c>
       <c r="O18" t="n">
-        <v>898.4659373853249</v>
+        <v>0</v>
       </c>
       <c r="P18" t="n">
-        <v>0.3921559610390808</v>
+        <v>0</v>
       </c>
       <c r="Q18" t="n">
         <v>0</v>
       </c>
       <c r="R18" t="n">
-        <v>82.84778796434657</v>
+        <v>0</v>
       </c>
       <c r="S18" t="n">
         <v>0</v>
@@ -36194,34 +36196,34 @@
         <v>0</v>
       </c>
       <c r="I21" t="n">
-        <v>7.521861577688728</v>
+        <v>0</v>
       </c>
       <c r="J21" t="n">
-        <v>274.4419083632233</v>
+        <v>0</v>
       </c>
       <c r="K21" t="n">
-        <v>596.4494207761006</v>
+        <v>0</v>
       </c>
       <c r="L21" t="n">
-        <v>142.264186512592</v>
+        <v>0</v>
       </c>
       <c r="M21" t="n">
-        <v>0</v>
+        <v>1066.653068662672</v>
       </c>
       <c r="N21" t="n">
-        <v>0</v>
+        <v>760.3041339439036</v>
       </c>
       <c r="O21" t="n">
         <v>0</v>
       </c>
       <c r="P21" t="n">
-        <v>723.4320374126243</v>
+        <v>0</v>
       </c>
       <c r="Q21" t="n">
         <v>0</v>
       </c>
       <c r="R21" t="n">
-        <v>82.84778796434657</v>
+        <v>0</v>
       </c>
       <c r="S21" t="n">
         <v>0</v>
@@ -36355,7 +36357,7 @@
         <v>0</v>
       </c>
       <c r="J23" t="n">
-        <v>366.2661200170662</v>
+        <v>0</v>
       </c>
       <c r="K23" t="n">
         <v>722.7356646217162</v>
@@ -36367,16 +36369,16 @@
         <v>1014.430405473796</v>
       </c>
       <c r="N23" t="n">
-        <v>0</v>
+        <v>986.1121802895968</v>
       </c>
       <c r="O23" t="n">
-        <v>726.1504520311679</v>
+        <v>853.6814647988001</v>
       </c>
       <c r="P23" t="n">
-        <v>715.433615311038</v>
+        <v>428.7489458104537</v>
       </c>
       <c r="Q23" t="n">
-        <v>460.6924035395789</v>
+        <v>0</v>
       </c>
       <c r="R23" t="n">
         <v>118.7437726079824</v>
@@ -36431,34 +36433,34 @@
         <v>0</v>
       </c>
       <c r="I24" t="n">
-        <v>7.521861577688728</v>
+        <v>0</v>
       </c>
       <c r="J24" t="n">
         <v>0</v>
       </c>
       <c r="K24" t="n">
-        <v>596.4494207761006</v>
+        <v>0</v>
       </c>
       <c r="L24" t="n">
         <v>0</v>
       </c>
       <c r="M24" t="n">
-        <v>0</v>
+        <v>1066.653068662672</v>
       </c>
       <c r="N24" t="n">
-        <v>0</v>
+        <v>760.3041339439036</v>
       </c>
       <c r="O24" t="n">
         <v>0</v>
       </c>
       <c r="P24" t="n">
-        <v>723.4320374126243</v>
+        <v>0</v>
       </c>
       <c r="Q24" t="n">
-        <v>416.7060948758143</v>
+        <v>0</v>
       </c>
       <c r="R24" t="n">
-        <v>82.84778796434657</v>
+        <v>0</v>
       </c>
       <c r="S24" t="n">
         <v>0</v>
@@ -36674,25 +36676,25 @@
         <v>0</v>
       </c>
       <c r="K27" t="n">
-        <v>596.4494207761006</v>
+        <v>0</v>
       </c>
       <c r="L27" t="n">
         <v>0</v>
       </c>
       <c r="M27" t="n">
-        <v>0</v>
+        <v>928.4912652212506</v>
       </c>
       <c r="N27" t="n">
         <v>0</v>
       </c>
       <c r="O27" t="n">
-        <v>38.24192940494229</v>
+        <v>898.4659373853249</v>
       </c>
       <c r="P27" t="n">
-        <v>723.4320374126243</v>
+        <v>0</v>
       </c>
       <c r="Q27" t="n">
-        <v>468.8338150129084</v>
+        <v>0</v>
       </c>
       <c r="R27" t="n">
         <v>0</v>
@@ -36829,7 +36831,7 @@
         <v>0</v>
       </c>
       <c r="J29" t="n">
-        <v>366.2661200170662</v>
+        <v>0</v>
       </c>
       <c r="K29" t="n">
         <v>722.7356646217162</v>
@@ -36841,16 +36843,16 @@
         <v>1014.430405473796</v>
       </c>
       <c r="N29" t="n">
-        <v>986.1121802895968</v>
+        <v>818.1712833969947</v>
       </c>
       <c r="O29" t="n">
-        <v>0</v>
+        <v>853.6814647988001</v>
       </c>
       <c r="P29" t="n">
-        <v>574.2156596605913</v>
+        <v>715.433615311038</v>
       </c>
       <c r="Q29" t="n">
-        <v>460.6924035395789</v>
+        <v>0</v>
       </c>
       <c r="R29" t="n">
         <v>0</v>
@@ -36914,7 +36916,7 @@
         <v>0</v>
       </c>
       <c r="L30" t="n">
-        <v>0</v>
+        <v>845.2513212958648</v>
       </c>
       <c r="M30" t="n">
         <v>0</v>
@@ -36923,13 +36925,13 @@
         <v>0</v>
       </c>
       <c r="O30" t="n">
-        <v>634.6913501810418</v>
+        <v>898.4659373853249</v>
       </c>
       <c r="P30" t="n">
-        <v>723.4320374126243</v>
+        <v>83.23994392538575</v>
       </c>
       <c r="Q30" t="n">
-        <v>468.8338150129084</v>
+        <v>0</v>
       </c>
       <c r="R30" t="n">
         <v>0</v>
@@ -37066,13 +37068,13 @@
         <v>0</v>
       </c>
       <c r="J32" t="n">
-        <v>0</v>
+        <v>366.2661200170662</v>
       </c>
       <c r="K32" t="n">
-        <v>0</v>
+        <v>666.8514437878999</v>
       </c>
       <c r="L32" t="n">
-        <v>939.015199615431</v>
+        <v>0</v>
       </c>
       <c r="M32" t="n">
         <v>1014.430405473796</v>
@@ -37087,10 +37089,10 @@
         <v>715.433615311038</v>
       </c>
       <c r="Q32" t="n">
-        <v>436.0509951211323</v>
+        <v>460.6924035395789</v>
       </c>
       <c r="R32" t="n">
-        <v>118.7437726079824</v>
+        <v>0</v>
       </c>
       <c r="S32" t="n">
         <v>0</v>
@@ -37151,19 +37153,19 @@
         <v>0</v>
       </c>
       <c r="L33" t="n">
-        <v>0</v>
+        <v>205.0592278086264</v>
       </c>
       <c r="M33" t="n">
-        <v>726.6390748562019</v>
+        <v>0</v>
       </c>
       <c r="N33" t="n">
-        <v>1100.318127750374</v>
+        <v>0</v>
       </c>
       <c r="O33" t="n">
-        <v>0</v>
+        <v>898.4659373853249</v>
       </c>
       <c r="P33" t="n">
-        <v>0</v>
+        <v>723.4320374126243</v>
       </c>
       <c r="Q33" t="n">
         <v>0</v>
@@ -37303,7 +37305,7 @@
         <v>0</v>
       </c>
       <c r="J35" t="n">
-        <v>0</v>
+        <v>366.2661200170662</v>
       </c>
       <c r="K35" t="n">
         <v>722.7356646217162</v>
@@ -37318,13 +37320,13 @@
         <v>986.1121802895968</v>
       </c>
       <c r="O35" t="n">
-        <v>853.6814647988001</v>
+        <v>574.2156596605913</v>
       </c>
       <c r="P35" t="n">
-        <v>547.4927184184359</v>
+        <v>0</v>
       </c>
       <c r="Q35" t="n">
-        <v>0</v>
+        <v>460.6924035395789</v>
       </c>
       <c r="R35" t="n">
         <v>0</v>
@@ -37391,13 +37393,13 @@
         <v>0</v>
       </c>
       <c r="M36" t="n">
-        <v>726.6390748562006</v>
+        <v>1066.653068662672</v>
       </c>
       <c r="N36" t="n">
-        <v>1100.318127750374</v>
+        <v>0</v>
       </c>
       <c r="O36" t="n">
-        <v>0</v>
+        <v>760.3041339439036</v>
       </c>
       <c r="P36" t="n">
         <v>0</v>
@@ -37628,19 +37630,19 @@
         <v>0</v>
       </c>
       <c r="M39" t="n">
-        <v>0</v>
+        <v>726.6390748562019</v>
       </c>
       <c r="N39" t="n">
-        <v>0</v>
+        <v>1100.318127750374</v>
       </c>
       <c r="O39" t="n">
-        <v>898.4659373853249</v>
+        <v>0</v>
       </c>
       <c r="P39" t="n">
-        <v>723.4320374126243</v>
+        <v>0</v>
       </c>
       <c r="Q39" t="n">
-        <v>205.0592278086265</v>
+        <v>0</v>
       </c>
       <c r="R39" t="n">
         <v>0</v>
@@ -37777,31 +37779,31 @@
         <v>0</v>
       </c>
       <c r="J41" t="n">
-        <v>0</v>
+        <v>366.2661200170662</v>
       </c>
       <c r="K41" t="n">
-        <v>653.1084262398208</v>
+        <v>0</v>
       </c>
       <c r="L41" t="n">
-        <v>0</v>
+        <v>437.9433703566003</v>
       </c>
       <c r="M41" t="n">
-        <v>680.607728397287</v>
+        <v>1014.430405473796</v>
       </c>
       <c r="N41" t="n">
-        <v>680.607728397287</v>
+        <v>986.1121802895968</v>
       </c>
       <c r="O41" t="n">
-        <v>680.607728397287</v>
+        <v>853.6814647988001</v>
       </c>
       <c r="P41" t="n">
-        <v>0</v>
+        <v>715.433615311038</v>
       </c>
       <c r="Q41" t="n">
-        <v>0</v>
+        <v>460.6924035395789</v>
       </c>
       <c r="R41" t="n">
-        <v>0</v>
+        <v>118.7437726079824</v>
       </c>
       <c r="S41" t="n">
         <v>0</v>
@@ -37856,28 +37858,28 @@
         <v>0</v>
       </c>
       <c r="J42" t="n">
-        <v>0</v>
+        <v>274.4419083632233</v>
       </c>
       <c r="K42" t="n">
-        <v>596.4494207761006</v>
+        <v>17.02841056777188</v>
       </c>
       <c r="L42" t="n">
-        <v>549.900053433188</v>
+        <v>0</v>
       </c>
       <c r="M42" t="n">
-        <v>0</v>
+        <v>1066.653068662672</v>
       </c>
       <c r="N42" t="n">
         <v>0</v>
       </c>
       <c r="O42" t="n">
-        <v>680.607728397287</v>
+        <v>0</v>
       </c>
       <c r="P42" t="n">
         <v>0</v>
       </c>
       <c r="Q42" t="n">
-        <v>0</v>
+        <v>468.8338150129084</v>
       </c>
       <c r="R42" t="n">
         <v>0</v>
@@ -38017,25 +38019,25 @@
         <v>366.2661200170662</v>
       </c>
       <c r="K44" t="n">
-        <v>680.607728397287</v>
+        <v>0</v>
       </c>
       <c r="L44" t="n">
-        <v>680.607728397287</v>
+        <v>437.9433703566003</v>
       </c>
       <c r="M44" t="n">
-        <v>0</v>
+        <v>1014.430405473796</v>
       </c>
       <c r="N44" t="n">
-        <v>168.098533614772</v>
+        <v>986.1121802895968</v>
       </c>
       <c r="O44" t="n">
-        <v>680.607728397287</v>
+        <v>853.6814647988001</v>
       </c>
       <c r="P44" t="n">
-        <v>0</v>
+        <v>715.433615311038</v>
       </c>
       <c r="Q44" t="n">
-        <v>0</v>
+        <v>460.6924035395789</v>
       </c>
       <c r="R44" t="n">
         <v>118.7437726079824</v>
@@ -38102,19 +38104,19 @@
         <v>0</v>
       </c>
       <c r="M45" t="n">
-        <v>680.607728397287</v>
+        <v>726.6390748562019</v>
       </c>
       <c r="N45" t="n">
-        <v>0</v>
+        <v>1100.318127750374</v>
       </c>
       <c r="O45" t="n">
-        <v>680.607728397287</v>
+        <v>0</v>
       </c>
       <c r="P45" t="n">
         <v>0</v>
       </c>
       <c r="Q45" t="n">
-        <v>465.7417458120016</v>
+        <v>0</v>
       </c>
       <c r="R45" t="n">
         <v>0</v>

--- a/Outputs/3. Prosumer percentage/Grid Search/Output Files/90/Output_4_25.xlsx
+++ b/Outputs/3. Prosumer percentage/Grid Search/Output Files/90/Output_4_25.xlsx
@@ -471,7 +471,7 @@
         </is>
       </c>
       <c r="B3" t="n">
-        <v>0</v>
+        <v>0.001</v>
       </c>
     </row>
     <row r="4">
@@ -503,7 +503,7 @@
         </is>
       </c>
       <c r="B6" t="n">
-        <v>1091069.51263357</v>
+        <v>1090351.522518711</v>
       </c>
     </row>
     <row r="7">
@@ -513,7 +513,7 @@
         </is>
       </c>
       <c r="B7" t="n">
-        <v>11857191.11602538</v>
+        <v>11857191.11602537</v>
       </c>
     </row>
     <row r="8">
@@ -523,7 +523,7 @@
         </is>
       </c>
       <c r="B8" t="n">
-        <v>698313.6830760745</v>
+        <v>698313.6830760739</v>
       </c>
     </row>
     <row r="9">
@@ -661,7 +661,7 @@
         <v>15.64988064861473</v>
       </c>
       <c r="C2" t="n">
-        <v>422.6317226868329</v>
+        <v>22.63172268683286</v>
       </c>
       <c r="D2" t="n">
         <v>19.05969460684969</v>
@@ -670,13 +670,13 @@
         <v>21.71717045362101</v>
       </c>
       <c r="F2" t="n">
-        <v>420.8729399924937</v>
+        <v>20.87293999249374</v>
       </c>
       <c r="G2" t="n">
-        <v>400.2956717864458</v>
+        <v>0.2956717864458369</v>
       </c>
       <c r="H2" t="n">
-        <v>0</v>
+        <v>294.8896947407055</v>
       </c>
       <c r="I2" t="n">
         <v>0</v>
@@ -709,25 +709,25 @@
         <v>0</v>
       </c>
       <c r="S2" t="n">
-        <v>0</v>
+        <v>103.323621185591</v>
       </c>
       <c r="T2" t="n">
         <v>0</v>
       </c>
       <c r="U2" t="n">
-        <v>0</v>
+        <v>255.7713603095518</v>
       </c>
       <c r="V2" t="n">
         <v>353.914520725013</v>
       </c>
       <c r="W2" t="n">
-        <v>0</v>
+        <v>392.4274362026566</v>
       </c>
       <c r="X2" t="n">
         <v>407.6027988439302</v>
       </c>
       <c r="Y2" t="n">
-        <v>96.86449739519639</v>
+        <v>250.4523849566916</v>
       </c>
     </row>
     <row r="3">
@@ -816,13 +816,13 @@
         </is>
       </c>
       <c r="B4" t="n">
-        <v>0</v>
+        <v>188.264309024945</v>
       </c>
       <c r="C4" t="n">
         <v>0</v>
       </c>
       <c r="D4" t="n">
-        <v>161.683605144497</v>
+        <v>0</v>
       </c>
       <c r="E4" t="n">
         <v>164.546123788675</v>
@@ -867,16 +867,16 @@
         <v>0</v>
       </c>
       <c r="S4" t="n">
-        <v>0</v>
+        <v>168.4336970060565</v>
       </c>
       <c r="T4" t="n">
         <v>240.905954296359</v>
       </c>
       <c r="U4" t="n">
-        <v>0.3906383104454403</v>
+        <v>0</v>
       </c>
       <c r="V4" t="n">
-        <v>278.8943527180514</v>
+        <v>84.27059014199253</v>
       </c>
       <c r="W4" t="n">
         <v>272.1038797892121</v>
@@ -895,22 +895,22 @@
         </is>
       </c>
       <c r="B5" t="n">
-        <v>415.6498806486147</v>
+        <v>15.64988064861473</v>
       </c>
       <c r="C5" t="n">
-        <v>422.6317226868329</v>
+        <v>177.2371487216782</v>
       </c>
       <c r="D5" t="n">
-        <v>419.0596946068497</v>
+        <v>19.05969460684969</v>
       </c>
       <c r="E5" t="n">
         <v>421.717170453621</v>
       </c>
       <c r="F5" t="n">
-        <v>20.87293999249374</v>
+        <v>420.8729399924937</v>
       </c>
       <c r="G5" t="n">
-        <v>0.2956717864458369</v>
+        <v>400.2956717864458</v>
       </c>
       <c r="H5" t="n">
         <v>294.8896947407055</v>
@@ -961,7 +961,7 @@
         <v>0</v>
       </c>
       <c r="X5" t="n">
-        <v>162.2082248787756</v>
+        <v>407.6027988439302</v>
       </c>
       <c r="Y5" t="n">
         <v>1.283897344658556</v>
@@ -1056,7 +1056,7 @@
         <v>188.264309024945</v>
       </c>
       <c r="C7" t="n">
-        <v>170.2528374898731</v>
+        <v>53.03228358185862</v>
       </c>
       <c r="D7" t="n">
         <v>161.683605144497</v>
@@ -1107,7 +1107,7 @@
         <v>0</v>
       </c>
       <c r="T7" t="n">
-        <v>240.905954296359</v>
+        <v>0</v>
       </c>
       <c r="U7" t="n">
         <v>0</v>
@@ -1116,10 +1116,10 @@
         <v>278.8943527180514</v>
       </c>
       <c r="W7" t="n">
-        <v>0</v>
+        <v>272.1038797892121</v>
       </c>
       <c r="X7" t="n">
-        <v>154.1156291734913</v>
+        <v>240.1382575886529</v>
       </c>
       <c r="Y7" t="n">
         <v>224.0793406271554</v>
@@ -1132,16 +1132,16 @@
         </is>
       </c>
       <c r="B8" t="n">
-        <v>415.6498806486147</v>
+        <v>15.64988064861473</v>
       </c>
       <c r="C8" t="n">
         <v>22.63172268683286</v>
       </c>
       <c r="D8" t="n">
-        <v>419.0596946068497</v>
+        <v>19.05969460684969</v>
       </c>
       <c r="E8" t="n">
-        <v>421.717170453621</v>
+        <v>21.71717045362101</v>
       </c>
       <c r="F8" t="n">
         <v>20.87293999249374</v>
@@ -1150,10 +1150,10 @@
         <v>400.2956717864458</v>
       </c>
       <c r="H8" t="n">
-        <v>14.94721823158759</v>
+        <v>0</v>
       </c>
       <c r="I8" t="n">
-        <v>34.5479025439635</v>
+        <v>0</v>
       </c>
       <c r="J8" t="n">
         <v>0</v>
@@ -1183,25 +1183,25 @@
         <v>0</v>
       </c>
       <c r="S8" t="n">
-        <v>0</v>
+        <v>103.323621185591</v>
       </c>
       <c r="T8" t="n">
-        <v>0</v>
+        <v>218.7163152458132</v>
       </c>
       <c r="U8" t="n">
-        <v>0</v>
+        <v>255.7713603095518</v>
       </c>
       <c r="V8" t="n">
-        <v>0</v>
+        <v>353.914520725013</v>
       </c>
       <c r="W8" t="n">
-        <v>0</v>
+        <v>392.4274362026566</v>
       </c>
       <c r="X8" t="n">
-        <v>7.602798843930202</v>
+        <v>332.9446659508556</v>
       </c>
       <c r="Y8" t="n">
-        <v>401.2838973446586</v>
+        <v>1.283897344658556</v>
       </c>
     </row>
     <row r="9">
@@ -1290,19 +1290,19 @@
         </is>
       </c>
       <c r="B10" t="n">
-        <v>0</v>
+        <v>188.264309024945</v>
       </c>
       <c r="C10" t="n">
-        <v>0</v>
+        <v>170.2528374898731</v>
       </c>
       <c r="D10" t="n">
-        <v>0</v>
+        <v>161.683605144497</v>
       </c>
       <c r="E10" t="n">
-        <v>0</v>
+        <v>164.546123788675</v>
       </c>
       <c r="F10" t="n">
-        <v>4.378995526347924</v>
+        <v>0</v>
       </c>
       <c r="G10" t="n">
         <v>164.5944000087102</v>
@@ -1338,16 +1338,16 @@
         <v>0</v>
       </c>
       <c r="R10" t="n">
-        <v>46.56822717969858</v>
+        <v>0</v>
       </c>
       <c r="S10" t="n">
-        <v>168.4336970060565</v>
+        <v>0</v>
       </c>
       <c r="T10" t="n">
-        <v>240.905954296359</v>
+        <v>0</v>
       </c>
       <c r="U10" t="n">
-        <v>277.3826040146988</v>
+        <v>52.92260257517064</v>
       </c>
       <c r="V10" t="n">
         <v>278.8943527180514</v>
@@ -1378,7 +1378,7 @@
         <v>419.0596946068497</v>
       </c>
       <c r="E11" t="n">
-        <v>421.717170453621</v>
+        <v>313.7451392166883</v>
       </c>
       <c r="F11" t="n">
         <v>420.8729399924937</v>
@@ -1426,7 +1426,7 @@
         <v>218.7163152458132</v>
       </c>
       <c r="U11" t="n">
-        <v>147.7993290726188</v>
+        <v>255.7713603095518</v>
       </c>
       <c r="V11" t="n">
         <v>353.914520725013</v>
@@ -1533,10 +1533,10 @@
         <v>170.2528374898731</v>
       </c>
       <c r="D13" t="n">
-        <v>161.683605144497</v>
+        <v>0</v>
       </c>
       <c r="E13" t="n">
-        <v>164.546123788675</v>
+        <v>0</v>
       </c>
       <c r="F13" t="n">
         <v>170.1431564831852</v>
@@ -1545,10 +1545,10 @@
         <v>164.5944000087102</v>
       </c>
       <c r="H13" t="n">
-        <v>142.3583058069271</v>
+        <v>0</v>
       </c>
       <c r="I13" t="n">
-        <v>98.77088257712678</v>
+        <v>0</v>
       </c>
       <c r="J13" t="n">
         <v>0</v>
@@ -1578,22 +1578,22 @@
         <v>0</v>
       </c>
       <c r="S13" t="n">
-        <v>0</v>
+        <v>168.4336970060565</v>
       </c>
       <c r="T13" t="n">
-        <v>0</v>
+        <v>240.905954296359</v>
       </c>
       <c r="U13" t="n">
-        <v>0</v>
+        <v>277.3826040146988</v>
       </c>
       <c r="V13" t="n">
-        <v>161.6737988100371</v>
+        <v>278.8943527180514</v>
       </c>
       <c r="W13" t="n">
         <v>272.1038797892121</v>
       </c>
       <c r="X13" t="n">
-        <v>240.1382575886529</v>
+        <v>3.554365680750038</v>
       </c>
       <c r="Y13" t="n">
         <v>224.0793406271554</v>
@@ -1621,13 +1621,13 @@
         <v>420.8729399924937</v>
       </c>
       <c r="G14" t="n">
-        <v>292.3236405495131</v>
+        <v>400.2956717864458</v>
       </c>
       <c r="H14" t="n">
-        <v>294.8896947407055</v>
+        <v>221.4655660477363</v>
       </c>
       <c r="I14" t="n">
-        <v>34.5479025439635</v>
+        <v>0</v>
       </c>
       <c r="J14" t="n">
         <v>0</v>
@@ -1770,7 +1770,7 @@
         <v>170.2528374898731</v>
       </c>
       <c r="D16" t="n">
-        <v>161.683605144497</v>
+        <v>0</v>
       </c>
       <c r="E16" t="n">
         <v>164.546123788675</v>
@@ -1782,10 +1782,10 @@
         <v>164.5944000087102</v>
       </c>
       <c r="H16" t="n">
-        <v>142.3583058069271</v>
+        <v>0</v>
       </c>
       <c r="I16" t="n">
-        <v>98.77088257712678</v>
+        <v>0</v>
       </c>
       <c r="J16" t="n">
         <v>0</v>
@@ -1815,22 +1815,22 @@
         <v>0</v>
       </c>
       <c r="S16" t="n">
-        <v>0</v>
+        <v>168.4336970060565</v>
       </c>
       <c r="T16" t="n">
-        <v>0</v>
+        <v>240.905954296359</v>
       </c>
       <c r="U16" t="n">
-        <v>0</v>
+        <v>277.3826040146988</v>
       </c>
       <c r="V16" t="n">
-        <v>161.6737988100371</v>
+        <v>278.8943527180514</v>
       </c>
       <c r="W16" t="n">
-        <v>272.1038797892121</v>
+        <v>111.1121216812872</v>
       </c>
       <c r="X16" t="n">
-        <v>240.1382575886529</v>
+        <v>0</v>
       </c>
       <c r="Y16" t="n">
         <v>224.0793406271554</v>
@@ -2010,7 +2010,7 @@
         <v>161.683605144497</v>
       </c>
       <c r="E19" t="n">
-        <v>164.546123788675</v>
+        <v>127.8007835420382</v>
       </c>
       <c r="F19" t="n">
         <v>170.1431564831852</v>
@@ -2019,7 +2019,7 @@
         <v>164.5944000087102</v>
       </c>
       <c r="H19" t="n">
-        <v>142.3583058069271</v>
+        <v>0</v>
       </c>
       <c r="I19" t="n">
         <v>98.77088257712678</v>
@@ -2052,25 +2052,25 @@
         <v>46.56822717969858</v>
       </c>
       <c r="S19" t="n">
-        <v>168.4336970060565</v>
+        <v>0</v>
       </c>
       <c r="T19" t="n">
-        <v>0</v>
+        <v>240.905954296359</v>
       </c>
       <c r="U19" t="n">
-        <v>0</v>
+        <v>277.3826040146988</v>
       </c>
       <c r="V19" t="n">
-        <v>278.8943527180514</v>
+        <v>0</v>
       </c>
       <c r="W19" t="n">
-        <v>0</v>
+        <v>272.1038797892121</v>
       </c>
       <c r="X19" t="n">
-        <v>180.0196592840957</v>
+        <v>240.1382575886529</v>
       </c>
       <c r="Y19" t="n">
-        <v>224.0793406271554</v>
+        <v>0</v>
       </c>
     </row>
     <row r="20">
@@ -2134,7 +2134,7 @@
         <v>103.323621185591</v>
       </c>
       <c r="T20" t="n">
-        <v>218.7163152458144</v>
+        <v>218.7163152458132</v>
       </c>
       <c r="U20" t="n">
         <v>255.7713603095518</v>
@@ -2238,28 +2238,28 @@
         </is>
       </c>
       <c r="B22" t="n">
-        <v>0</v>
+        <v>188.264309024945</v>
       </c>
       <c r="C22" t="n">
         <v>0</v>
       </c>
       <c r="D22" t="n">
-        <v>0</v>
+        <v>161.683605144497</v>
       </c>
       <c r="E22" t="n">
-        <v>58.31517967031825</v>
+        <v>164.546123788675</v>
       </c>
       <c r="F22" t="n">
         <v>170.1431564831852</v>
       </c>
       <c r="G22" t="n">
-        <v>164.5944000087102</v>
+        <v>23.64466046615158</v>
       </c>
       <c r="H22" t="n">
         <v>142.3583058069271</v>
       </c>
       <c r="I22" t="n">
-        <v>98.77088257712678</v>
+        <v>0</v>
       </c>
       <c r="J22" t="n">
         <v>0</v>
@@ -2289,7 +2289,7 @@
         <v>46.56822717969858</v>
       </c>
       <c r="S22" t="n">
-        <v>168.4336970060565</v>
+        <v>0</v>
       </c>
       <c r="T22" t="n">
         <v>240.905954296359</v>
@@ -2301,13 +2301,13 @@
         <v>278.8943527180514</v>
       </c>
       <c r="W22" t="n">
-        <v>272.1038797892121</v>
+        <v>0</v>
       </c>
       <c r="X22" t="n">
         <v>240.1382575886529</v>
       </c>
       <c r="Y22" t="n">
-        <v>0</v>
+        <v>224.0793406271554</v>
       </c>
     </row>
     <row r="23">
@@ -2484,7 +2484,7 @@
         <v>161.683605144497</v>
       </c>
       <c r="E25" t="n">
-        <v>164.546123788675</v>
+        <v>5.879876994685888</v>
       </c>
       <c r="F25" t="n">
         <v>170.1431564831852</v>
@@ -2493,7 +2493,7 @@
         <v>164.5944000087102</v>
       </c>
       <c r="H25" t="n">
-        <v>142.3583058069271</v>
+        <v>0</v>
       </c>
       <c r="I25" t="n">
         <v>98.77088257712678</v>
@@ -2526,19 +2526,19 @@
         <v>46.56822717969858</v>
       </c>
       <c r="S25" t="n">
-        <v>0</v>
+        <v>168.4336970060565</v>
       </c>
       <c r="T25" t="n">
-        <v>0</v>
+        <v>240.905954296359</v>
       </c>
       <c r="U25" t="n">
         <v>0</v>
       </c>
       <c r="V25" t="n">
-        <v>115.1055716303386</v>
+        <v>278.8943527180514</v>
       </c>
       <c r="W25" t="n">
-        <v>272.1038797892121</v>
+        <v>0</v>
       </c>
       <c r="X25" t="n">
         <v>240.1382575886529</v>
@@ -2718,22 +2718,22 @@
         <v>170.2528374898731</v>
       </c>
       <c r="D28" t="n">
-        <v>161.683605144497</v>
+        <v>0</v>
       </c>
       <c r="E28" t="n">
-        <v>164.546123788675</v>
+        <v>0</v>
       </c>
       <c r="F28" t="n">
         <v>170.1431564831852</v>
       </c>
       <c r="G28" t="n">
-        <v>164.5944000087102</v>
+        <v>0</v>
       </c>
       <c r="H28" t="n">
-        <v>142.3583058069271</v>
+        <v>0</v>
       </c>
       <c r="I28" t="n">
-        <v>98.77088257712678</v>
+        <v>0</v>
       </c>
       <c r="J28" t="n">
         <v>0</v>
@@ -2763,16 +2763,16 @@
         <v>0</v>
       </c>
       <c r="S28" t="n">
-        <v>0</v>
+        <v>96.44420510686429</v>
       </c>
       <c r="T28" t="n">
-        <v>0</v>
+        <v>240.905954296359</v>
       </c>
       <c r="U28" t="n">
-        <v>0</v>
+        <v>277.3826040146988</v>
       </c>
       <c r="V28" t="n">
-        <v>161.6737988100371</v>
+        <v>278.8943527180514</v>
       </c>
       <c r="W28" t="n">
         <v>272.1038797892121</v>
@@ -2949,16 +2949,16 @@
         </is>
       </c>
       <c r="B31" t="n">
-        <v>0</v>
+        <v>188.264309024945</v>
       </c>
       <c r="C31" t="n">
         <v>170.2528374898731</v>
       </c>
       <c r="D31" t="n">
-        <v>161.683605144497</v>
+        <v>0</v>
       </c>
       <c r="E31" t="n">
-        <v>164.546123788675</v>
+        <v>0</v>
       </c>
       <c r="F31" t="n">
         <v>170.1431564831852</v>
@@ -2970,7 +2970,7 @@
         <v>0</v>
       </c>
       <c r="I31" t="n">
-        <v>98.77088257712678</v>
+        <v>0</v>
       </c>
       <c r="J31" t="n">
         <v>0</v>
@@ -2997,10 +2997,10 @@
         <v>0</v>
       </c>
       <c r="R31" t="n">
-        <v>46.56822717969858</v>
+        <v>0</v>
       </c>
       <c r="S31" t="n">
-        <v>168.4336970060565</v>
+        <v>96.44420510686429</v>
       </c>
       <c r="T31" t="n">
         <v>240.905954296359</v>
@@ -3015,10 +3015,10 @@
         <v>272.1038797892121</v>
       </c>
       <c r="X31" t="n">
-        <v>0</v>
+        <v>240.1382575886529</v>
       </c>
       <c r="Y31" t="n">
-        <v>108.9235766515635</v>
+        <v>224.0793406271554</v>
       </c>
     </row>
     <row r="32">
@@ -3192,13 +3192,13 @@
         <v>170.2528374898731</v>
       </c>
       <c r="D34" t="n">
-        <v>161.683605144497</v>
+        <v>0</v>
       </c>
       <c r="E34" t="n">
-        <v>164.546123788675</v>
+        <v>0</v>
       </c>
       <c r="F34" t="n">
-        <v>0</v>
+        <v>170.1431564831852</v>
       </c>
       <c r="G34" t="n">
         <v>0</v>
@@ -3237,10 +3237,10 @@
         <v>0</v>
       </c>
       <c r="S34" t="n">
-        <v>0</v>
+        <v>96.44420510686429</v>
       </c>
       <c r="T34" t="n">
-        <v>181.2635869532363</v>
+        <v>240.905954296359</v>
       </c>
       <c r="U34" t="n">
         <v>277.3826040146988</v>
@@ -3426,19 +3426,19 @@
         <v>188.264309024945</v>
       </c>
       <c r="C37" t="n">
-        <v>170.2528374898731</v>
+        <v>0</v>
       </c>
       <c r="D37" t="n">
-        <v>161.683605144497</v>
+        <v>0</v>
       </c>
       <c r="E37" t="n">
         <v>164.546123788675</v>
       </c>
       <c r="F37" t="n">
-        <v>0</v>
+        <v>170.1431564831852</v>
       </c>
       <c r="G37" t="n">
-        <v>0</v>
+        <v>107.050219014091</v>
       </c>
       <c r="H37" t="n">
         <v>0</v>
@@ -3477,7 +3477,7 @@
         <v>168.4336970060565</v>
       </c>
       <c r="T37" t="n">
-        <v>186.1628871592653</v>
+        <v>240.905954296359</v>
       </c>
       <c r="U37" t="n">
         <v>277.3826040146988</v>
@@ -3666,22 +3666,22 @@
         <v>170.2528374898731</v>
       </c>
       <c r="D40" t="n">
-        <v>161.683605144497</v>
+        <v>0</v>
       </c>
       <c r="E40" t="n">
-        <v>164.546123788675</v>
+        <v>0</v>
       </c>
       <c r="F40" t="n">
         <v>170.1431564831852</v>
       </c>
       <c r="G40" t="n">
-        <v>164.5944000087102</v>
+        <v>0</v>
       </c>
       <c r="H40" t="n">
         <v>0</v>
       </c>
       <c r="I40" t="n">
-        <v>98.77088257712678</v>
+        <v>0</v>
       </c>
       <c r="J40" t="n">
         <v>0</v>
@@ -3711,16 +3711,16 @@
         <v>0</v>
       </c>
       <c r="S40" t="n">
-        <v>0</v>
+        <v>96.44420510686429</v>
       </c>
       <c r="T40" t="n">
-        <v>0</v>
+        <v>240.905954296359</v>
       </c>
       <c r="U40" t="n">
         <v>277.3826040146988</v>
       </c>
       <c r="V40" t="n">
-        <v>26.64950060226561</v>
+        <v>278.8943527180514</v>
       </c>
       <c r="W40" t="n">
         <v>272.1038797892121</v>
@@ -3742,7 +3742,7 @@
         <v>415.6498806486147</v>
       </c>
       <c r="C41" t="n">
-        <v>417.9833126354911</v>
+        <v>422.6317226868329</v>
       </c>
       <c r="D41" t="n">
         <v>419.0596946068497</v>
@@ -3760,7 +3760,7 @@
         <v>294.8896947407055</v>
       </c>
       <c r="I41" t="n">
-        <v>34.5479025439635</v>
+        <v>0</v>
       </c>
       <c r="J41" t="n">
         <v>0</v>
@@ -3790,7 +3790,7 @@
         <v>0</v>
       </c>
       <c r="S41" t="n">
-        <v>0</v>
+        <v>29.89949249262175</v>
       </c>
       <c r="T41" t="n">
         <v>218.7163152458132</v>
@@ -3897,28 +3897,28 @@
         </is>
       </c>
       <c r="B43" t="n">
-        <v>64.99733418373762</v>
+        <v>188.264309024945</v>
       </c>
       <c r="C43" t="n">
         <v>170.2528374898731</v>
       </c>
       <c r="D43" t="n">
-        <v>161.683605144497</v>
+        <v>0</v>
       </c>
       <c r="E43" t="n">
-        <v>164.546123788675</v>
+        <v>0</v>
       </c>
       <c r="F43" t="n">
         <v>170.1431564831852</v>
       </c>
       <c r="G43" t="n">
-        <v>164.5944000087102</v>
+        <v>0</v>
       </c>
       <c r="H43" t="n">
-        <v>142.3583058069271</v>
+        <v>0</v>
       </c>
       <c r="I43" t="n">
-        <v>98.77088257712678</v>
+        <v>0</v>
       </c>
       <c r="J43" t="n">
         <v>0</v>
@@ -3945,10 +3945,10 @@
         <v>0</v>
       </c>
       <c r="R43" t="n">
-        <v>0</v>
+        <v>46.56822717969858</v>
       </c>
       <c r="S43" t="n">
-        <v>0</v>
+        <v>49.87597792716532</v>
       </c>
       <c r="T43" t="n">
         <v>240.905954296359</v>
@@ -3960,10 +3960,10 @@
         <v>278.8943527180514</v>
       </c>
       <c r="W43" t="n">
-        <v>0</v>
+        <v>272.1038797892121</v>
       </c>
       <c r="X43" t="n">
-        <v>0</v>
+        <v>240.1382575886529</v>
       </c>
       <c r="Y43" t="n">
         <v>224.0793406271554</v>
@@ -3994,10 +3994,10 @@
         <v>400.2956717864458</v>
       </c>
       <c r="H44" t="n">
-        <v>186.9176635037728</v>
+        <v>294.8896947407055</v>
       </c>
       <c r="I44" t="n">
-        <v>34.5479025439635</v>
+        <v>0</v>
       </c>
       <c r="J44" t="n">
         <v>0</v>
@@ -4033,7 +4033,7 @@
         <v>218.7163152458132</v>
       </c>
       <c r="U44" t="n">
-        <v>255.7713603095518</v>
+        <v>182.3472316165828</v>
       </c>
       <c r="V44" t="n">
         <v>353.914520725013</v>
@@ -4137,16 +4137,16 @@
         <v>188.264309024945</v>
       </c>
       <c r="C46" t="n">
-        <v>0</v>
+        <v>170.2528374898731</v>
       </c>
       <c r="D46" t="n">
-        <v>161.683605144497</v>
+        <v>0</v>
       </c>
       <c r="E46" t="n">
-        <v>60.15466974967008</v>
+        <v>0</v>
       </c>
       <c r="F46" t="n">
-        <v>0</v>
+        <v>170.1431564831852</v>
       </c>
       <c r="G46" t="n">
         <v>0</v>
@@ -4182,10 +4182,10 @@
         <v>0</v>
       </c>
       <c r="R46" t="n">
-        <v>46.56822717969858</v>
+        <v>0</v>
       </c>
       <c r="S46" t="n">
-        <v>168.4336970060565</v>
+        <v>96.44420510686383</v>
       </c>
       <c r="T46" t="n">
         <v>240.905954296359</v>
@@ -4306,22 +4306,22 @@
         </is>
       </c>
       <c r="B2" t="n">
-        <v>1342.050951843433</v>
+        <v>427.7981182481856</v>
       </c>
       <c r="C2" t="n">
-        <v>915.1502218567329</v>
+        <v>404.9377923018898</v>
       </c>
       <c r="D2" t="n">
-        <v>895.8980050821372</v>
+        <v>385.6855755272941</v>
       </c>
       <c r="E2" t="n">
-        <v>873.9614692703988</v>
+        <v>363.7490397155557</v>
       </c>
       <c r="F2" t="n">
-        <v>448.8372874597989</v>
+        <v>342.66526194536</v>
       </c>
       <c r="G2" t="n">
-        <v>44.49822504924753</v>
+        <v>342.3666035752127</v>
       </c>
       <c r="H2" t="n">
         <v>44.49822504924753</v>
@@ -4330,25 +4330,25 @@
         <v>44.49822504924753</v>
       </c>
       <c r="J2" t="n">
-        <v>44.49822504924753</v>
+        <v>407.101683866143</v>
       </c>
       <c r="K2" t="n">
-        <v>572.914647509062</v>
+        <v>957.7672188505812</v>
       </c>
       <c r="L2" t="n">
-        <v>1123.5801824935</v>
+        <v>957.7672188505812</v>
       </c>
       <c r="M2" t="n">
-        <v>1674.245717477938</v>
+        <v>957.7672188505812</v>
       </c>
       <c r="N2" t="n">
-        <v>2224.911252462377</v>
+        <v>957.7672188505812</v>
       </c>
       <c r="O2" t="n">
-        <v>2224.911252462377</v>
+        <v>1218.160237973755</v>
       </c>
       <c r="P2" t="n">
-        <v>2224.911252462377</v>
+        <v>1768.825772958194</v>
       </c>
       <c r="Q2" t="n">
         <v>2224.911252462377</v>
@@ -4357,25 +4357,25 @@
         <v>2224.911252462377</v>
       </c>
       <c r="S2" t="n">
-        <v>2224.911252462377</v>
+        <v>2120.543958335517</v>
       </c>
       <c r="T2" t="n">
-        <v>2224.911252462377</v>
+        <v>2120.543958335517</v>
       </c>
       <c r="U2" t="n">
-        <v>2224.911252462377</v>
+        <v>1862.189048931929</v>
       </c>
       <c r="V2" t="n">
-        <v>1867.421837588626</v>
+        <v>1504.699634058179</v>
       </c>
       <c r="W2" t="n">
-        <v>1867.421837588626</v>
+        <v>1108.308284358525</v>
       </c>
       <c r="X2" t="n">
-        <v>1455.701838756373</v>
+        <v>696.5882855262728</v>
       </c>
       <c r="Y2" t="n">
-        <v>1357.858912094559</v>
+        <v>443.6060784993115</v>
       </c>
     </row>
     <row r="3">
@@ -4409,28 +4409,28 @@
         <v>44.49822504924753</v>
       </c>
       <c r="J3" t="n">
-        <v>44.49822504924753</v>
+        <v>316.1957143288386</v>
       </c>
       <c r="K3" t="n">
-        <v>44.49822504924753</v>
+        <v>316.1957143288386</v>
       </c>
       <c r="L3" t="n">
-        <v>201.1892506764427</v>
+        <v>316.1957143288386</v>
       </c>
       <c r="M3" t="n">
-        <v>201.1892506764427</v>
+        <v>669.8354755761777</v>
       </c>
       <c r="N3" t="n">
-        <v>751.8547856608809</v>
+        <v>1220.501010560616</v>
       </c>
       <c r="O3" t="n">
-        <v>1302.520320645319</v>
+        <v>1771.166545545054</v>
       </c>
       <c r="P3" t="n">
-        <v>1853.185855629757</v>
+        <v>1771.166545545054</v>
       </c>
       <c r="Q3" t="n">
-        <v>1853.185855629757</v>
+        <v>1771.166545545054</v>
       </c>
       <c r="R3" t="n">
         <v>1853.185855629757</v>
@@ -4464,10 +4464,10 @@
         </is>
       </c>
       <c r="B4" t="n">
-        <v>955.7067844524004</v>
+        <v>792.3900115791711</v>
       </c>
       <c r="C4" t="n">
-        <v>955.7067844524004</v>
+        <v>792.3900115791711</v>
       </c>
       <c r="D4" t="n">
         <v>792.3900115791711</v>
@@ -4515,25 +4515,25 @@
         <v>2224.911252462377</v>
       </c>
       <c r="S4" t="n">
-        <v>2224.911252462377</v>
+        <v>2054.776204981511</v>
       </c>
       <c r="T4" t="n">
-        <v>1981.571904688276</v>
+        <v>1811.436857207411</v>
       </c>
       <c r="U4" t="n">
-        <v>1981.177320536311</v>
+        <v>1811.436857207411</v>
       </c>
       <c r="V4" t="n">
-        <v>1699.46585314434</v>
+        <v>1726.315048983176</v>
       </c>
       <c r="W4" t="n">
-        <v>1424.613449316853</v>
+        <v>1451.462645155689</v>
       </c>
       <c r="X4" t="n">
-        <v>1182.049552762658</v>
+        <v>1208.898748601495</v>
       </c>
       <c r="Y4" t="n">
-        <v>955.7067844524004</v>
+        <v>982.5559802912367</v>
       </c>
     </row>
     <row r="5">
@@ -4543,19 +4543,19 @@
         </is>
       </c>
       <c r="B5" t="n">
-        <v>1639.919330369398</v>
+        <v>1796.086427374292</v>
       </c>
       <c r="C5" t="n">
-        <v>1213.018600382698</v>
+        <v>1617.059004423102</v>
       </c>
       <c r="D5" t="n">
-        <v>789.7259795676982</v>
+        <v>1597.806787648507</v>
       </c>
       <c r="E5" t="n">
-        <v>363.7490397155557</v>
+        <v>1171.829847796364</v>
       </c>
       <c r="F5" t="n">
-        <v>342.66526194536</v>
+        <v>746.7056659857641</v>
       </c>
       <c r="G5" t="n">
         <v>342.3666035752127</v>
@@ -4573,22 +4573,22 @@
         <v>44.49822504924753</v>
       </c>
       <c r="L5" t="n">
-        <v>595.1637600336857</v>
+        <v>44.49822504924753</v>
       </c>
       <c r="M5" t="n">
-        <v>595.1637600336857</v>
+        <v>549.9383681074144</v>
       </c>
       <c r="N5" t="n">
-        <v>1145.829295018124</v>
+        <v>1100.603903091853</v>
       </c>
       <c r="O5" t="n">
-        <v>1696.494830002562</v>
+        <v>1100.603903091853</v>
       </c>
       <c r="P5" t="n">
-        <v>1768.825772958194</v>
+        <v>1651.269438076291</v>
       </c>
       <c r="Q5" t="n">
-        <v>2224.911252462377</v>
+        <v>2107.354917580474</v>
       </c>
       <c r="R5" t="n">
         <v>2224.911252462377</v>
@@ -4609,10 +4609,10 @@
         <v>2224.911252462377</v>
       </c>
       <c r="X5" t="n">
-        <v>2061.064560665634</v>
+        <v>1813.191253630124</v>
       </c>
       <c r="Y5" t="n">
-        <v>2059.767694660928</v>
+        <v>1811.894387625418</v>
       </c>
     </row>
     <row r="6">
@@ -4643,28 +4643,28 @@
         <v>44.49822504924753</v>
       </c>
       <c r="I6" t="n">
-        <v>44.49822504924753</v>
+        <v>51.94486801115937</v>
       </c>
       <c r="J6" t="n">
-        <v>316.1957143288386</v>
+        <v>51.94486801115937</v>
       </c>
       <c r="K6" t="n">
-        <v>316.1957143288386</v>
+        <v>51.94486801115937</v>
       </c>
       <c r="L6" t="n">
-        <v>866.8612493132769</v>
+        <v>602.6104029955975</v>
       </c>
       <c r="M6" t="n">
-        <v>866.8612493132769</v>
+        <v>1153.275937980036</v>
       </c>
       <c r="N6" t="n">
-        <v>866.8612493132769</v>
+        <v>1389.040378766978</v>
       </c>
       <c r="O6" t="n">
-        <v>1417.526784297715</v>
+        <v>1389.040378766978</v>
       </c>
       <c r="P6" t="n">
-        <v>1853.185855629757</v>
+        <v>1389.040378766978</v>
       </c>
       <c r="Q6" t="n">
         <v>1853.185855629757</v>
@@ -4701,7 +4701,7 @@
         </is>
       </c>
       <c r="B7" t="n">
-        <v>1127.679347573484</v>
+        <v>1009.274747666399</v>
       </c>
       <c r="C7" t="n">
         <v>955.7067844524004</v>
@@ -4755,22 +4755,22 @@
         <v>2224.911252462376</v>
       </c>
       <c r="T7" t="n">
-        <v>1981.571904688275</v>
+        <v>2224.911252462376</v>
       </c>
       <c r="U7" t="n">
-        <v>1981.571904688275</v>
+        <v>2224.911252462376</v>
       </c>
       <c r="V7" t="n">
-        <v>1699.860437296304</v>
+        <v>1943.199785070404</v>
       </c>
       <c r="W7" t="n">
-        <v>1699.860437296304</v>
+        <v>1668.347381242917</v>
       </c>
       <c r="X7" t="n">
-        <v>1544.188084595808</v>
+        <v>1425.783484688723</v>
       </c>
       <c r="Y7" t="n">
-        <v>1317.84531628555</v>
+        <v>1199.440716378465</v>
       </c>
     </row>
     <row r="8">
@@ -4780,25 +4780,25 @@
         </is>
       </c>
       <c r="B8" t="n">
-        <v>1392.046023333888</v>
+        <v>533.9701437626245</v>
       </c>
       <c r="C8" t="n">
-        <v>1369.185697387592</v>
+        <v>511.1098178163286</v>
       </c>
       <c r="D8" t="n">
-        <v>945.8930765725927</v>
+        <v>491.857601041733</v>
       </c>
       <c r="E8" t="n">
-        <v>519.9161367204503</v>
+        <v>469.9210652299946</v>
       </c>
       <c r="F8" t="n">
-        <v>498.8323589502546</v>
+        <v>448.8372874597989</v>
       </c>
       <c r="G8" t="n">
-        <v>94.49329653970318</v>
+        <v>44.49822504924753</v>
       </c>
       <c r="H8" t="n">
-        <v>79.39509630577632</v>
+        <v>44.49822504924753</v>
       </c>
       <c r="I8" t="n">
         <v>44.49822504924753</v>
@@ -4807,49 +4807,49 @@
         <v>44.49822504924753</v>
       </c>
       <c r="K8" t="n">
-        <v>44.49822504924753</v>
+        <v>572.914647509062</v>
       </c>
       <c r="L8" t="n">
-        <v>549.9383681074144</v>
+        <v>1123.5801824935</v>
       </c>
       <c r="M8" t="n">
-        <v>1100.603903091853</v>
+        <v>1674.245717477938</v>
       </c>
       <c r="N8" t="n">
-        <v>1651.269438076291</v>
+        <v>2224.911252462377</v>
       </c>
       <c r="O8" t="n">
-        <v>1651.269438076291</v>
+        <v>2224.911252462377</v>
       </c>
       <c r="P8" t="n">
-        <v>1651.269438076291</v>
+        <v>2224.911252462377</v>
       </c>
       <c r="Q8" t="n">
-        <v>2107.354917580474</v>
+        <v>2224.911252462377</v>
       </c>
       <c r="R8" t="n">
         <v>2224.911252462377</v>
       </c>
       <c r="S8" t="n">
-        <v>2224.911252462377</v>
+        <v>2120.543958335517</v>
       </c>
       <c r="T8" t="n">
-        <v>2224.911252462377</v>
+        <v>1899.61838738015</v>
       </c>
       <c r="U8" t="n">
-        <v>2224.911252462377</v>
+        <v>1641.263477976562</v>
       </c>
       <c r="V8" t="n">
-        <v>2224.911252462377</v>
+        <v>1283.774063102812</v>
       </c>
       <c r="W8" t="n">
-        <v>2224.911252462377</v>
+        <v>887.3827134031587</v>
       </c>
       <c r="X8" t="n">
-        <v>2217.231657670528</v>
+        <v>551.0749700184562</v>
       </c>
       <c r="Y8" t="n">
-        <v>1811.894387625418</v>
+        <v>549.7781040137505</v>
       </c>
     </row>
     <row r="9">
@@ -4880,31 +4880,31 @@
         <v>44.49822504924753</v>
       </c>
       <c r="I9" t="n">
-        <v>44.49822504924753</v>
+        <v>51.94486801115937</v>
       </c>
       <c r="J9" t="n">
-        <v>44.49822504924753</v>
+        <v>201.1892506764427</v>
       </c>
       <c r="K9" t="n">
-        <v>119.1699405917395</v>
+        <v>751.8547856608809</v>
       </c>
       <c r="L9" t="n">
-        <v>669.8354755761777</v>
+        <v>751.8547856608809</v>
       </c>
       <c r="M9" t="n">
-        <v>1220.501010560616</v>
+        <v>1302.520320645319</v>
       </c>
       <c r="N9" t="n">
-        <v>1220.501010560616</v>
+        <v>1853.185855629757</v>
       </c>
       <c r="O9" t="n">
-        <v>1771.166545545054</v>
+        <v>1853.185855629757</v>
       </c>
       <c r="P9" t="n">
-        <v>1771.166545545054</v>
+        <v>1853.185855629757</v>
       </c>
       <c r="Q9" t="n">
-        <v>1771.166545545054</v>
+        <v>1853.185855629757</v>
       </c>
       <c r="R9" t="n">
         <v>1853.185855629757</v>
@@ -4938,16 +4938,16 @@
         </is>
       </c>
       <c r="B10" t="n">
-        <v>458.7432593109769</v>
+        <v>955.8175733480448</v>
       </c>
       <c r="C10" t="n">
-        <v>458.7432593109769</v>
+        <v>783.8450102269608</v>
       </c>
       <c r="D10" t="n">
-        <v>458.7432593109769</v>
+        <v>620.5282373537315</v>
       </c>
       <c r="E10" t="n">
-        <v>458.7432593109769</v>
+        <v>454.3200315065851</v>
       </c>
       <c r="F10" t="n">
         <v>454.3200315065851</v>
@@ -4986,28 +4986,28 @@
         <v>2224.911252462376</v>
       </c>
       <c r="R10" t="n">
-        <v>2177.872639149549</v>
+        <v>2224.911252462376</v>
       </c>
       <c r="S10" t="n">
-        <v>2007.737591668684</v>
+        <v>2224.911252462376</v>
       </c>
       <c r="T10" t="n">
-        <v>1764.398243894584</v>
+        <v>2224.911252462376</v>
       </c>
       <c r="U10" t="n">
-        <v>1484.213795394888</v>
+        <v>2171.454078144021</v>
       </c>
       <c r="V10" t="n">
-        <v>1202.502328002917</v>
+        <v>1889.74261075205</v>
       </c>
       <c r="W10" t="n">
-        <v>927.6499241754298</v>
+        <v>1614.890206924563</v>
       </c>
       <c r="X10" t="n">
-        <v>685.0860276212348</v>
+        <v>1372.326310370368</v>
       </c>
       <c r="Y10" t="n">
-        <v>458.7432593109769</v>
+        <v>1145.98354206011</v>
       </c>
     </row>
     <row r="11">
@@ -5017,13 +5017,13 @@
         </is>
       </c>
       <c r="B11" t="n">
-        <v>2538.475729536478</v>
+        <v>2429.413071721394</v>
       </c>
       <c r="C11" t="n">
-        <v>2111.574999549778</v>
+        <v>2002.512341734694</v>
       </c>
       <c r="D11" t="n">
-        <v>1688.282378734778</v>
+        <v>1579.219720919694</v>
       </c>
       <c r="E11" t="n">
         <v>1262.305438882635</v>
@@ -5044,22 +5044,22 @@
         <v>462.6804036958856</v>
       </c>
       <c r="K11" t="n">
-        <v>1130.984051391754</v>
+        <v>1178.188711671385</v>
       </c>
       <c r="L11" t="n">
-        <v>2060.609099011031</v>
+        <v>2107.813759290661</v>
       </c>
       <c r="M11" t="n">
-        <v>3064.895200430089</v>
+        <v>2876.781500254679</v>
       </c>
       <c r="N11" t="n">
-        <v>4041.14625891679</v>
+        <v>2876.781500254679</v>
       </c>
       <c r="O11" t="n">
-        <v>4886.290909067602</v>
+        <v>3721.926150405491</v>
       </c>
       <c r="P11" t="n">
-        <v>4886.290909067602</v>
+        <v>4430.205429563419</v>
       </c>
       <c r="Q11" t="n">
         <v>4886.290909067602</v>
@@ -5074,19 +5074,19 @@
         <v>4678.554378867278</v>
       </c>
       <c r="U11" t="n">
-        <v>4529.262127278774</v>
+        <v>4420.19946946369</v>
       </c>
       <c r="V11" t="n">
-        <v>4171.772712405023</v>
+        <v>4062.710054589939</v>
       </c>
       <c r="W11" t="n">
-        <v>3775.38136270537</v>
+        <v>3666.318704890286</v>
       </c>
       <c r="X11" t="n">
-        <v>3363.661363873117</v>
+        <v>3254.598706058034</v>
       </c>
       <c r="Y11" t="n">
-        <v>2958.324093828008</v>
+        <v>2849.261436012924</v>
       </c>
     </row>
     <row r="12">
@@ -5117,19 +5117,19 @@
         <v>100.0769448789901</v>
       </c>
       <c r="I12" t="n">
-        <v>100.0769448789901</v>
+        <v>107.5235878409019</v>
       </c>
       <c r="J12" t="n">
-        <v>100.0769448789901</v>
+        <v>107.5235878409019</v>
       </c>
       <c r="K12" t="n">
-        <v>100.0769448789901</v>
+        <v>107.5235878409019</v>
       </c>
       <c r="L12" t="n">
-        <v>303.0855804095302</v>
+        <v>107.5235878409019</v>
       </c>
       <c r="M12" t="n">
-        <v>303.0855804095302</v>
+        <v>107.5235878409019</v>
       </c>
       <c r="N12" t="n">
         <v>303.0855804095302</v>
@@ -5175,25 +5175,25 @@
         </is>
       </c>
       <c r="B13" t="n">
-        <v>1183.258067403227</v>
+        <v>610.1682519312816</v>
       </c>
       <c r="C13" t="n">
-        <v>1011.285504282143</v>
+        <v>438.1956888101976</v>
       </c>
       <c r="D13" t="n">
-        <v>847.9687314089136</v>
+        <v>438.1956888101976</v>
       </c>
       <c r="E13" t="n">
-        <v>681.7605255617672</v>
+        <v>438.1956888101976</v>
       </c>
       <c r="F13" t="n">
-        <v>509.8987513363276</v>
+        <v>266.333914584758</v>
       </c>
       <c r="G13" t="n">
-        <v>343.6417816305598</v>
+        <v>100.0769448789901</v>
       </c>
       <c r="H13" t="n">
-        <v>199.8455131387141</v>
+        <v>100.0769448789901</v>
       </c>
       <c r="I13" t="n">
         <v>100.0769448789901</v>
@@ -5226,25 +5226,25 @@
         <v>2280.489972292118</v>
       </c>
       <c r="S13" t="n">
-        <v>2280.489972292118</v>
+        <v>2110.354924811253</v>
       </c>
       <c r="T13" t="n">
-        <v>2280.489972292118</v>
+        <v>1867.015577037153</v>
       </c>
       <c r="U13" t="n">
-        <v>2280.489972292118</v>
+        <v>1586.831128537457</v>
       </c>
       <c r="V13" t="n">
-        <v>2117.183104807232</v>
+        <v>1305.119661145486</v>
       </c>
       <c r="W13" t="n">
-        <v>1842.330700979745</v>
+        <v>1030.267257317999</v>
       </c>
       <c r="X13" t="n">
-        <v>1599.766804425551</v>
+        <v>1026.676988953605</v>
       </c>
       <c r="Y13" t="n">
-        <v>1373.424036115293</v>
+        <v>800.3342206433472</v>
       </c>
     </row>
     <row r="14">
@@ -5269,10 +5269,10 @@
         <v>728.1185992569519</v>
       </c>
       <c r="G14" t="n">
-        <v>432.8421946614841</v>
+        <v>323.7795368464006</v>
       </c>
       <c r="H14" t="n">
-        <v>134.9738161355189</v>
+        <v>100.0769448789901</v>
       </c>
       <c r="I14" t="n">
         <v>100.0769448789901</v>
@@ -5281,19 +5281,19 @@
         <v>462.6804036958856</v>
       </c>
       <c r="K14" t="n">
-        <v>462.6804036958856</v>
+        <v>1178.188711671385</v>
       </c>
       <c r="L14" t="n">
-        <v>1392.305451315162</v>
+        <v>2107.813759290661</v>
       </c>
       <c r="M14" t="n">
-        <v>2396.59155273422</v>
+        <v>2107.813759290661</v>
       </c>
       <c r="N14" t="n">
-        <v>3372.842611220921</v>
+        <v>3084.064817777362</v>
       </c>
       <c r="O14" t="n">
-        <v>4217.987261371733</v>
+        <v>3929.209467928174</v>
       </c>
       <c r="P14" t="n">
         <v>4430.205429563419</v>
@@ -5354,28 +5354,28 @@
         <v>100.0769448789901</v>
       </c>
       <c r="I15" t="n">
-        <v>100.0769448789901</v>
+        <v>107.5235878409019</v>
       </c>
       <c r="J15" t="n">
-        <v>100.0769448789901</v>
+        <v>107.5235878409019</v>
       </c>
       <c r="K15" t="n">
-        <v>100.0769448789901</v>
+        <v>698.0085144092415</v>
       </c>
       <c r="L15" t="n">
-        <v>100.0769448789901</v>
+        <v>698.0085144092415</v>
       </c>
       <c r="M15" t="n">
-        <v>1156.063482855035</v>
+        <v>698.0085144092415</v>
       </c>
       <c r="N15" t="n">
-        <v>1908.7645754595</v>
+        <v>698.0085144092415</v>
       </c>
       <c r="O15" t="n">
-        <v>1908.7645754595</v>
+        <v>728.4213815582225</v>
       </c>
       <c r="P15" t="n">
-        <v>1908.7645754595</v>
+        <v>1444.619098596721</v>
       </c>
       <c r="Q15" t="n">
         <v>1908.7645754595</v>
@@ -5412,25 +5412,25 @@
         </is>
       </c>
       <c r="B16" t="n">
-        <v>1183.258067403227</v>
+        <v>776.3764577784281</v>
       </c>
       <c r="C16" t="n">
-        <v>1011.285504282143</v>
+        <v>604.403894657344</v>
       </c>
       <c r="D16" t="n">
-        <v>847.9687314089136</v>
+        <v>604.403894657344</v>
       </c>
       <c r="E16" t="n">
-        <v>681.7605255617672</v>
+        <v>438.1956888101976</v>
       </c>
       <c r="F16" t="n">
-        <v>509.8987513363276</v>
+        <v>266.333914584758</v>
       </c>
       <c r="G16" t="n">
-        <v>343.6417816305598</v>
+        <v>100.0769448789901</v>
       </c>
       <c r="H16" t="n">
-        <v>199.8455131387141</v>
+        <v>100.0769448789901</v>
       </c>
       <c r="I16" t="n">
         <v>100.0769448789901</v>
@@ -5463,25 +5463,25 @@
         <v>2280.489972292118</v>
       </c>
       <c r="S16" t="n">
-        <v>2280.489972292118</v>
+        <v>2110.354924811253</v>
       </c>
       <c r="T16" t="n">
-        <v>2280.489972292118</v>
+        <v>1867.015577037153</v>
       </c>
       <c r="U16" t="n">
-        <v>2280.489972292118</v>
+        <v>1586.831128537457</v>
       </c>
       <c r="V16" t="n">
-        <v>2117.183104807232</v>
+        <v>1305.119661145486</v>
       </c>
       <c r="W16" t="n">
-        <v>1842.330700979745</v>
+        <v>1192.885194800752</v>
       </c>
       <c r="X16" t="n">
-        <v>1599.766804425551</v>
+        <v>1192.885194800752</v>
       </c>
       <c r="Y16" t="n">
-        <v>1373.424036115293</v>
+        <v>966.5424264904937</v>
       </c>
     </row>
     <row r="17">
@@ -5518,22 +5518,22 @@
         <v>464.9061722227241</v>
       </c>
       <c r="K17" t="n">
-        <v>464.9061722227241</v>
+        <v>1180.414480198223</v>
       </c>
       <c r="L17" t="n">
-        <v>1394.531219842001</v>
+        <v>2110.0395278175</v>
       </c>
       <c r="M17" t="n">
-        <v>2398.817321261059</v>
+        <v>2110.0395278175</v>
       </c>
       <c r="N17" t="n">
-        <v>3375.06837974776</v>
+        <v>2988.069926596602</v>
       </c>
       <c r="O17" t="n">
-        <v>4220.213029898572</v>
+        <v>3833.214576747414</v>
       </c>
       <c r="P17" t="n">
-        <v>4928.4923090565</v>
+        <v>4541.493855905342</v>
       </c>
       <c r="Q17" t="n">
         <v>4997.579335409525</v>
@@ -5591,22 +5591,22 @@
         <v>102.3027134058285</v>
       </c>
       <c r="I18" t="n">
-        <v>102.3027134058285</v>
+        <v>109.7493563677404</v>
       </c>
       <c r="J18" t="n">
-        <v>102.3027134058285</v>
+        <v>109.7493563677404</v>
       </c>
       <c r="K18" t="n">
-        <v>102.3027134058285</v>
+        <v>109.7493563677404</v>
       </c>
       <c r="L18" t="n">
-        <v>102.3027134058285</v>
+        <v>946.5481644506465</v>
       </c>
       <c r="M18" t="n">
-        <v>821.6753975134684</v>
+        <v>1021.509065974867</v>
       </c>
       <c r="N18" t="n">
-        <v>1910.990343986338</v>
+        <v>1021.509065974867</v>
       </c>
       <c r="O18" t="n">
         <v>1910.990343986338</v>
@@ -5649,22 +5649,22 @@
         </is>
       </c>
       <c r="B19" t="n">
-        <v>1185.483835930065</v>
+        <v>1004.571062138587</v>
       </c>
       <c r="C19" t="n">
-        <v>1013.511272808982</v>
+        <v>832.5984990175027</v>
       </c>
       <c r="D19" t="n">
-        <v>850.1944999357522</v>
+        <v>669.2817261442734</v>
       </c>
       <c r="E19" t="n">
-        <v>683.9862940886057</v>
+        <v>540.1900255967601</v>
       </c>
       <c r="F19" t="n">
-        <v>512.1245198631661</v>
+        <v>368.3282513713204</v>
       </c>
       <c r="G19" t="n">
-        <v>345.8675501573982</v>
+        <v>202.0712816655526</v>
       </c>
       <c r="H19" t="n">
         <v>202.0712816655526</v>
@@ -5700,25 +5700,25 @@
         <v>2235.67712750613</v>
       </c>
       <c r="S19" t="n">
-        <v>2065.542080025265</v>
+        <v>2235.67712750613</v>
       </c>
       <c r="T19" t="n">
-        <v>2065.542080025265</v>
+        <v>1992.33777973203</v>
       </c>
       <c r="U19" t="n">
-        <v>2065.542080025265</v>
+        <v>1712.153331232334</v>
       </c>
       <c r="V19" t="n">
-        <v>1783.830612633294</v>
+        <v>1712.153331232334</v>
       </c>
       <c r="W19" t="n">
-        <v>1783.830612633294</v>
+        <v>1437.300927404847</v>
       </c>
       <c r="X19" t="n">
-        <v>1601.992572952389</v>
+        <v>1194.737030850652</v>
       </c>
       <c r="Y19" t="n">
-        <v>1375.649804642131</v>
+        <v>1194.737030850652</v>
       </c>
     </row>
     <row r="20">
@@ -5728,10 +5728,10 @@
         </is>
       </c>
       <c r="B20" t="n">
-        <v>2540.701498063316</v>
+        <v>2540.701498063315</v>
       </c>
       <c r="C20" t="n">
-        <v>2113.800768076616</v>
+        <v>2113.800768076615</v>
       </c>
       <c r="D20" t="n">
         <v>1690.508147261616</v>
@@ -5740,13 +5740,13 @@
         <v>1264.531207409474</v>
       </c>
       <c r="F20" t="n">
-        <v>839.4070255988738</v>
+        <v>839.4070255988736</v>
       </c>
       <c r="G20" t="n">
-        <v>435.0679631883225</v>
+        <v>435.0679631883222</v>
       </c>
       <c r="H20" t="n">
-        <v>137.1995846623573</v>
+        <v>137.1995846623568</v>
       </c>
       <c r="I20" t="n">
         <v>102.3027134058285</v>
@@ -5761,16 +5761,16 @@
         <v>2110.0395278175</v>
       </c>
       <c r="M20" t="n">
-        <v>3114.325629236558</v>
+        <v>2110.0395278175</v>
       </c>
       <c r="N20" t="n">
-        <v>4090.576687723259</v>
+        <v>2988.069926596602</v>
       </c>
       <c r="O20" t="n">
-        <v>4935.721337874071</v>
+        <v>3833.214576747414</v>
       </c>
       <c r="P20" t="n">
-        <v>4997.579335409525</v>
+        <v>4541.493855905342</v>
       </c>
       <c r="Q20" t="n">
         <v>4997.579335409525</v>
@@ -5782,7 +5782,7 @@
         <v>5010.768376164568</v>
       </c>
       <c r="T20" t="n">
-        <v>4789.842805209199</v>
+        <v>4789.8428052092</v>
       </c>
       <c r="U20" t="n">
         <v>4531.487895805612</v>
@@ -5828,25 +5828,25 @@
         <v>102.3027134058285</v>
       </c>
       <c r="I21" t="n">
-        <v>102.3027134058285</v>
+        <v>109.7493563677404</v>
       </c>
       <c r="J21" t="n">
-        <v>102.3027134058285</v>
+        <v>109.7493563677404</v>
       </c>
       <c r="K21" t="n">
-        <v>102.3027134058285</v>
+        <v>109.7493563677404</v>
       </c>
       <c r="L21" t="n">
-        <v>102.3027134058285</v>
+        <v>946.5481644506465</v>
       </c>
       <c r="M21" t="n">
-        <v>1158.289251381874</v>
+        <v>946.5481644506465</v>
       </c>
       <c r="N21" t="n">
-        <v>1910.990343986338</v>
+        <v>946.5481644506465</v>
       </c>
       <c r="O21" t="n">
-        <v>1910.990343986338</v>
+        <v>1194.79262694784</v>
       </c>
       <c r="P21" t="n">
         <v>1910.990343986338</v>
@@ -5886,25 +5886,25 @@
         </is>
       </c>
       <c r="B22" t="n">
-        <v>742.8905159778161</v>
+        <v>771.3692302638447</v>
       </c>
       <c r="C22" t="n">
-        <v>742.8905159778161</v>
+        <v>771.3692302638447</v>
       </c>
       <c r="D22" t="n">
-        <v>742.8905159778161</v>
+        <v>608.0524573906154</v>
       </c>
       <c r="E22" t="n">
-        <v>683.9862940886057</v>
+        <v>441.8442515434689</v>
       </c>
       <c r="F22" t="n">
-        <v>512.1245198631661</v>
+        <v>269.9824773180293</v>
       </c>
       <c r="G22" t="n">
-        <v>345.8675501573982</v>
+        <v>246.0989818976742</v>
       </c>
       <c r="H22" t="n">
-        <v>202.0712816655526</v>
+        <v>102.3027134058285</v>
       </c>
       <c r="I22" t="n">
         <v>102.3027134058285</v>
@@ -5937,25 +5937,25 @@
         <v>2235.67712750613</v>
       </c>
       <c r="S22" t="n">
-        <v>2065.542080025265</v>
+        <v>2235.67712750613</v>
       </c>
       <c r="T22" t="n">
-        <v>1822.202732251165</v>
+        <v>1992.33777973203</v>
       </c>
       <c r="U22" t="n">
-        <v>1542.018283751469</v>
+        <v>1712.153331232334</v>
       </c>
       <c r="V22" t="n">
-        <v>1260.306816359498</v>
+        <v>1430.441863840363</v>
       </c>
       <c r="W22" t="n">
-        <v>985.454412532011</v>
+        <v>1430.441863840363</v>
       </c>
       <c r="X22" t="n">
-        <v>742.8905159778161</v>
+        <v>1187.877967286168</v>
       </c>
       <c r="Y22" t="n">
-        <v>742.8905159778161</v>
+        <v>961.5351989759104</v>
       </c>
     </row>
     <row r="23">
@@ -5989,25 +5989,25 @@
         <v>102.3027134058285</v>
       </c>
       <c r="J23" t="n">
-        <v>102.3027134058285</v>
+        <v>464.9061722227241</v>
       </c>
       <c r="K23" t="n">
-        <v>817.8110213813276</v>
+        <v>464.9061722227241</v>
       </c>
       <c r="L23" t="n">
-        <v>1747.436069000604</v>
+        <v>1007.532766690843</v>
       </c>
       <c r="M23" t="n">
-        <v>2751.722170419663</v>
+        <v>2011.818868109901</v>
       </c>
       <c r="N23" t="n">
-        <v>3727.973228906364</v>
+        <v>2988.069926596602</v>
       </c>
       <c r="O23" t="n">
-        <v>4573.117879057176</v>
+        <v>3833.214576747414</v>
       </c>
       <c r="P23" t="n">
-        <v>4997.579335409525</v>
+        <v>4541.493855905342</v>
       </c>
       <c r="Q23" t="n">
         <v>4997.579335409525</v>
@@ -6077,19 +6077,19 @@
         <v>102.3027134058285</v>
       </c>
       <c r="M24" t="n">
-        <v>1158.289251381874</v>
+        <v>102.3027134058285</v>
       </c>
       <c r="N24" t="n">
-        <v>1910.990343986338</v>
+        <v>223.2920388516654</v>
       </c>
       <c r="O24" t="n">
-        <v>1910.990343986338</v>
+        <v>1112.773316863137</v>
       </c>
       <c r="P24" t="n">
-        <v>1910.990343986338</v>
+        <v>1828.971033901635</v>
       </c>
       <c r="Q24" t="n">
-        <v>1910.990343986338</v>
+        <v>1828.971033901635</v>
       </c>
       <c r="R24" t="n">
         <v>1910.990343986338</v>
@@ -6123,22 +6123,22 @@
         </is>
       </c>
       <c r="B25" t="n">
-        <v>1185.483835930065</v>
+        <v>881.4186312826753</v>
       </c>
       <c r="C25" t="n">
-        <v>1013.511272808982</v>
+        <v>709.4460681615913</v>
       </c>
       <c r="D25" t="n">
-        <v>850.1944999357522</v>
+        <v>546.129295288362</v>
       </c>
       <c r="E25" t="n">
-        <v>683.9862940886057</v>
+        <v>540.1900255967601</v>
       </c>
       <c r="F25" t="n">
-        <v>512.1245198631661</v>
+        <v>368.3282513713204</v>
       </c>
       <c r="G25" t="n">
-        <v>345.8675501573982</v>
+        <v>202.0712816655526</v>
       </c>
       <c r="H25" t="n">
         <v>202.0712816655526</v>
@@ -6174,25 +6174,25 @@
         <v>2235.67712750613</v>
       </c>
       <c r="S25" t="n">
-        <v>2235.67712750613</v>
+        <v>2065.542080025265</v>
       </c>
       <c r="T25" t="n">
-        <v>2235.67712750613</v>
+        <v>1822.202732251165</v>
       </c>
       <c r="U25" t="n">
-        <v>2235.67712750613</v>
+        <v>1822.202732251165</v>
       </c>
       <c r="V25" t="n">
-        <v>2119.408873334071</v>
+        <v>1540.491264859194</v>
       </c>
       <c r="W25" t="n">
-        <v>1844.556469506584</v>
+        <v>1540.491264859194</v>
       </c>
       <c r="X25" t="n">
-        <v>1601.992572952389</v>
+        <v>1297.927368304999</v>
       </c>
       <c r="Y25" t="n">
-        <v>1375.649804642131</v>
+        <v>1071.584599994741</v>
       </c>
     </row>
     <row r="26">
@@ -6302,28 +6302,28 @@
         <v>102.3027134058285</v>
       </c>
       <c r="I27" t="n">
-        <v>102.3027134058285</v>
+        <v>109.7493563677404</v>
       </c>
       <c r="J27" t="n">
-        <v>102.3027134058285</v>
+        <v>109.7493563677404</v>
       </c>
       <c r="K27" t="n">
-        <v>102.3027134058285</v>
+        <v>109.7493563677404</v>
       </c>
       <c r="L27" t="n">
-        <v>102.3027134058285</v>
+        <v>109.7493563677404</v>
       </c>
       <c r="M27" t="n">
-        <v>1021.509065974867</v>
+        <v>109.7493563677404</v>
       </c>
       <c r="N27" t="n">
-        <v>1021.509065974867</v>
+        <v>109.7493563677404</v>
       </c>
       <c r="O27" t="n">
-        <v>1910.990343986338</v>
+        <v>730.647150085061</v>
       </c>
       <c r="P27" t="n">
-        <v>1910.990343986338</v>
+        <v>1446.844867123559</v>
       </c>
       <c r="Q27" t="n">
         <v>1910.990343986338</v>
@@ -6360,25 +6360,25 @@
         </is>
       </c>
       <c r="B28" t="n">
-        <v>1185.483835930065</v>
+        <v>446.1370507523521</v>
       </c>
       <c r="C28" t="n">
-        <v>1013.511272808982</v>
+        <v>274.1644876312681</v>
       </c>
       <c r="D28" t="n">
-        <v>850.1944999357522</v>
+        <v>274.1644876312681</v>
       </c>
       <c r="E28" t="n">
-        <v>683.9862940886057</v>
+        <v>274.1644876312681</v>
       </c>
       <c r="F28" t="n">
-        <v>512.1245198631661</v>
+        <v>102.3027134058285</v>
       </c>
       <c r="G28" t="n">
-        <v>345.8675501573982</v>
+        <v>102.3027134058285</v>
       </c>
       <c r="H28" t="n">
-        <v>202.0712816655526</v>
+        <v>102.3027134058285</v>
       </c>
       <c r="I28" t="n">
         <v>102.3027134058285</v>
@@ -6411,25 +6411,25 @@
         <v>2282.715740818957</v>
       </c>
       <c r="S28" t="n">
-        <v>2282.715740818957</v>
+        <v>2185.297351822124</v>
       </c>
       <c r="T28" t="n">
-        <v>2282.715740818957</v>
+        <v>1941.958004048024</v>
       </c>
       <c r="U28" t="n">
-        <v>2282.715740818957</v>
+        <v>1661.773555548329</v>
       </c>
       <c r="V28" t="n">
-        <v>2119.408873334071</v>
+        <v>1380.062088156358</v>
       </c>
       <c r="W28" t="n">
-        <v>1844.556469506584</v>
+        <v>1105.20968432887</v>
       </c>
       <c r="X28" t="n">
-        <v>1601.992572952389</v>
+        <v>862.6457877746757</v>
       </c>
       <c r="Y28" t="n">
-        <v>1375.649804642131</v>
+        <v>636.3030194644177</v>
       </c>
     </row>
     <row r="29">
@@ -6475,10 +6475,10 @@
         <v>2751.722170419663</v>
       </c>
       <c r="N29" t="n">
-        <v>3561.711740982687</v>
+        <v>3727.973228906364</v>
       </c>
       <c r="O29" t="n">
-        <v>4406.8563911335</v>
+        <v>4573.117879057176</v>
       </c>
       <c r="P29" t="n">
         <v>5115.135670291427</v>
@@ -6539,31 +6539,31 @@
         <v>102.3027134058285</v>
       </c>
       <c r="I30" t="n">
-        <v>102.3027134058285</v>
+        <v>109.7493563677404</v>
       </c>
       <c r="J30" t="n">
-        <v>102.3027134058285</v>
+        <v>381.4468456473314</v>
       </c>
       <c r="K30" t="n">
-        <v>102.3027134058285</v>
+        <v>971.931772215671</v>
       </c>
       <c r="L30" t="n">
-        <v>939.1015214887346</v>
+        <v>971.931772215671</v>
       </c>
       <c r="M30" t="n">
-        <v>939.1015214887346</v>
+        <v>971.931772215671</v>
       </c>
       <c r="N30" t="n">
-        <v>939.1015214887346</v>
+        <v>971.931772215671</v>
       </c>
       <c r="O30" t="n">
-        <v>1828.582799500206</v>
+        <v>971.931772215671</v>
       </c>
       <c r="P30" t="n">
-        <v>1910.990343986338</v>
+        <v>1364.825557038856</v>
       </c>
       <c r="Q30" t="n">
-        <v>1910.990343986338</v>
+        <v>1828.971033901635</v>
       </c>
       <c r="R30" t="n">
         <v>1910.990343986338</v>
@@ -6597,25 +6597,25 @@
         </is>
       </c>
       <c r="B31" t="n">
-        <v>875.4305977324519</v>
+        <v>446.1370507523521</v>
       </c>
       <c r="C31" t="n">
-        <v>703.4580346113679</v>
+        <v>274.1644876312681</v>
       </c>
       <c r="D31" t="n">
-        <v>540.1412617381386</v>
+        <v>274.1644876312681</v>
       </c>
       <c r="E31" t="n">
-        <v>373.9330558909921</v>
+        <v>274.1644876312681</v>
       </c>
       <c r="F31" t="n">
-        <v>202.0712816655526</v>
+        <v>102.3027134058285</v>
       </c>
       <c r="G31" t="n">
-        <v>202.0712816655526</v>
+        <v>102.3027134058285</v>
       </c>
       <c r="H31" t="n">
-        <v>202.0712816655526</v>
+        <v>102.3027134058285</v>
       </c>
       <c r="I31" t="n">
         <v>102.3027134058285</v>
@@ -6645,28 +6645,28 @@
         <v>2282.715740818957</v>
       </c>
       <c r="R31" t="n">
-        <v>2235.67712750613</v>
+        <v>2282.715740818957</v>
       </c>
       <c r="S31" t="n">
-        <v>2065.542080025265</v>
+        <v>2185.297351822124</v>
       </c>
       <c r="T31" t="n">
-        <v>1822.202732251165</v>
+        <v>1941.958004048024</v>
       </c>
       <c r="U31" t="n">
-        <v>1542.018283751469</v>
+        <v>1661.773555548329</v>
       </c>
       <c r="V31" t="n">
-        <v>1260.306816359498</v>
+        <v>1380.062088156358</v>
       </c>
       <c r="W31" t="n">
-        <v>985.454412532011</v>
+        <v>1105.20968432887</v>
       </c>
       <c r="X31" t="n">
-        <v>985.454412532011</v>
+        <v>862.6457877746757</v>
       </c>
       <c r="Y31" t="n">
-        <v>875.4305977324519</v>
+        <v>636.3030194644177</v>
       </c>
     </row>
     <row r="32">
@@ -6703,25 +6703,25 @@
         <v>464.9061722227241</v>
       </c>
       <c r="K32" t="n">
-        <v>1125.089101572745</v>
+        <v>1180.414480198223</v>
       </c>
       <c r="L32" t="n">
-        <v>1125.089101572745</v>
+        <v>2110.0395278175</v>
       </c>
       <c r="M32" t="n">
-        <v>2129.375202991803</v>
+        <v>2110.0395278175</v>
       </c>
       <c r="N32" t="n">
-        <v>3105.626261478504</v>
+        <v>3086.290586304201</v>
       </c>
       <c r="O32" t="n">
-        <v>3950.770911629316</v>
+        <v>3931.435236455013</v>
       </c>
       <c r="P32" t="n">
-        <v>4659.050190787244</v>
+        <v>4541.493855905342</v>
       </c>
       <c r="Q32" t="n">
-        <v>5115.135670291427</v>
+        <v>4997.579335409525</v>
       </c>
       <c r="R32" t="n">
         <v>5115.135670291427</v>
@@ -6779,19 +6779,19 @@
         <v>102.3027134058285</v>
       </c>
       <c r="J33" t="n">
-        <v>102.3027134058285</v>
+        <v>374.0002026854196</v>
       </c>
       <c r="K33" t="n">
-        <v>102.3027134058285</v>
+        <v>964.4851292537592</v>
       </c>
       <c r="L33" t="n">
-        <v>305.3113489363686</v>
+        <v>1194.79262694784</v>
       </c>
       <c r="M33" t="n">
-        <v>305.3113489363686</v>
+        <v>1194.79262694784</v>
       </c>
       <c r="N33" t="n">
-        <v>305.3113489363686</v>
+        <v>1194.79262694784</v>
       </c>
       <c r="O33" t="n">
         <v>1194.79262694784</v>
@@ -6834,16 +6834,16 @@
         </is>
       </c>
       <c r="B34" t="n">
-        <v>603.8002552472883</v>
+        <v>446.1370507523521</v>
       </c>
       <c r="C34" t="n">
-        <v>431.8276921262043</v>
+        <v>274.1644876312681</v>
       </c>
       <c r="D34" t="n">
-        <v>268.510919252975</v>
+        <v>274.1644876312681</v>
       </c>
       <c r="E34" t="n">
-        <v>102.3027134058285</v>
+        <v>274.1644876312681</v>
       </c>
       <c r="F34" t="n">
         <v>102.3027134058285</v>
@@ -6885,25 +6885,25 @@
         <v>2282.715740818957</v>
       </c>
       <c r="S34" t="n">
-        <v>2282.715740818957</v>
+        <v>2185.297351822124</v>
       </c>
       <c r="T34" t="n">
-        <v>2099.621208542961</v>
+        <v>1941.958004048024</v>
       </c>
       <c r="U34" t="n">
-        <v>1819.436760043265</v>
+        <v>1661.773555548329</v>
       </c>
       <c r="V34" t="n">
-        <v>1537.725292651294</v>
+        <v>1380.062088156358</v>
       </c>
       <c r="W34" t="n">
-        <v>1262.872888823807</v>
+        <v>1105.20968432887</v>
       </c>
       <c r="X34" t="n">
-        <v>1020.308992269612</v>
+        <v>862.6457877746757</v>
       </c>
       <c r="Y34" t="n">
-        <v>793.966223959354</v>
+        <v>636.3030194644177</v>
       </c>
     </row>
     <row r="35">
@@ -6937,25 +6937,25 @@
         <v>102.3027134058285</v>
       </c>
       <c r="J35" t="n">
-        <v>464.9061722227241</v>
+        <v>102.3027134058285</v>
       </c>
       <c r="K35" t="n">
-        <v>1180.414480198223</v>
+        <v>817.8110213813276</v>
       </c>
       <c r="L35" t="n">
-        <v>2110.0395278175</v>
+        <v>1747.436069000604</v>
       </c>
       <c r="M35" t="n">
-        <v>3114.325629236558</v>
+        <v>2751.722170419663</v>
       </c>
       <c r="N35" t="n">
-        <v>4090.576687723259</v>
+        <v>3727.973228906364</v>
       </c>
       <c r="O35" t="n">
-        <v>4659.050190787244</v>
+        <v>4573.117879057176</v>
       </c>
       <c r="P35" t="n">
-        <v>4659.050190787244</v>
+        <v>5115.135670291427</v>
       </c>
       <c r="Q35" t="n">
         <v>5115.135670291427</v>
@@ -7013,28 +7013,28 @@
         <v>102.3027134058285</v>
       </c>
       <c r="I36" t="n">
-        <v>102.3027134058285</v>
+        <v>109.7493563677404</v>
       </c>
       <c r="J36" t="n">
-        <v>102.3027134058285</v>
+        <v>381.4468456473314</v>
       </c>
       <c r="K36" t="n">
-        <v>102.3027134058285</v>
+        <v>971.931772215671</v>
       </c>
       <c r="L36" t="n">
-        <v>102.3027134058285</v>
+        <v>971.931772215671</v>
       </c>
       <c r="M36" t="n">
-        <v>1158.289251381874</v>
+        <v>971.931772215671</v>
       </c>
       <c r="N36" t="n">
-        <v>1158.289251381874</v>
+        <v>971.931772215671</v>
       </c>
       <c r="O36" t="n">
-        <v>1910.990343986338</v>
+        <v>971.931772215671</v>
       </c>
       <c r="P36" t="n">
-        <v>1910.990343986338</v>
+        <v>1446.844867123559</v>
       </c>
       <c r="Q36" t="n">
         <v>1910.990343986338</v>
@@ -7071,19 +7071,19 @@
         </is>
       </c>
       <c r="B37" t="n">
-        <v>703.5688235070123</v>
+        <v>648.2727960958064</v>
       </c>
       <c r="C37" t="n">
-        <v>531.5962603859283</v>
+        <v>648.2727960958064</v>
       </c>
       <c r="D37" t="n">
-        <v>368.279487512699</v>
+        <v>648.2727960958064</v>
       </c>
       <c r="E37" t="n">
-        <v>202.0712816655526</v>
+        <v>482.0645902486599</v>
       </c>
       <c r="F37" t="n">
-        <v>202.0712816655526</v>
+        <v>310.2028160232203</v>
       </c>
       <c r="G37" t="n">
         <v>202.0712816655526</v>
@@ -7125,22 +7125,22 @@
         <v>2112.580693338092</v>
       </c>
       <c r="T37" t="n">
-        <v>1924.537372975198</v>
+        <v>1869.241345563992</v>
       </c>
       <c r="U37" t="n">
-        <v>1644.352924475502</v>
+        <v>1589.056897064296</v>
       </c>
       <c r="V37" t="n">
-        <v>1362.641457083531</v>
+        <v>1307.345429672325</v>
       </c>
       <c r="W37" t="n">
-        <v>1362.641457083531</v>
+        <v>1307.345429672325</v>
       </c>
       <c r="X37" t="n">
-        <v>1120.077560529336</v>
+        <v>1064.78153311813</v>
       </c>
       <c r="Y37" t="n">
-        <v>893.7347922190779</v>
+        <v>838.4387648078721</v>
       </c>
     </row>
     <row r="38">
@@ -7174,25 +7174,25 @@
         <v>102.3027134058285</v>
       </c>
       <c r="J38" t="n">
-        <v>102.3027134058285</v>
+        <v>464.9061722227241</v>
       </c>
       <c r="K38" t="n">
-        <v>817.8110213813276</v>
+        <v>1180.414480198223</v>
       </c>
       <c r="L38" t="n">
-        <v>1747.436069000604</v>
+        <v>2110.0395278175</v>
       </c>
       <c r="M38" t="n">
-        <v>2751.722170419663</v>
+        <v>3105.626261478504</v>
       </c>
       <c r="N38" t="n">
-        <v>3727.973228906364</v>
+        <v>3105.626261478504</v>
       </c>
       <c r="O38" t="n">
-        <v>4573.117879057176</v>
+        <v>3950.770911629316</v>
       </c>
       <c r="P38" t="n">
-        <v>5115.135670291427</v>
+        <v>4659.050190787244</v>
       </c>
       <c r="Q38" t="n">
         <v>5115.135670291427</v>
@@ -7250,28 +7250,28 @@
         <v>102.3027134058285</v>
       </c>
       <c r="I39" t="n">
-        <v>102.3027134058285</v>
+        <v>109.7493563677404</v>
       </c>
       <c r="J39" t="n">
-        <v>102.3027134058285</v>
+        <v>381.4468456473314</v>
       </c>
       <c r="K39" t="n">
-        <v>102.3027134058285</v>
+        <v>971.931772215671</v>
       </c>
       <c r="L39" t="n">
-        <v>102.3027134058285</v>
+        <v>971.931772215671</v>
       </c>
       <c r="M39" t="n">
-        <v>821.6753975134684</v>
+        <v>971.931772215671</v>
       </c>
       <c r="N39" t="n">
-        <v>1910.990343986338</v>
+        <v>971.931772215671</v>
       </c>
       <c r="O39" t="n">
-        <v>1910.990343986338</v>
+        <v>971.931772215671</v>
       </c>
       <c r="P39" t="n">
-        <v>1910.990343986338</v>
+        <v>1446.844867123559</v>
       </c>
       <c r="Q39" t="n">
         <v>1910.990343986338</v>
@@ -7308,25 +7308,25 @@
         </is>
       </c>
       <c r="B40" t="n">
-        <v>1041.68756743822</v>
+        <v>446.1370507523521</v>
       </c>
       <c r="C40" t="n">
-        <v>869.7150043171358</v>
+        <v>274.1644876312681</v>
       </c>
       <c r="D40" t="n">
-        <v>706.3982314439065</v>
+        <v>274.1644876312681</v>
       </c>
       <c r="E40" t="n">
-        <v>540.1900255967601</v>
+        <v>274.1644876312681</v>
       </c>
       <c r="F40" t="n">
-        <v>368.3282513713204</v>
+        <v>102.3027134058285</v>
       </c>
       <c r="G40" t="n">
-        <v>202.0712816655526</v>
+        <v>102.3027134058285</v>
       </c>
       <c r="H40" t="n">
-        <v>202.0712816655526</v>
+        <v>102.3027134058285</v>
       </c>
       <c r="I40" t="n">
         <v>102.3027134058285</v>
@@ -7359,25 +7359,25 @@
         <v>2282.715740818957</v>
       </c>
       <c r="S40" t="n">
-        <v>2282.715740818957</v>
+        <v>2185.297351822124</v>
       </c>
       <c r="T40" t="n">
-        <v>2282.715740818957</v>
+        <v>1941.958004048024</v>
       </c>
       <c r="U40" t="n">
-        <v>2002.531292319261</v>
+        <v>1661.773555548329</v>
       </c>
       <c r="V40" t="n">
-        <v>1975.612604842225</v>
+        <v>1380.062088156358</v>
       </c>
       <c r="W40" t="n">
-        <v>1700.760201014738</v>
+        <v>1105.20968432887</v>
       </c>
       <c r="X40" t="n">
-        <v>1458.196304460543</v>
+        <v>862.6457877746757</v>
       </c>
       <c r="Y40" t="n">
-        <v>1231.853536150285</v>
+        <v>636.3030194644177</v>
       </c>
     </row>
     <row r="41">
@@ -7387,25 +7387,25 @@
         </is>
       </c>
       <c r="B41" t="n">
-        <v>2533.780365848253</v>
+        <v>2503.578858279949</v>
       </c>
       <c r="C41" t="n">
-        <v>2111.574999549778</v>
+        <v>2076.678128293249</v>
       </c>
       <c r="D41" t="n">
-        <v>1688.282378734778</v>
+        <v>1653.385507478249</v>
       </c>
       <c r="E41" t="n">
-        <v>1262.305438882635</v>
+        <v>1227.408567626107</v>
       </c>
       <c r="F41" t="n">
-        <v>837.1812570720355</v>
+        <v>802.2843858155067</v>
       </c>
       <c r="G41" t="n">
-        <v>432.8421946614841</v>
+        <v>397.9453234049553</v>
       </c>
       <c r="H41" t="n">
-        <v>134.9738161355189</v>
+        <v>100.0769448789901</v>
       </c>
       <c r="I41" t="n">
         <v>100.0769448789901</v>
@@ -7414,13 +7414,13 @@
         <v>462.6804036958856</v>
       </c>
       <c r="K41" t="n">
-        <v>462.6804036958856</v>
+        <v>1178.188711671385</v>
       </c>
       <c r="L41" t="n">
-        <v>896.2443403489199</v>
+        <v>2107.813759290661</v>
       </c>
       <c r="M41" t="n">
-        <v>1900.530441767978</v>
+        <v>2107.813759290661</v>
       </c>
       <c r="N41" t="n">
         <v>2876.781500254679</v>
@@ -7438,25 +7438,25 @@
         <v>5003.847243949504</v>
       </c>
       <c r="S41" t="n">
-        <v>5003.847243949504</v>
+        <v>4973.6457363812</v>
       </c>
       <c r="T41" t="n">
-        <v>4782.921672994137</v>
+        <v>4752.720165425832</v>
       </c>
       <c r="U41" t="n">
-        <v>4524.566763590549</v>
+        <v>4494.365256022244</v>
       </c>
       <c r="V41" t="n">
-        <v>4167.077348716799</v>
+        <v>4136.875841148494</v>
       </c>
       <c r="W41" t="n">
-        <v>3770.685999017146</v>
+        <v>3740.484491448841</v>
       </c>
       <c r="X41" t="n">
-        <v>3358.966000184893</v>
+        <v>3328.764492616588</v>
       </c>
       <c r="Y41" t="n">
-        <v>2953.628730139784</v>
+        <v>2923.427222571479</v>
       </c>
     </row>
     <row r="42">
@@ -7487,25 +7487,25 @@
         <v>100.0769448789901</v>
       </c>
       <c r="I42" t="n">
-        <v>100.0769448789901</v>
+        <v>107.5235878409019</v>
       </c>
       <c r="J42" t="n">
-        <v>371.7744341585812</v>
+        <v>379.221077120493</v>
       </c>
       <c r="K42" t="n">
-        <v>388.6325606206753</v>
+        <v>969.7060036888327</v>
       </c>
       <c r="L42" t="n">
-        <v>388.6325606206753</v>
+        <v>969.7060036888327</v>
       </c>
       <c r="M42" t="n">
-        <v>1444.619098596721</v>
+        <v>969.7060036888327</v>
       </c>
       <c r="N42" t="n">
-        <v>1444.619098596721</v>
+        <v>969.7060036888327</v>
       </c>
       <c r="O42" t="n">
-        <v>1444.619098596721</v>
+        <v>969.7060036888327</v>
       </c>
       <c r="P42" t="n">
         <v>1444.619098596721</v>
@@ -7545,25 +7545,25 @@
         </is>
       </c>
       <c r="B43" t="n">
-        <v>1183.258067403227</v>
+        <v>443.9112822255137</v>
       </c>
       <c r="C43" t="n">
-        <v>1011.285504282143</v>
+        <v>271.9387191044297</v>
       </c>
       <c r="D43" t="n">
-        <v>847.9687314089136</v>
+        <v>271.9387191044297</v>
       </c>
       <c r="E43" t="n">
-        <v>681.7605255617672</v>
+        <v>271.9387191044297</v>
       </c>
       <c r="F43" t="n">
-        <v>509.8987513363276</v>
+        <v>100.0769448789901</v>
       </c>
       <c r="G43" t="n">
-        <v>343.6417816305598</v>
+        <v>100.0769448789901</v>
       </c>
       <c r="H43" t="n">
-        <v>199.8455131387141</v>
+        <v>100.0769448789901</v>
       </c>
       <c r="I43" t="n">
         <v>100.0769448789901</v>
@@ -7593,28 +7593,28 @@
         <v>2280.489972292118</v>
       </c>
       <c r="R43" t="n">
-        <v>2280.489972292118</v>
+        <v>2233.451358979291</v>
       </c>
       <c r="S43" t="n">
-        <v>2280.489972292118</v>
+        <v>2183.071583295286</v>
       </c>
       <c r="T43" t="n">
-        <v>2037.150624518018</v>
+        <v>1939.732235521186</v>
       </c>
       <c r="U43" t="n">
-        <v>1756.966176018322</v>
+        <v>1659.54778702149</v>
       </c>
       <c r="V43" t="n">
-        <v>1475.254708626351</v>
+        <v>1377.836319629519</v>
       </c>
       <c r="W43" t="n">
-        <v>1475.254708626351</v>
+        <v>1102.983915802032</v>
       </c>
       <c r="X43" t="n">
-        <v>1475.254708626351</v>
+        <v>860.4200192478372</v>
       </c>
       <c r="Y43" t="n">
-        <v>1248.911940316093</v>
+        <v>634.0772509375793</v>
       </c>
     </row>
     <row r="44">
@@ -7624,25 +7624,25 @@
         </is>
       </c>
       <c r="B44" t="n">
-        <v>2429.413071721394</v>
+        <v>2503.578858279949</v>
       </c>
       <c r="C44" t="n">
-        <v>2002.512341734694</v>
+        <v>2076.678128293249</v>
       </c>
       <c r="D44" t="n">
-        <v>1579.219720919694</v>
+        <v>1653.385507478249</v>
       </c>
       <c r="E44" t="n">
-        <v>1153.242781067552</v>
+        <v>1227.408567626107</v>
       </c>
       <c r="F44" t="n">
-        <v>728.1185992569519</v>
+        <v>802.2843858155067</v>
       </c>
       <c r="G44" t="n">
-        <v>323.7795368464006</v>
+        <v>397.9453234049553</v>
       </c>
       <c r="H44" t="n">
-        <v>134.9738161355189</v>
+        <v>100.0769448789901</v>
       </c>
       <c r="I44" t="n">
         <v>100.0769448789901</v>
@@ -7651,19 +7651,19 @@
         <v>462.6804036958856</v>
       </c>
       <c r="K44" t="n">
-        <v>462.6804036958856</v>
+        <v>1178.188711671385</v>
       </c>
       <c r="L44" t="n">
-        <v>896.2443403489199</v>
+        <v>2107.813759290661</v>
       </c>
       <c r="M44" t="n">
-        <v>1900.530441767978</v>
+        <v>3112.09986070972</v>
       </c>
       <c r="N44" t="n">
-        <v>2876.781500254679</v>
+        <v>3585.060779412607</v>
       </c>
       <c r="O44" t="n">
-        <v>3721.926150405491</v>
+        <v>4430.205429563419</v>
       </c>
       <c r="P44" t="n">
         <v>4430.205429563419</v>
@@ -7681,19 +7681,19 @@
         <v>4678.554378867278</v>
       </c>
       <c r="U44" t="n">
-        <v>4420.19946946369</v>
+        <v>4494.365256022244</v>
       </c>
       <c r="V44" t="n">
-        <v>4062.710054589939</v>
+        <v>4136.875841148494</v>
       </c>
       <c r="W44" t="n">
-        <v>3666.318704890286</v>
+        <v>3740.484491448841</v>
       </c>
       <c r="X44" t="n">
-        <v>3254.598706058034</v>
+        <v>3328.764492616588</v>
       </c>
       <c r="Y44" t="n">
-        <v>2849.261436012924</v>
+        <v>2923.427222571479</v>
       </c>
     </row>
     <row r="45">
@@ -7724,28 +7724,28 @@
         <v>100.0769448789901</v>
       </c>
       <c r="I45" t="n">
-        <v>100.0769448789901</v>
+        <v>107.5235878409019</v>
       </c>
       <c r="J45" t="n">
-        <v>100.0769448789901</v>
+        <v>379.221077120493</v>
       </c>
       <c r="K45" t="n">
-        <v>100.0769448789901</v>
+        <v>969.7060036888327</v>
       </c>
       <c r="L45" t="n">
-        <v>100.0769448789901</v>
+        <v>969.7060036888327</v>
       </c>
       <c r="M45" t="n">
-        <v>819.4496289866299</v>
+        <v>969.7060036888327</v>
       </c>
       <c r="N45" t="n">
-        <v>1908.7645754595</v>
+        <v>969.7060036888327</v>
       </c>
       <c r="O45" t="n">
-        <v>1908.7645754595</v>
+        <v>969.7060036888327</v>
       </c>
       <c r="P45" t="n">
-        <v>1908.7645754595</v>
+        <v>1444.619098596721</v>
       </c>
       <c r="Q45" t="n">
         <v>1908.7645754595</v>
@@ -7782,16 +7782,16 @@
         </is>
       </c>
       <c r="B46" t="n">
-        <v>324.1560104286538</v>
+        <v>443.9112822255137</v>
       </c>
       <c r="C46" t="n">
-        <v>324.1560104286538</v>
+        <v>271.9387191044297</v>
       </c>
       <c r="D46" t="n">
-        <v>160.8392375554245</v>
+        <v>271.9387191044297</v>
       </c>
       <c r="E46" t="n">
-        <v>100.0769448789901</v>
+        <v>271.9387191044297</v>
       </c>
       <c r="F46" t="n">
         <v>100.0769448789901</v>
@@ -7830,28 +7830,28 @@
         <v>2280.489972292118</v>
       </c>
       <c r="R46" t="n">
-        <v>2233.451358979291</v>
+        <v>2280.489972292118</v>
       </c>
       <c r="S46" t="n">
-        <v>2063.316311498426</v>
+        <v>2183.071583295286</v>
       </c>
       <c r="T46" t="n">
-        <v>1819.976963724326</v>
+        <v>1939.732235521186</v>
       </c>
       <c r="U46" t="n">
-        <v>1539.792515224631</v>
+        <v>1659.54778702149</v>
       </c>
       <c r="V46" t="n">
-        <v>1258.081047832659</v>
+        <v>1377.836319629519</v>
       </c>
       <c r="W46" t="n">
-        <v>983.2286440051723</v>
+        <v>1102.983915802032</v>
       </c>
       <c r="X46" t="n">
-        <v>740.6647474509774</v>
+        <v>860.4200192478372</v>
       </c>
       <c r="Y46" t="n">
-        <v>514.3219791407195</v>
+        <v>634.0772509375793</v>
       </c>
     </row>
   </sheetData>
@@ -7978,28 +7978,28 @@
         <v>0</v>
       </c>
       <c r="J2" t="n">
-        <v>29.41995948558652</v>
+        <v>395.6860795026527</v>
       </c>
       <c r="K2" t="n">
-        <v>569.51856287543</v>
+        <v>591.9924139104035</v>
       </c>
       <c r="L2" t="n">
-        <v>594.539855548217</v>
+        <v>38.31204243262292</v>
       </c>
       <c r="M2" t="n">
-        <v>593.6590760150259</v>
+        <v>37.43126289943181</v>
       </c>
       <c r="N2" t="n">
-        <v>593.5074359500402</v>
+        <v>37.27962283444602</v>
       </c>
       <c r="O2" t="n">
-        <v>37.3909593560241</v>
+        <v>300.4142109955939</v>
       </c>
       <c r="P2" t="n">
-        <v>37.5753618102313</v>
+        <v>593.8031749258255</v>
       </c>
       <c r="Q2" t="n">
-        <v>36.12467460459804</v>
+        <v>496.8170781441769</v>
       </c>
       <c r="R2" t="n">
         <v>35.03264989479647</v>
@@ -8057,16 +8057,16 @@
         <v>16.17238675</v>
       </c>
       <c r="J3" t="n">
-        <v>20.61111433333334</v>
+        <v>295.0530226965566</v>
       </c>
       <c r="K3" t="n">
         <v>22.39923383333334</v>
       </c>
       <c r="L3" t="n">
-        <v>180.7888499740227</v>
+        <v>22.51508671422956</v>
       </c>
       <c r="M3" t="n">
-        <v>23.09678051232798</v>
+        <v>380.3086605601453</v>
       </c>
       <c r="N3" t="n">
         <v>577.5708413291358</v>
@@ -8075,13 +8075,13 @@
         <v>579.3997028378163</v>
       </c>
       <c r="P3" t="n">
-        <v>577.9986543204228</v>
+        <v>21.77084120482866</v>
       </c>
       <c r="Q3" t="n">
         <v>22.7470382889785</v>
       </c>
       <c r="R3" t="n">
-        <v>23.67291939414415</v>
+        <v>106.5207073584907</v>
       </c>
       <c r="S3" t="n">
         <v>0</v>
@@ -8221,25 +8221,25 @@
         <v>35.76460079480934</v>
       </c>
       <c r="L5" t="n">
-        <v>594.539855548217</v>
+        <v>38.31204243262292</v>
       </c>
       <c r="M5" t="n">
-        <v>37.43126289943181</v>
+        <v>547.9768619480851</v>
       </c>
       <c r="N5" t="n">
         <v>593.5074359500402</v>
       </c>
       <c r="O5" t="n">
-        <v>593.6187724716183</v>
+        <v>37.3909593560241</v>
       </c>
       <c r="P5" t="n">
-        <v>110.6369203512731</v>
+        <v>593.8031749258255</v>
       </c>
       <c r="Q5" t="n">
         <v>496.8170781441769</v>
       </c>
       <c r="R5" t="n">
-        <v>35.03264989479647</v>
+        <v>153.7764225027789</v>
       </c>
       <c r="S5" t="n">
         <v>0</v>
@@ -8291,10 +8291,10 @@
         <v>0</v>
       </c>
       <c r="I6" t="n">
-        <v>16.17238675</v>
+        <v>23.69424832768873</v>
       </c>
       <c r="J6" t="n">
-        <v>295.0530226965566</v>
+        <v>20.61111433333334</v>
       </c>
       <c r="K6" t="n">
         <v>22.39923383333334</v>
@@ -8303,19 +8303,19 @@
         <v>578.7428998298237</v>
       </c>
       <c r="M6" t="n">
-        <v>23.09678051232798</v>
+        <v>579.3245936279221</v>
       </c>
       <c r="N6" t="n">
-        <v>21.34302821354166</v>
+        <v>259.4889279983319</v>
       </c>
       <c r="O6" t="n">
-        <v>579.3997028378163</v>
+        <v>23.17188972222222</v>
       </c>
       <c r="P6" t="n">
-        <v>461.8305092169925</v>
+        <v>21.77084120482866</v>
       </c>
       <c r="Q6" t="n">
-        <v>22.7470382889785</v>
+        <v>491.5808533018869</v>
       </c>
       <c r="R6" t="n">
         <v>23.67291939414415</v>
@@ -8455,10 +8455,10 @@
         <v>29.41995948558652</v>
       </c>
       <c r="K8" t="n">
-        <v>35.76460079480934</v>
+        <v>569.51856287543</v>
       </c>
       <c r="L8" t="n">
-        <v>548.8576414812762</v>
+        <v>594.539855548217</v>
       </c>
       <c r="M8" t="n">
         <v>593.6590760150259</v>
@@ -8473,10 +8473,10 @@
         <v>37.5753618102313</v>
       </c>
       <c r="Q8" t="n">
-        <v>496.8170781441769</v>
+        <v>36.12467460459804</v>
       </c>
       <c r="R8" t="n">
-        <v>153.7764225027789</v>
+        <v>35.03264989479647</v>
       </c>
       <c r="S8" t="n">
         <v>0</v>
@@ -8528,25 +8528,25 @@
         <v>0</v>
       </c>
       <c r="I9" t="n">
-        <v>16.17238675</v>
+        <v>23.69424832768873</v>
       </c>
       <c r="J9" t="n">
-        <v>20.61111433333334</v>
+        <v>171.3630160154378</v>
       </c>
       <c r="K9" t="n">
-        <v>97.8252091287798</v>
+        <v>578.6270469489275</v>
       </c>
       <c r="L9" t="n">
-        <v>578.7428998298237</v>
+        <v>22.51508671422956</v>
       </c>
       <c r="M9" t="n">
         <v>579.3245936279221</v>
       </c>
       <c r="N9" t="n">
-        <v>21.34302821354166</v>
+        <v>577.5708413291358</v>
       </c>
       <c r="O9" t="n">
-        <v>579.3997028378163</v>
+        <v>23.17188972222222</v>
       </c>
       <c r="P9" t="n">
         <v>21.77084120482866</v>
@@ -8555,7 +8555,7 @@
         <v>22.7470382889785</v>
       </c>
       <c r="R9" t="n">
-        <v>106.5207073584907</v>
+        <v>23.67291939414415</v>
       </c>
       <c r="S9" t="n">
         <v>0</v>
@@ -8692,25 +8692,25 @@
         <v>395.6860795026527</v>
       </c>
       <c r="K11" t="n">
-        <v>710.8187903865954</v>
+        <v>758.5002654165255</v>
       </c>
       <c r="L11" t="n">
         <v>977.3272420480539</v>
       </c>
       <c r="M11" t="n">
-        <v>1051.861668373228</v>
+        <v>814.1663547822778</v>
       </c>
       <c r="N11" t="n">
-        <v>1023.391803124043</v>
+        <v>37.27962283444602</v>
       </c>
       <c r="O11" t="n">
         <v>891.0724241548241</v>
       </c>
       <c r="P11" t="n">
-        <v>37.5753618102313</v>
+        <v>753.0089771212694</v>
       </c>
       <c r="Q11" t="n">
-        <v>36.12467460459804</v>
+        <v>496.8170781441769</v>
       </c>
       <c r="R11" t="n">
         <v>153.7764225027789</v>
@@ -8765,7 +8765,7 @@
         <v>0</v>
       </c>
       <c r="I12" t="n">
-        <v>16.17238675</v>
+        <v>23.69424832768873</v>
       </c>
       <c r="J12" t="n">
         <v>20.61111433333334</v>
@@ -8774,13 +8774,13 @@
         <v>22.39923383333334</v>
       </c>
       <c r="L12" t="n">
-        <v>227.5743145228559</v>
+        <v>22.51508671422956</v>
       </c>
       <c r="M12" t="n">
         <v>23.09678051232798</v>
       </c>
       <c r="N12" t="n">
-        <v>21.34302821354166</v>
+        <v>218.8803944444793</v>
       </c>
       <c r="O12" t="n">
         <v>921.6378271075471</v>
@@ -8929,13 +8929,13 @@
         <v>395.6860795026527</v>
       </c>
       <c r="K14" t="n">
-        <v>35.76460079480934</v>
+        <v>758.5002654165255</v>
       </c>
       <c r="L14" t="n">
         <v>977.3272420480539</v>
       </c>
       <c r="M14" t="n">
-        <v>1051.861668373228</v>
+        <v>37.43126289943181</v>
       </c>
       <c r="N14" t="n">
         <v>1023.391803124043</v>
@@ -8944,7 +8944,7 @@
         <v>891.0724241548241</v>
       </c>
       <c r="P14" t="n">
-        <v>251.9371478624388</v>
+        <v>543.6318887145185</v>
       </c>
       <c r="Q14" t="n">
         <v>496.8170781441769</v>
@@ -9002,31 +9002,31 @@
         <v>0</v>
       </c>
       <c r="I15" t="n">
-        <v>16.17238675</v>
+        <v>23.69424832768873</v>
       </c>
       <c r="J15" t="n">
         <v>20.61111433333334</v>
       </c>
       <c r="K15" t="n">
-        <v>22.39923383333334</v>
+        <v>618.848654609434</v>
       </c>
       <c r="L15" t="n">
         <v>22.51508671422956</v>
       </c>
       <c r="M15" t="n">
-        <v>1089.749849175</v>
+        <v>23.09678051232798</v>
       </c>
       <c r="N15" t="n">
-        <v>781.6471621574452</v>
+        <v>21.34302821354166</v>
       </c>
       <c r="O15" t="n">
-        <v>23.17188972222222</v>
+        <v>53.89195754947579</v>
       </c>
       <c r="P15" t="n">
-        <v>21.77084120482866</v>
+        <v>745.2028786174529</v>
       </c>
       <c r="Q15" t="n">
-        <v>22.7470382889785</v>
+        <v>491.5808533018869</v>
       </c>
       <c r="R15" t="n">
         <v>23.67291939414415</v>
@@ -9166,16 +9166,16 @@
         <v>395.6860795026527</v>
       </c>
       <c r="K17" t="n">
-        <v>35.76460079480934</v>
+        <v>758.5002654165255</v>
       </c>
       <c r="L17" t="n">
         <v>977.3272420480539</v>
       </c>
       <c r="M17" t="n">
-        <v>1051.861668373228</v>
+        <v>37.43126289943181</v>
       </c>
       <c r="N17" t="n">
-        <v>1023.391803124043</v>
+        <v>924.1790155406098</v>
       </c>
       <c r="O17" t="n">
         <v>891.0724241548241</v>
@@ -9184,7 +9184,7 @@
         <v>753.0089771212694</v>
       </c>
       <c r="Q17" t="n">
-        <v>105.9095497086638</v>
+        <v>496.8170781441769</v>
       </c>
       <c r="R17" t="n">
         <v>153.7764225027789</v>
@@ -9239,7 +9239,7 @@
         <v>0</v>
       </c>
       <c r="I18" t="n">
-        <v>16.17238675</v>
+        <v>23.69424832768873</v>
       </c>
       <c r="J18" t="n">
         <v>20.61111433333334</v>
@@ -9248,16 +9248,16 @@
         <v>22.39923383333334</v>
       </c>
       <c r="L18" t="n">
-        <v>22.51508671422956</v>
+        <v>867.7664080100944</v>
       </c>
       <c r="M18" t="n">
-        <v>749.7358553685299</v>
+        <v>98.81486286002512</v>
       </c>
       <c r="N18" t="n">
-        <v>1121.661155963915</v>
+        <v>21.34302821354166</v>
       </c>
       <c r="O18" t="n">
-        <v>23.17188972222222</v>
+        <v>921.6378271075471</v>
       </c>
       <c r="P18" t="n">
         <v>21.77084120482866</v>
@@ -9409,19 +9409,19 @@
         <v>977.3272420480539</v>
       </c>
       <c r="M20" t="n">
-        <v>1051.861668373228</v>
+        <v>37.43126289943181</v>
       </c>
       <c r="N20" t="n">
-        <v>1023.391803124043</v>
+        <v>924.1790155406098</v>
       </c>
       <c r="O20" t="n">
         <v>891.0724241548241</v>
       </c>
       <c r="P20" t="n">
-        <v>100.0581876036193</v>
+        <v>753.0089771212694</v>
       </c>
       <c r="Q20" t="n">
-        <v>36.12467460459804</v>
+        <v>496.8170781441769</v>
       </c>
       <c r="R20" t="n">
         <v>153.7764225027789</v>
@@ -9476,7 +9476,7 @@
         <v>0</v>
       </c>
       <c r="I21" t="n">
-        <v>16.17238675</v>
+        <v>23.69424832768873</v>
       </c>
       <c r="J21" t="n">
         <v>20.61111433333334</v>
@@ -9485,19 +9485,19 @@
         <v>22.39923383333334</v>
       </c>
       <c r="L21" t="n">
-        <v>22.51508671422956</v>
+        <v>867.7664080100944</v>
       </c>
       <c r="M21" t="n">
-        <v>1089.749849175</v>
+        <v>23.09678051232798</v>
       </c>
       <c r="N21" t="n">
-        <v>781.6471621574452</v>
+        <v>21.34302821354166</v>
       </c>
       <c r="O21" t="n">
-        <v>23.17188972222222</v>
+        <v>273.92387204262</v>
       </c>
       <c r="P21" t="n">
-        <v>21.77084120482866</v>
+        <v>745.2028786174529</v>
       </c>
       <c r="Q21" t="n">
         <v>22.7470382889785</v>
@@ -9637,13 +9637,13 @@
         <v>0</v>
       </c>
       <c r="J23" t="n">
-        <v>29.41995948558652</v>
+        <v>395.6860795026527</v>
       </c>
       <c r="K23" t="n">
-        <v>758.5002654165255</v>
+        <v>35.76460079480934</v>
       </c>
       <c r="L23" t="n">
-        <v>977.3272420480539</v>
+        <v>586.4197136125407</v>
       </c>
       <c r="M23" t="n">
         <v>1051.861668373228</v>
@@ -9655,10 +9655,10 @@
         <v>891.0724241548241</v>
       </c>
       <c r="P23" t="n">
-        <v>466.324307620685</v>
+        <v>753.0089771212694</v>
       </c>
       <c r="Q23" t="n">
-        <v>36.12467460459804</v>
+        <v>496.8170781441769</v>
       </c>
       <c r="R23" t="n">
         <v>153.7764225027789</v>
@@ -9725,22 +9725,22 @@
         <v>22.51508671422956</v>
       </c>
       <c r="M24" t="n">
-        <v>1089.749849175</v>
+        <v>23.09678051232798</v>
       </c>
       <c r="N24" t="n">
-        <v>781.6471621574452</v>
+        <v>143.5544680578214</v>
       </c>
       <c r="O24" t="n">
-        <v>23.17188972222222</v>
+        <v>921.6378271075471</v>
       </c>
       <c r="P24" t="n">
-        <v>21.77084120482866</v>
+        <v>745.2028786174529</v>
       </c>
       <c r="Q24" t="n">
         <v>22.7470382889785</v>
       </c>
       <c r="R24" t="n">
-        <v>23.67291939414415</v>
+        <v>106.5207073584907</v>
       </c>
       <c r="S24" t="n">
         <v>0</v>
@@ -9950,7 +9950,7 @@
         <v>0</v>
       </c>
       <c r="I27" t="n">
-        <v>16.17238675</v>
+        <v>23.69424832768873</v>
       </c>
       <c r="J27" t="n">
         <v>20.61111433333334</v>
@@ -9962,19 +9962,19 @@
         <v>22.51508671422956</v>
       </c>
       <c r="M27" t="n">
-        <v>951.5880457335786</v>
+        <v>23.09678051232798</v>
       </c>
       <c r="N27" t="n">
         <v>21.34302821354166</v>
       </c>
       <c r="O27" t="n">
-        <v>921.6378271075471</v>
+        <v>650.3413783255763</v>
       </c>
       <c r="P27" t="n">
-        <v>21.77084120482866</v>
+        <v>745.2028786174529</v>
       </c>
       <c r="Q27" t="n">
-        <v>22.7470382889785</v>
+        <v>491.5808533018869</v>
       </c>
       <c r="R27" t="n">
         <v>23.67291939414415</v>
@@ -10123,13 +10123,13 @@
         <v>1051.861668373228</v>
       </c>
       <c r="N29" t="n">
-        <v>855.4509062314407</v>
+        <v>1023.391803124043</v>
       </c>
       <c r="O29" t="n">
         <v>891.0724241548241</v>
       </c>
       <c r="P29" t="n">
-        <v>753.0089771212694</v>
+        <v>585.0680802286672</v>
       </c>
       <c r="Q29" t="n">
         <v>36.12467460459804</v>
@@ -10187,16 +10187,16 @@
         <v>0</v>
       </c>
       <c r="I30" t="n">
-        <v>16.17238675</v>
+        <v>23.69424832768873</v>
       </c>
       <c r="J30" t="n">
-        <v>20.61111433333334</v>
+        <v>295.0530226965566</v>
       </c>
       <c r="K30" t="n">
-        <v>22.39923383333334</v>
+        <v>618.848654609434</v>
       </c>
       <c r="L30" t="n">
-        <v>867.7664080100944</v>
+        <v>22.51508671422956</v>
       </c>
       <c r="M30" t="n">
         <v>23.09678051232798</v>
@@ -10205,16 +10205,16 @@
         <v>21.34302821354166</v>
       </c>
       <c r="O30" t="n">
-        <v>921.6378271075471</v>
+        <v>23.17188972222222</v>
       </c>
       <c r="P30" t="n">
-        <v>105.0107851302144</v>
+        <v>418.6332501171365</v>
       </c>
       <c r="Q30" t="n">
-        <v>22.7470382889785</v>
+        <v>491.5808533018869</v>
       </c>
       <c r="R30" t="n">
-        <v>23.67291939414415</v>
+        <v>106.5207073584907</v>
       </c>
       <c r="S30" t="n">
         <v>0</v>
@@ -10351,13 +10351,13 @@
         <v>395.6860795026527</v>
       </c>
       <c r="K32" t="n">
-        <v>702.6160445827093</v>
+        <v>758.5002654165255</v>
       </c>
       <c r="L32" t="n">
-        <v>38.31204243262292</v>
+        <v>977.3272420480539</v>
       </c>
       <c r="M32" t="n">
-        <v>1051.861668373228</v>
+        <v>37.43126289943181</v>
       </c>
       <c r="N32" t="n">
         <v>1023.391803124043</v>
@@ -10366,13 +10366,13 @@
         <v>891.0724241548241</v>
       </c>
       <c r="P32" t="n">
-        <v>753.0089771212694</v>
+        <v>653.7961895378362</v>
       </c>
       <c r="Q32" t="n">
         <v>496.8170781441769</v>
       </c>
       <c r="R32" t="n">
-        <v>35.03264989479647</v>
+        <v>153.7764225027789</v>
       </c>
       <c r="S32" t="n">
         <v>0</v>
@@ -10427,13 +10427,13 @@
         <v>16.17238675</v>
       </c>
       <c r="J33" t="n">
-        <v>20.61111433333334</v>
+        <v>295.0530226965566</v>
       </c>
       <c r="K33" t="n">
-        <v>22.39923383333334</v>
+        <v>618.848654609434</v>
       </c>
       <c r="L33" t="n">
-        <v>227.5743145228559</v>
+        <v>255.148922768857</v>
       </c>
       <c r="M33" t="n">
         <v>23.09678051232798</v>
@@ -10442,7 +10442,7 @@
         <v>21.34302821354166</v>
       </c>
       <c r="O33" t="n">
-        <v>921.6378271075471</v>
+        <v>23.17188972222222</v>
       </c>
       <c r="P33" t="n">
         <v>745.2028786174529</v>
@@ -10585,7 +10585,7 @@
         <v>0</v>
       </c>
       <c r="J35" t="n">
-        <v>395.6860795026527</v>
+        <v>29.41995948558652</v>
       </c>
       <c r="K35" t="n">
         <v>758.5002654165255</v>
@@ -10600,13 +10600,13 @@
         <v>1023.391803124043</v>
       </c>
       <c r="O35" t="n">
-        <v>611.6066190166155</v>
+        <v>891.0724241548241</v>
       </c>
       <c r="P35" t="n">
-        <v>37.5753618102313</v>
+        <v>585.0680802286672</v>
       </c>
       <c r="Q35" t="n">
-        <v>496.8170781441769</v>
+        <v>36.12467460459804</v>
       </c>
       <c r="R35" t="n">
         <v>35.03264989479647</v>
@@ -10661,31 +10661,31 @@
         <v>0</v>
       </c>
       <c r="I36" t="n">
-        <v>16.17238675</v>
+        <v>23.69424832768873</v>
       </c>
       <c r="J36" t="n">
-        <v>20.61111433333334</v>
+        <v>295.0530226965566</v>
       </c>
       <c r="K36" t="n">
-        <v>22.39923383333334</v>
+        <v>618.848654609434</v>
       </c>
       <c r="L36" t="n">
         <v>22.51508671422956</v>
       </c>
       <c r="M36" t="n">
-        <v>1089.749849175</v>
+        <v>23.09678051232798</v>
       </c>
       <c r="N36" t="n">
         <v>21.34302821354166</v>
       </c>
       <c r="O36" t="n">
-        <v>783.4760236661258</v>
+        <v>23.17188972222222</v>
       </c>
       <c r="P36" t="n">
-        <v>21.77084120482866</v>
+        <v>501.4810380814832</v>
       </c>
       <c r="Q36" t="n">
-        <v>22.7470382889785</v>
+        <v>491.5808533018869</v>
       </c>
       <c r="R36" t="n">
         <v>23.67291939414415</v>
@@ -10822,7 +10822,7 @@
         <v>0</v>
       </c>
       <c r="J38" t="n">
-        <v>29.41995948558652</v>
+        <v>395.6860795026527</v>
       </c>
       <c r="K38" t="n">
         <v>758.5002654165255</v>
@@ -10831,19 +10831,19 @@
         <v>977.3272420480539</v>
       </c>
       <c r="M38" t="n">
-        <v>1051.861668373228</v>
+        <v>1043.074428213578</v>
       </c>
       <c r="N38" t="n">
-        <v>1023.391803124043</v>
+        <v>37.27962283444602</v>
       </c>
       <c r="O38" t="n">
         <v>891.0724241548241</v>
       </c>
       <c r="P38" t="n">
-        <v>585.0680802286672</v>
+        <v>753.0089771212694</v>
       </c>
       <c r="Q38" t="n">
-        <v>36.12467460459804</v>
+        <v>496.8170781441769</v>
       </c>
       <c r="R38" t="n">
         <v>35.03264989479647</v>
@@ -10898,31 +10898,31 @@
         <v>0</v>
       </c>
       <c r="I39" t="n">
-        <v>16.17238675</v>
+        <v>23.69424832768873</v>
       </c>
       <c r="J39" t="n">
-        <v>20.61111433333334</v>
+        <v>295.0530226965566</v>
       </c>
       <c r="K39" t="n">
-        <v>22.39923383333334</v>
+        <v>618.848654609434</v>
       </c>
       <c r="L39" t="n">
         <v>22.51508671422956</v>
       </c>
       <c r="M39" t="n">
-        <v>749.7358553685299</v>
+        <v>23.09678051232798</v>
       </c>
       <c r="N39" t="n">
-        <v>1121.661155963915</v>
+        <v>21.34302821354166</v>
       </c>
       <c r="O39" t="n">
         <v>23.17188972222222</v>
       </c>
       <c r="P39" t="n">
-        <v>21.77084120482866</v>
+        <v>501.4810380814832</v>
       </c>
       <c r="Q39" t="n">
-        <v>22.7470382889785</v>
+        <v>491.5808533018869</v>
       </c>
       <c r="R39" t="n">
         <v>23.67291939414415</v>
@@ -11062,16 +11062,16 @@
         <v>395.6860795026527</v>
       </c>
       <c r="K41" t="n">
-        <v>35.76460079480934</v>
+        <v>758.5002654165255</v>
       </c>
       <c r="L41" t="n">
-        <v>476.2554127892232</v>
+        <v>977.3272420480539</v>
       </c>
       <c r="M41" t="n">
-        <v>1051.861668373228</v>
+        <v>37.43126289943181</v>
       </c>
       <c r="N41" t="n">
-        <v>1023.391803124043</v>
+        <v>814.0147147172921</v>
       </c>
       <c r="O41" t="n">
         <v>891.0724241548241</v>
@@ -11135,19 +11135,19 @@
         <v>0</v>
       </c>
       <c r="I42" t="n">
-        <v>16.17238675</v>
+        <v>23.69424832768873</v>
       </c>
       <c r="J42" t="n">
         <v>295.0530226965566</v>
       </c>
       <c r="K42" t="n">
-        <v>39.42764440110522</v>
+        <v>618.848654609434</v>
       </c>
       <c r="L42" t="n">
         <v>22.51508671422956</v>
       </c>
       <c r="M42" t="n">
-        <v>1089.749849175</v>
+        <v>23.09678051232798</v>
       </c>
       <c r="N42" t="n">
         <v>21.34302821354166</v>
@@ -11156,7 +11156,7 @@
         <v>23.17188972222222</v>
       </c>
       <c r="P42" t="n">
-        <v>21.77084120482866</v>
+        <v>501.4810380814831</v>
       </c>
       <c r="Q42" t="n">
         <v>491.5808533018869</v>
@@ -11299,22 +11299,22 @@
         <v>395.6860795026527</v>
       </c>
       <c r="K44" t="n">
-        <v>35.76460079480934</v>
+        <v>758.5002654165255</v>
       </c>
       <c r="L44" t="n">
-        <v>476.2554127892232</v>
+        <v>977.3272420480539</v>
       </c>
       <c r="M44" t="n">
         <v>1051.861668373228</v>
       </c>
       <c r="N44" t="n">
-        <v>1023.391803124043</v>
+        <v>515.0179245545337</v>
       </c>
       <c r="O44" t="n">
         <v>891.0724241548241</v>
       </c>
       <c r="P44" t="n">
-        <v>753.0089771212694</v>
+        <v>37.5753618102313</v>
       </c>
       <c r="Q44" t="n">
         <v>496.8170781441769</v>
@@ -11372,31 +11372,31 @@
         <v>0</v>
       </c>
       <c r="I45" t="n">
-        <v>16.17238675</v>
+        <v>23.69424832768873</v>
       </c>
       <c r="J45" t="n">
-        <v>20.61111433333334</v>
+        <v>295.0530226965566</v>
       </c>
       <c r="K45" t="n">
-        <v>22.39923383333334</v>
+        <v>618.848654609434</v>
       </c>
       <c r="L45" t="n">
         <v>22.51508671422956</v>
       </c>
       <c r="M45" t="n">
-        <v>749.7358553685299</v>
+        <v>23.09678051232798</v>
       </c>
       <c r="N45" t="n">
-        <v>1121.661155963915</v>
+        <v>21.34302821354166</v>
       </c>
       <c r="O45" t="n">
         <v>23.17188972222222</v>
       </c>
       <c r="P45" t="n">
-        <v>21.77084120482866</v>
+        <v>501.4810380814831</v>
       </c>
       <c r="Q45" t="n">
-        <v>22.7470382889785</v>
+        <v>491.5808533018869</v>
       </c>
       <c r="R45" t="n">
         <v>23.67291939414415</v>
@@ -23266,7 +23266,7 @@
         <v>0</v>
       </c>
       <c r="E11" t="n">
-        <v>0</v>
+        <v>107.9720312369327</v>
       </c>
       <c r="F11" t="n">
         <v>0</v>
@@ -23314,7 +23314,7 @@
         <v>0</v>
       </c>
       <c r="U11" t="n">
-        <v>107.972031236933</v>
+        <v>0</v>
       </c>
       <c r="V11" t="n">
         <v>0</v>
@@ -23421,10 +23421,10 @@
         <v>0</v>
       </c>
       <c r="D13" t="n">
-        <v>0</v>
+        <v>161.683605144497</v>
       </c>
       <c r="E13" t="n">
-        <v>0</v>
+        <v>164.546123788675</v>
       </c>
       <c r="F13" t="n">
         <v>0</v>
@@ -23433,10 +23433,10 @@
         <v>0</v>
       </c>
       <c r="H13" t="n">
-        <v>0</v>
+        <v>142.3583058069271</v>
       </c>
       <c r="I13" t="n">
-        <v>0</v>
+        <v>98.77088257712678</v>
       </c>
       <c r="J13" t="n">
         <v>0</v>
@@ -23466,22 +23466,22 @@
         <v>46.56822717969858</v>
       </c>
       <c r="S13" t="n">
-        <v>168.4336970060565</v>
+        <v>0</v>
       </c>
       <c r="T13" t="n">
-        <v>240.905954296359</v>
+        <v>0</v>
       </c>
       <c r="U13" t="n">
-        <v>277.3826040146988</v>
+        <v>0</v>
       </c>
       <c r="V13" t="n">
-        <v>117.2205539080143</v>
+        <v>0</v>
       </c>
       <c r="W13" t="n">
         <v>0</v>
       </c>
       <c r="X13" t="n">
-        <v>0</v>
+        <v>236.5838919079029</v>
       </c>
       <c r="Y13" t="n">
         <v>0</v>
@@ -23509,13 +23509,13 @@
         <v>0</v>
       </c>
       <c r="G14" t="n">
-        <v>107.9720312369327</v>
+        <v>0</v>
       </c>
       <c r="H14" t="n">
-        <v>0</v>
+        <v>73.42412869296919</v>
       </c>
       <c r="I14" t="n">
-        <v>0</v>
+        <v>34.5479025439635</v>
       </c>
       <c r="J14" t="n">
         <v>0</v>
@@ -23658,7 +23658,7 @@
         <v>0</v>
       </c>
       <c r="D16" t="n">
-        <v>0</v>
+        <v>161.683605144497</v>
       </c>
       <c r="E16" t="n">
         <v>0</v>
@@ -23670,10 +23670,10 @@
         <v>0</v>
       </c>
       <c r="H16" t="n">
-        <v>0</v>
+        <v>142.3583058069271</v>
       </c>
       <c r="I16" t="n">
-        <v>0</v>
+        <v>98.77088257712678</v>
       </c>
       <c r="J16" t="n">
         <v>0</v>
@@ -23703,22 +23703,22 @@
         <v>46.56822717969858</v>
       </c>
       <c r="S16" t="n">
-        <v>168.4336970060565</v>
+        <v>0</v>
       </c>
       <c r="T16" t="n">
-        <v>240.905954296359</v>
+        <v>0</v>
       </c>
       <c r="U16" t="n">
-        <v>277.3826040146988</v>
+        <v>0</v>
       </c>
       <c r="V16" t="n">
-        <v>117.2205539080143</v>
+        <v>0</v>
       </c>
       <c r="W16" t="n">
-        <v>0</v>
+        <v>160.9917581079249</v>
       </c>
       <c r="X16" t="n">
-        <v>0</v>
+        <v>240.1382575886529</v>
       </c>
       <c r="Y16" t="n">
         <v>0</v>
@@ -23898,7 +23898,7 @@
         <v>0</v>
       </c>
       <c r="E19" t="n">
-        <v>0</v>
+        <v>36.74534024663674</v>
       </c>
       <c r="F19" t="n">
         <v>0</v>
@@ -23907,7 +23907,7 @@
         <v>0</v>
       </c>
       <c r="H19" t="n">
-        <v>0</v>
+        <v>142.3583058069271</v>
       </c>
       <c r="I19" t="n">
         <v>0</v>
@@ -23940,25 +23940,25 @@
         <v>0</v>
       </c>
       <c r="S19" t="n">
-        <v>0</v>
+        <v>168.4336970060565</v>
       </c>
       <c r="T19" t="n">
-        <v>240.905954296359</v>
+        <v>0</v>
       </c>
       <c r="U19" t="n">
-        <v>277.3826040146988</v>
+        <v>0</v>
       </c>
       <c r="V19" t="n">
-        <v>0</v>
+        <v>278.8943527180514</v>
       </c>
       <c r="W19" t="n">
-        <v>272.1038797892121</v>
+        <v>0</v>
       </c>
       <c r="X19" t="n">
-        <v>60.1185983045572</v>
+        <v>0</v>
       </c>
       <c r="Y19" t="n">
-        <v>0</v>
+        <v>224.0793406271554</v>
       </c>
     </row>
     <row r="20">
@@ -24126,28 +24126,28 @@
         </is>
       </c>
       <c r="B22" t="n">
-        <v>188.264309024945</v>
+        <v>0</v>
       </c>
       <c r="C22" t="n">
         <v>170.2528374898731</v>
       </c>
       <c r="D22" t="n">
-        <v>161.683605144497</v>
+        <v>0</v>
       </c>
       <c r="E22" t="n">
-        <v>106.2309441183567</v>
+        <v>0</v>
       </c>
       <c r="F22" t="n">
         <v>0</v>
       </c>
       <c r="G22" t="n">
-        <v>0</v>
+        <v>140.9497395425586</v>
       </c>
       <c r="H22" t="n">
         <v>0</v>
       </c>
       <c r="I22" t="n">
-        <v>0</v>
+        <v>98.77088257712678</v>
       </c>
       <c r="J22" t="n">
         <v>0</v>
@@ -24177,7 +24177,7 @@
         <v>0</v>
       </c>
       <c r="S22" t="n">
-        <v>0</v>
+        <v>168.4336970060565</v>
       </c>
       <c r="T22" t="n">
         <v>0</v>
@@ -24189,13 +24189,13 @@
         <v>0</v>
       </c>
       <c r="W22" t="n">
-        <v>0</v>
+        <v>272.1038797892121</v>
       </c>
       <c r="X22" t="n">
         <v>0</v>
       </c>
       <c r="Y22" t="n">
-        <v>224.0793406271554</v>
+        <v>0</v>
       </c>
     </row>
     <row r="23">
@@ -24372,7 +24372,7 @@
         <v>0</v>
       </c>
       <c r="E25" t="n">
-        <v>0</v>
+        <v>158.6662467939891</v>
       </c>
       <c r="F25" t="n">
         <v>0</v>
@@ -24381,7 +24381,7 @@
         <v>0</v>
       </c>
       <c r="H25" t="n">
-        <v>0</v>
+        <v>142.3583058069271</v>
       </c>
       <c r="I25" t="n">
         <v>0</v>
@@ -24414,19 +24414,19 @@
         <v>0</v>
       </c>
       <c r="S25" t="n">
-        <v>168.4336970060565</v>
+        <v>0</v>
       </c>
       <c r="T25" t="n">
-        <v>240.905954296359</v>
+        <v>0</v>
       </c>
       <c r="U25" t="n">
         <v>277.3826040146988</v>
       </c>
       <c r="V25" t="n">
-        <v>163.7887810877128</v>
+        <v>0</v>
       </c>
       <c r="W25" t="n">
-        <v>0</v>
+        <v>272.1038797892121</v>
       </c>
       <c r="X25" t="n">
         <v>0</v>
@@ -24606,22 +24606,22 @@
         <v>0</v>
       </c>
       <c r="D28" t="n">
-        <v>0</v>
+        <v>161.683605144497</v>
       </c>
       <c r="E28" t="n">
-        <v>0</v>
+        <v>164.546123788675</v>
       </c>
       <c r="F28" t="n">
         <v>0</v>
       </c>
       <c r="G28" t="n">
-        <v>0</v>
+        <v>164.5944000087102</v>
       </c>
       <c r="H28" t="n">
-        <v>0</v>
+        <v>142.3583058069271</v>
       </c>
       <c r="I28" t="n">
-        <v>0</v>
+        <v>98.77088257712678</v>
       </c>
       <c r="J28" t="n">
         <v>0</v>
@@ -24651,16 +24651,16 @@
         <v>46.56822717969858</v>
       </c>
       <c r="S28" t="n">
-        <v>168.4336970060565</v>
+        <v>71.9894918991922</v>
       </c>
       <c r="T28" t="n">
-        <v>240.905954296359</v>
+        <v>0</v>
       </c>
       <c r="U28" t="n">
-        <v>277.3826040146988</v>
+        <v>0</v>
       </c>
       <c r="V28" t="n">
-        <v>117.2205539080143</v>
+        <v>0</v>
       </c>
       <c r="W28" t="n">
         <v>0</v>
@@ -24837,16 +24837,16 @@
         </is>
       </c>
       <c r="B31" t="n">
-        <v>188.264309024945</v>
+        <v>0</v>
       </c>
       <c r="C31" t="n">
         <v>0</v>
       </c>
       <c r="D31" t="n">
-        <v>0</v>
+        <v>161.683605144497</v>
       </c>
       <c r="E31" t="n">
-        <v>0</v>
+        <v>164.546123788675</v>
       </c>
       <c r="F31" t="n">
         <v>0</v>
@@ -24858,7 +24858,7 @@
         <v>142.3583058069271</v>
       </c>
       <c r="I31" t="n">
-        <v>0</v>
+        <v>98.77088257712678</v>
       </c>
       <c r="J31" t="n">
         <v>0</v>
@@ -24885,10 +24885,10 @@
         <v>0</v>
       </c>
       <c r="R31" t="n">
-        <v>0</v>
+        <v>46.56822717969858</v>
       </c>
       <c r="S31" t="n">
-        <v>0</v>
+        <v>71.9894918991922</v>
       </c>
       <c r="T31" t="n">
         <v>0</v>
@@ -24903,10 +24903,10 @@
         <v>0</v>
       </c>
       <c r="X31" t="n">
-        <v>240.1382575886529</v>
+        <v>0</v>
       </c>
       <c r="Y31" t="n">
-        <v>115.1557639755919</v>
+        <v>0</v>
       </c>
     </row>
     <row r="32">
@@ -25080,13 +25080,13 @@
         <v>0</v>
       </c>
       <c r="D34" t="n">
-        <v>0</v>
+        <v>161.683605144497</v>
       </c>
       <c r="E34" t="n">
-        <v>0</v>
+        <v>164.546123788675</v>
       </c>
       <c r="F34" t="n">
-        <v>170.1431564831852</v>
+        <v>0</v>
       </c>
       <c r="G34" t="n">
         <v>164.5944000087102</v>
@@ -25125,10 +25125,10 @@
         <v>46.56822717969858</v>
       </c>
       <c r="S34" t="n">
-        <v>168.4336970060565</v>
+        <v>71.9894918991922</v>
       </c>
       <c r="T34" t="n">
-        <v>59.64236734312274</v>
+        <v>0</v>
       </c>
       <c r="U34" t="n">
         <v>0</v>
@@ -25314,19 +25314,19 @@
         <v>0</v>
       </c>
       <c r="C37" t="n">
-        <v>0</v>
+        <v>170.2528374898731</v>
       </c>
       <c r="D37" t="n">
-        <v>0</v>
+        <v>161.683605144497</v>
       </c>
       <c r="E37" t="n">
         <v>0</v>
       </c>
       <c r="F37" t="n">
-        <v>170.1431564831852</v>
+        <v>0</v>
       </c>
       <c r="G37" t="n">
-        <v>164.5944000087102</v>
+        <v>57.54418099461917</v>
       </c>
       <c r="H37" t="n">
         <v>142.3583058069271</v>
@@ -25365,7 +25365,7 @@
         <v>0</v>
       </c>
       <c r="T37" t="n">
-        <v>54.74306713709368</v>
+        <v>0</v>
       </c>
       <c r="U37" t="n">
         <v>0</v>
@@ -25554,22 +25554,22 @@
         <v>0</v>
       </c>
       <c r="D40" t="n">
-        <v>0</v>
+        <v>161.683605144497</v>
       </c>
       <c r="E40" t="n">
-        <v>0</v>
+        <v>164.546123788675</v>
       </c>
       <c r="F40" t="n">
         <v>0</v>
       </c>
       <c r="G40" t="n">
-        <v>0</v>
+        <v>164.5944000087102</v>
       </c>
       <c r="H40" t="n">
         <v>142.3583058069271</v>
       </c>
       <c r="I40" t="n">
-        <v>0</v>
+        <v>98.77088257712678</v>
       </c>
       <c r="J40" t="n">
         <v>0</v>
@@ -25599,16 +25599,16 @@
         <v>46.56822717969858</v>
       </c>
       <c r="S40" t="n">
-        <v>168.4336970060565</v>
+        <v>71.9894918991922</v>
       </c>
       <c r="T40" t="n">
-        <v>240.905954296359</v>
+        <v>0</v>
       </c>
       <c r="U40" t="n">
         <v>0</v>
       </c>
       <c r="V40" t="n">
-        <v>252.2448521157858</v>
+        <v>0</v>
       </c>
       <c r="W40" t="n">
         <v>0</v>
@@ -25630,7 +25630,7 @@
         <v>0</v>
       </c>
       <c r="C41" t="n">
-        <v>4.648410051341784</v>
+        <v>0</v>
       </c>
       <c r="D41" t="n">
         <v>0</v>
@@ -25648,7 +25648,7 @@
         <v>0</v>
       </c>
       <c r="I41" t="n">
-        <v>0</v>
+        <v>34.5479025439635</v>
       </c>
       <c r="J41" t="n">
         <v>0</v>
@@ -25678,7 +25678,7 @@
         <v>0</v>
       </c>
       <c r="S41" t="n">
-        <v>103.323621185591</v>
+        <v>73.42412869296925</v>
       </c>
       <c r="T41" t="n">
         <v>0</v>
@@ -25785,28 +25785,28 @@
         </is>
       </c>
       <c r="B43" t="n">
-        <v>123.2669748412074</v>
+        <v>0</v>
       </c>
       <c r="C43" t="n">
         <v>0</v>
       </c>
       <c r="D43" t="n">
-        <v>0</v>
+        <v>161.683605144497</v>
       </c>
       <c r="E43" t="n">
-        <v>0</v>
+        <v>164.546123788675</v>
       </c>
       <c r="F43" t="n">
         <v>0</v>
       </c>
       <c r="G43" t="n">
-        <v>0</v>
+        <v>164.5944000087102</v>
       </c>
       <c r="H43" t="n">
-        <v>0</v>
+        <v>142.3583058069271</v>
       </c>
       <c r="I43" t="n">
-        <v>0</v>
+        <v>98.77088257712678</v>
       </c>
       <c r="J43" t="n">
         <v>0</v>
@@ -25833,10 +25833,10 @@
         <v>0</v>
       </c>
       <c r="R43" t="n">
-        <v>46.56822717969858</v>
+        <v>0</v>
       </c>
       <c r="S43" t="n">
-        <v>168.4336970060565</v>
+        <v>118.5577190788912</v>
       </c>
       <c r="T43" t="n">
         <v>0</v>
@@ -25848,10 +25848,10 @@
         <v>0</v>
       </c>
       <c r="W43" t="n">
-        <v>272.1038797892121</v>
+        <v>0</v>
       </c>
       <c r="X43" t="n">
-        <v>240.1382575886529</v>
+        <v>0</v>
       </c>
       <c r="Y43" t="n">
         <v>0</v>
@@ -25882,10 +25882,10 @@
         <v>0</v>
       </c>
       <c r="H44" t="n">
-        <v>107.9720312369327</v>
+        <v>0</v>
       </c>
       <c r="I44" t="n">
-        <v>0</v>
+        <v>34.5479025439635</v>
       </c>
       <c r="J44" t="n">
         <v>0</v>
@@ -25921,7 +25921,7 @@
         <v>0</v>
       </c>
       <c r="U44" t="n">
-        <v>0</v>
+        <v>73.42412869296905</v>
       </c>
       <c r="V44" t="n">
         <v>0</v>
@@ -26025,16 +26025,16 @@
         <v>0</v>
       </c>
       <c r="C46" t="n">
-        <v>170.2528374898731</v>
+        <v>0</v>
       </c>
       <c r="D46" t="n">
-        <v>0</v>
+        <v>161.683605144497</v>
       </c>
       <c r="E46" t="n">
-        <v>104.3914540390049</v>
+        <v>164.546123788675</v>
       </c>
       <c r="F46" t="n">
-        <v>170.1431564831852</v>
+        <v>0</v>
       </c>
       <c r="G46" t="n">
         <v>164.5944000087102</v>
@@ -26070,10 +26070,10 @@
         <v>0</v>
       </c>
       <c r="R46" t="n">
-        <v>0</v>
+        <v>46.56822717969858</v>
       </c>
       <c r="S46" t="n">
-        <v>0</v>
+        <v>71.98949189919266</v>
       </c>
       <c r="T46" t="n">
         <v>0</v>
@@ -26149,7 +26149,7 @@
         <v>3</v>
       </c>
       <c r="B5" t="n">
-        <v>679002.8538897434</v>
+        <v>679002.8538897433</v>
       </c>
     </row>
     <row r="6">
@@ -26173,7 +26173,7 @@
         <v>6</v>
       </c>
       <c r="B8" t="n">
-        <v>689548.6571215644</v>
+        <v>689548.6571215645</v>
       </c>
     </row>
     <row r="9">
@@ -26205,7 +26205,7 @@
         <v>10</v>
       </c>
       <c r="B12" t="n">
-        <v>689548.6571215645</v>
+        <v>689548.6571215644</v>
       </c>
     </row>
     <row r="13">
@@ -26213,7 +26213,7 @@
         <v>11</v>
       </c>
       <c r="B13" t="n">
-        <v>689548.6571215645</v>
+        <v>689548.6571215644</v>
       </c>
     </row>
     <row r="14">
@@ -26221,7 +26221,7 @@
         <v>12</v>
       </c>
       <c r="B14" t="n">
-        <v>689548.6571215645</v>
+        <v>689548.6571215644</v>
       </c>
     </row>
     <row r="15">
@@ -26229,7 +26229,7 @@
         <v>13</v>
       </c>
       <c r="B15" t="n">
-        <v>679002.8538897436</v>
+        <v>679002.8538897433</v>
       </c>
     </row>
     <row r="16">
@@ -26237,7 +26237,7 @@
         <v>14</v>
       </c>
       <c r="B16" t="n">
-        <v>679002.8538897436</v>
+        <v>679002.8538897434</v>
       </c>
     </row>
   </sheetData>
@@ -26319,43 +26319,43 @@
         <v>364026.6675069771</v>
       </c>
       <c r="D2" t="n">
-        <v>364026.6675069772</v>
+        <v>364026.667506977</v>
       </c>
       <c r="E2" t="n">
-        <v>345897.3934068672</v>
+        <v>345897.3934068673</v>
       </c>
       <c r="F2" t="n">
         <v>345897.3934068672</v>
       </c>
       <c r="G2" t="n">
-        <v>351269.0019609046</v>
+        <v>351269.0019609047</v>
       </c>
       <c r="H2" t="n">
         <v>351269.0019609047</v>
       </c>
       <c r="I2" t="n">
+        <v>351269.0019609046</v>
+      </c>
+      <c r="J2" t="n">
+        <v>351269.0019609047</v>
+      </c>
+      <c r="K2" t="n">
+        <v>351269.0019609046</v>
+      </c>
+      <c r="L2" t="n">
         <v>351269.0019609045</v>
-      </c>
-      <c r="J2" t="n">
-        <v>351269.0019609046</v>
-      </c>
-      <c r="K2" t="n">
-        <v>351269.0019609047</v>
-      </c>
-      <c r="L2" t="n">
-        <v>351269.0019609046</v>
       </c>
       <c r="M2" t="n">
         <v>351269.0019609046</v>
       </c>
       <c r="N2" t="n">
-        <v>351269.0019609047</v>
+        <v>351269.0019609046</v>
       </c>
       <c r="O2" t="n">
-        <v>345897.3934068672</v>
+        <v>345897.3934068673</v>
       </c>
       <c r="P2" t="n">
-        <v>345897.3934068672</v>
+        <v>345897.3934068673</v>
       </c>
     </row>
     <row r="3">
@@ -26420,10 +26420,10 @@
         <v>173998.4022791778</v>
       </c>
       <c r="C4" t="n">
-        <v>173998.4022791778</v>
+        <v>173998.4022791779</v>
       </c>
       <c r="D4" t="n">
-        <v>173998.4022791778</v>
+        <v>173998.4022791779</v>
       </c>
       <c r="E4" t="n">
         <v>57174.45239980773</v>
@@ -26432,7 +26432,7 @@
         <v>57174.45239980773</v>
       </c>
       <c r="G4" t="n">
-        <v>58064.51385187964</v>
+        <v>58064.51385187965</v>
       </c>
       <c r="H4" t="n">
         <v>58064.51385187964</v>
@@ -26521,49 +26521,49 @@
         </is>
       </c>
       <c r="B6" t="n">
-        <v>-63822.71922436616</v>
+        <v>-63822.71922436613</v>
       </c>
       <c r="C6" t="n">
         <v>122582.0141903711</v>
       </c>
       <c r="D6" t="n">
-        <v>122582.0141903712</v>
+        <v>122582.014190371</v>
       </c>
       <c r="E6" t="n">
-        <v>5232.175282466051</v>
+        <v>5159.658186065728</v>
       </c>
       <c r="F6" t="n">
-        <v>212664.462899027</v>
+        <v>212591.9458026266</v>
       </c>
       <c r="G6" t="n">
-        <v>207828.8038371138</v>
+        <v>207777.7731749297</v>
       </c>
       <c r="H6" t="n">
-        <v>215454.4259205954</v>
+        <v>215403.3952584111</v>
       </c>
       <c r="I6" t="n">
-        <v>215454.4259205952</v>
+        <v>215403.395258411</v>
       </c>
       <c r="J6" t="n">
-        <v>69920.75598577876</v>
+        <v>69869.72532359454</v>
       </c>
       <c r="K6" t="n">
-        <v>215454.4259205954</v>
+        <v>215403.395258411</v>
       </c>
       <c r="L6" t="n">
-        <v>215454.4259205953</v>
+        <v>215403.3952584109</v>
       </c>
       <c r="M6" t="n">
-        <v>42323.9347149557</v>
+        <v>42272.90405277145</v>
       </c>
       <c r="N6" t="n">
-        <v>215454.4259205954</v>
+        <v>215403.395258411</v>
       </c>
       <c r="O6" t="n">
-        <v>212664.462899027</v>
+        <v>212591.9458026266</v>
       </c>
       <c r="P6" t="n">
-        <v>212664.462899027</v>
+        <v>212591.9458026266</v>
       </c>
     </row>
   </sheetData>
@@ -27381,7 +27381,7 @@
         <v>400</v>
       </c>
       <c r="C2" t="n">
-        <v>0</v>
+        <v>400</v>
       </c>
       <c r="D2" t="n">
         <v>400</v>
@@ -27390,13 +27390,13 @@
         <v>400</v>
       </c>
       <c r="F2" t="n">
-        <v>0</v>
+        <v>400</v>
       </c>
       <c r="G2" t="n">
-        <v>0</v>
+        <v>400</v>
       </c>
       <c r="H2" t="n">
-        <v>294.8896947407055</v>
+        <v>0</v>
       </c>
       <c r="I2" t="n">
         <v>34.5479025439635</v>
@@ -27429,25 +27429,25 @@
         <v>0</v>
       </c>
       <c r="S2" t="n">
-        <v>103.323621185591</v>
+        <v>0</v>
       </c>
       <c r="T2" t="n">
         <v>218.7163152458132</v>
       </c>
       <c r="U2" t="n">
-        <v>255.7713603095518</v>
+        <v>0</v>
       </c>
       <c r="V2" t="n">
         <v>0</v>
       </c>
       <c r="W2" t="n">
-        <v>392.4274362026566</v>
+        <v>0</v>
       </c>
       <c r="X2" t="n">
         <v>0</v>
       </c>
       <c r="Y2" t="n">
-        <v>304.4193999494622</v>
+        <v>150.8315123879669</v>
       </c>
     </row>
     <row r="3">
@@ -27536,13 +27536,13 @@
         </is>
       </c>
       <c r="B4" t="n">
-        <v>188.264309024945</v>
+        <v>0</v>
       </c>
       <c r="C4" t="n">
         <v>170.2528374898731</v>
       </c>
       <c r="D4" t="n">
-        <v>0</v>
+        <v>161.683605144497</v>
       </c>
       <c r="E4" t="n">
         <v>0</v>
@@ -27587,16 +27587,16 @@
         <v>46.56822717969858</v>
       </c>
       <c r="S4" t="n">
-        <v>168.4336970060565</v>
+        <v>0</v>
       </c>
       <c r="T4" t="n">
         <v>0</v>
       </c>
       <c r="U4" t="n">
-        <v>276.9919657042533</v>
+        <v>277.3826040146988</v>
       </c>
       <c r="V4" t="n">
-        <v>0</v>
+        <v>194.6237625760589</v>
       </c>
       <c r="W4" t="n">
         <v>0</v>
@@ -27615,22 +27615,22 @@
         </is>
       </c>
       <c r="B5" t="n">
-        <v>0</v>
+        <v>400</v>
       </c>
       <c r="C5" t="n">
-        <v>0</v>
+        <v>245.3945739651546</v>
       </c>
       <c r="D5" t="n">
-        <v>0</v>
+        <v>400</v>
       </c>
       <c r="E5" t="n">
         <v>0</v>
       </c>
       <c r="F5" t="n">
-        <v>400</v>
+        <v>0</v>
       </c>
       <c r="G5" t="n">
-        <v>400</v>
+        <v>0</v>
       </c>
       <c r="H5" t="n">
         <v>0</v>
@@ -27681,7 +27681,7 @@
         <v>392.4274362026566</v>
       </c>
       <c r="X5" t="n">
-        <v>245.3945739651546</v>
+        <v>0</v>
       </c>
       <c r="Y5" t="n">
         <v>400</v>
@@ -27776,7 +27776,7 @@
         <v>0</v>
       </c>
       <c r="C7" t="n">
-        <v>0</v>
+        <v>117.2205539080145</v>
       </c>
       <c r="D7" t="n">
         <v>0</v>
@@ -27827,7 +27827,7 @@
         <v>168.4336970060565</v>
       </c>
       <c r="T7" t="n">
-        <v>0</v>
+        <v>240.905954296359</v>
       </c>
       <c r="U7" t="n">
         <v>277.3826040146988</v>
@@ -27836,10 +27836,10 @@
         <v>0</v>
       </c>
       <c r="W7" t="n">
-        <v>272.1038797892121</v>
+        <v>0</v>
       </c>
       <c r="X7" t="n">
-        <v>86.02262841516162</v>
+        <v>0</v>
       </c>
       <c r="Y7" t="n">
         <v>0</v>
@@ -27852,16 +27852,16 @@
         </is>
       </c>
       <c r="B8" t="n">
-        <v>0</v>
+        <v>400</v>
       </c>
       <c r="C8" t="n">
         <v>400</v>
       </c>
       <c r="D8" t="n">
-        <v>0</v>
+        <v>400</v>
       </c>
       <c r="E8" t="n">
-        <v>0</v>
+        <v>400</v>
       </c>
       <c r="F8" t="n">
         <v>400</v>
@@ -27870,10 +27870,10 @@
         <v>0</v>
       </c>
       <c r="H8" t="n">
-        <v>279.9424765091179</v>
+        <v>294.8896947407055</v>
       </c>
       <c r="I8" t="n">
-        <v>0</v>
+        <v>34.5479025439635</v>
       </c>
       <c r="J8" t="n">
         <v>0</v>
@@ -27903,25 +27903,25 @@
         <v>0</v>
       </c>
       <c r="S8" t="n">
-        <v>103.323621185591</v>
+        <v>0</v>
       </c>
       <c r="T8" t="n">
-        <v>218.7163152458132</v>
+        <v>0</v>
       </c>
       <c r="U8" t="n">
-        <v>255.7713603095518</v>
+        <v>0</v>
       </c>
       <c r="V8" t="n">
-        <v>353.914520725013</v>
+        <v>0</v>
       </c>
       <c r="W8" t="n">
-        <v>392.4274362026566</v>
+        <v>0</v>
       </c>
       <c r="X8" t="n">
+        <v>74.65813289307465</v>
+      </c>
+      <c r="Y8" t="n">
         <v>400</v>
-      </c>
-      <c r="Y8" t="n">
-        <v>0</v>
       </c>
     </row>
     <row r="9">
@@ -28010,19 +28010,19 @@
         </is>
       </c>
       <c r="B10" t="n">
-        <v>188.264309024945</v>
+        <v>0</v>
       </c>
       <c r="C10" t="n">
-        <v>170.2528374898731</v>
+        <v>0</v>
       </c>
       <c r="D10" t="n">
-        <v>161.683605144497</v>
+        <v>0</v>
       </c>
       <c r="E10" t="n">
-        <v>164.546123788675</v>
+        <v>0</v>
       </c>
       <c r="F10" t="n">
-        <v>165.7641609568373</v>
+        <v>170.1431564831852</v>
       </c>
       <c r="G10" t="n">
         <v>0</v>
@@ -28058,16 +28058,16 @@
         <v>0</v>
       </c>
       <c r="R10" t="n">
-        <v>0</v>
+        <v>46.56822717969858</v>
       </c>
       <c r="S10" t="n">
-        <v>0</v>
+        <v>168.4336970060565</v>
       </c>
       <c r="T10" t="n">
-        <v>0</v>
+        <v>240.905954296359</v>
       </c>
       <c r="U10" t="n">
-        <v>0</v>
+        <v>224.4600014395281</v>
       </c>
       <c r="V10" t="n">
         <v>0</v>
@@ -34698,28 +34698,28 @@
         <v>0</v>
       </c>
       <c r="J2" t="n">
-        <v>0</v>
+        <v>366.2661200170662</v>
       </c>
       <c r="K2" t="n">
-        <v>533.7539620806207</v>
+        <v>556.2278131155941</v>
       </c>
       <c r="L2" t="n">
+        <v>0</v>
+      </c>
+      <c r="M2" t="n">
+        <v>0</v>
+      </c>
+      <c r="N2" t="n">
+        <v>0</v>
+      </c>
+      <c r="O2" t="n">
+        <v>263.0232516395698</v>
+      </c>
+      <c r="P2" t="n">
         <v>556.2278131155941</v>
       </c>
-      <c r="M2" t="n">
-        <v>556.2278131155941</v>
-      </c>
-      <c r="N2" t="n">
-        <v>556.2278131155941</v>
-      </c>
-      <c r="O2" t="n">
-        <v>0</v>
-      </c>
-      <c r="P2" t="n">
-        <v>0</v>
-      </c>
       <c r="Q2" t="n">
-        <v>0</v>
+        <v>460.6924035395789</v>
       </c>
       <c r="R2" t="n">
         <v>0</v>
@@ -34777,16 +34777,16 @@
         <v>0</v>
       </c>
       <c r="J3" t="n">
-        <v>0</v>
+        <v>274.4419083632233</v>
       </c>
       <c r="K3" t="n">
         <v>0</v>
       </c>
       <c r="L3" t="n">
-        <v>158.2737632597931</v>
+        <v>0</v>
       </c>
       <c r="M3" t="n">
-        <v>0</v>
+        <v>357.2118800478173</v>
       </c>
       <c r="N3" t="n">
         <v>556.2278131155941</v>
@@ -34795,13 +34795,13 @@
         <v>556.2278131155941</v>
       </c>
       <c r="P3" t="n">
-        <v>556.2278131155941</v>
+        <v>0</v>
       </c>
       <c r="Q3" t="n">
         <v>0</v>
       </c>
       <c r="R3" t="n">
-        <v>0</v>
+        <v>82.84778796434657</v>
       </c>
       <c r="S3" t="n">
         <v>0</v>
@@ -34941,25 +34941,25 @@
         <v>0</v>
       </c>
       <c r="L5" t="n">
-        <v>556.2278131155941</v>
+        <v>0</v>
       </c>
       <c r="M5" t="n">
-        <v>0</v>
+        <v>510.5455990486533</v>
       </c>
       <c r="N5" t="n">
         <v>556.2278131155941</v>
       </c>
       <c r="O5" t="n">
+        <v>0</v>
+      </c>
+      <c r="P5" t="n">
         <v>556.2278131155941</v>
-      </c>
-      <c r="P5" t="n">
-        <v>73.06155854104179</v>
       </c>
       <c r="Q5" t="n">
         <v>460.6924035395789</v>
       </c>
       <c r="R5" t="n">
-        <v>0</v>
+        <v>118.7437726079824</v>
       </c>
       <c r="S5" t="n">
         <v>0</v>
@@ -35011,10 +35011,10 @@
         <v>0</v>
       </c>
       <c r="I6" t="n">
-        <v>0</v>
+        <v>7.521861577688728</v>
       </c>
       <c r="J6" t="n">
-        <v>274.4419083632233</v>
+        <v>0</v>
       </c>
       <c r="K6" t="n">
         <v>0</v>
@@ -35023,19 +35023,19 @@
         <v>556.2278131155941</v>
       </c>
       <c r="M6" t="n">
-        <v>0</v>
+        <v>556.2278131155941</v>
       </c>
       <c r="N6" t="n">
-        <v>0</v>
+        <v>238.1458997847902</v>
       </c>
       <c r="O6" t="n">
-        <v>556.2278131155941</v>
+        <v>0</v>
       </c>
       <c r="P6" t="n">
-        <v>440.0596680121639</v>
+        <v>0</v>
       </c>
       <c r="Q6" t="n">
-        <v>0</v>
+        <v>468.8338150129084</v>
       </c>
       <c r="R6" t="n">
         <v>0</v>
@@ -35175,10 +35175,10 @@
         <v>0</v>
       </c>
       <c r="K8" t="n">
-        <v>0</v>
+        <v>533.7539620806207</v>
       </c>
       <c r="L8" t="n">
-        <v>510.5455990486533</v>
+        <v>556.2278131155941</v>
       </c>
       <c r="M8" t="n">
         <v>556.2278131155941</v>
@@ -35193,10 +35193,10 @@
         <v>0</v>
       </c>
       <c r="Q8" t="n">
-        <v>460.6924035395789</v>
+        <v>0</v>
       </c>
       <c r="R8" t="n">
-        <v>118.7437726079824</v>
+        <v>0</v>
       </c>
       <c r="S8" t="n">
         <v>0</v>
@@ -35248,25 +35248,25 @@
         <v>0</v>
       </c>
       <c r="I9" t="n">
-        <v>0</v>
+        <v>7.521861577688728</v>
       </c>
       <c r="J9" t="n">
-        <v>0</v>
+        <v>150.7519016821044</v>
       </c>
       <c r="K9" t="n">
-        <v>75.42597529544646</v>
+        <v>556.2278131155941</v>
       </c>
       <c r="L9" t="n">
-        <v>556.2278131155941</v>
+        <v>0</v>
       </c>
       <c r="M9" t="n">
         <v>556.2278131155941</v>
       </c>
       <c r="N9" t="n">
-        <v>0</v>
+        <v>556.2278131155941</v>
       </c>
       <c r="O9" t="n">
-        <v>556.2278131155941</v>
+        <v>0</v>
       </c>
       <c r="P9" t="n">
         <v>0</v>
@@ -35275,7 +35275,7 @@
         <v>0</v>
       </c>
       <c r="R9" t="n">
-        <v>82.84778796434657</v>
+        <v>0</v>
       </c>
       <c r="S9" t="n">
         <v>0</v>
@@ -35412,25 +35412,25 @@
         <v>366.2661200170662</v>
       </c>
       <c r="K11" t="n">
-        <v>675.0541895917861</v>
+        <v>722.7356646217162</v>
       </c>
       <c r="L11" t="n">
         <v>939.015199615431</v>
       </c>
       <c r="M11" t="n">
-        <v>1014.430405473796</v>
+        <v>776.7350918828461</v>
       </c>
       <c r="N11" t="n">
-        <v>986.1121802895968</v>
+        <v>0</v>
       </c>
       <c r="O11" t="n">
         <v>853.6814647988001</v>
       </c>
       <c r="P11" t="n">
-        <v>0</v>
+        <v>715.433615311038</v>
       </c>
       <c r="Q11" t="n">
-        <v>0</v>
+        <v>460.6924035395789</v>
       </c>
       <c r="R11" t="n">
         <v>118.7437726079824</v>
@@ -35485,7 +35485,7 @@
         <v>0</v>
       </c>
       <c r="I12" t="n">
-        <v>0</v>
+        <v>7.521861577688728</v>
       </c>
       <c r="J12" t="n">
         <v>0</v>
@@ -35494,13 +35494,13 @@
         <v>0</v>
       </c>
       <c r="L12" t="n">
-        <v>205.0592278086263</v>
+        <v>0</v>
       </c>
       <c r="M12" t="n">
         <v>0</v>
       </c>
       <c r="N12" t="n">
-        <v>0</v>
+        <v>197.5373662309376</v>
       </c>
       <c r="O12" t="n">
         <v>898.4659373853249</v>
@@ -35649,13 +35649,13 @@
         <v>366.2661200170662</v>
       </c>
       <c r="K14" t="n">
-        <v>0</v>
+        <v>722.7356646217162</v>
       </c>
       <c r="L14" t="n">
         <v>939.015199615431</v>
       </c>
       <c r="M14" t="n">
-        <v>1014.430405473796</v>
+        <v>0</v>
       </c>
       <c r="N14" t="n">
         <v>986.1121802895968</v>
@@ -35664,7 +35664,7 @@
         <v>853.6814647988001</v>
       </c>
       <c r="P14" t="n">
-        <v>214.3617860522075</v>
+        <v>506.0565269042872</v>
       </c>
       <c r="Q14" t="n">
         <v>460.6924035395789</v>
@@ -35722,31 +35722,31 @@
         <v>0</v>
       </c>
       <c r="I15" t="n">
-        <v>0</v>
+        <v>7.521861577688728</v>
       </c>
       <c r="J15" t="n">
         <v>0</v>
       </c>
       <c r="K15" t="n">
-        <v>0</v>
+        <v>596.4494207761006</v>
       </c>
       <c r="L15" t="n">
         <v>0</v>
       </c>
       <c r="M15" t="n">
-        <v>1066.653068662672</v>
+        <v>0</v>
       </c>
       <c r="N15" t="n">
-        <v>760.3041339439036</v>
+        <v>0</v>
       </c>
       <c r="O15" t="n">
-        <v>0</v>
+        <v>30.72006782725357</v>
       </c>
       <c r="P15" t="n">
-        <v>0</v>
+        <v>723.4320374126243</v>
       </c>
       <c r="Q15" t="n">
-        <v>0</v>
+        <v>468.8338150129084</v>
       </c>
       <c r="R15" t="n">
         <v>0</v>
@@ -35886,16 +35886,16 @@
         <v>366.2661200170662</v>
       </c>
       <c r="K17" t="n">
-        <v>0</v>
+        <v>722.7356646217162</v>
       </c>
       <c r="L17" t="n">
         <v>939.015199615431</v>
       </c>
       <c r="M17" t="n">
-        <v>1014.430405473796</v>
+        <v>0</v>
       </c>
       <c r="N17" t="n">
-        <v>986.1121802895968</v>
+        <v>886.8993927061638</v>
       </c>
       <c r="O17" t="n">
         <v>853.6814647988001</v>
@@ -35904,7 +35904,7 @@
         <v>715.433615311038</v>
       </c>
       <c r="Q17" t="n">
-        <v>69.78487510406572</v>
+        <v>460.6924035395789</v>
       </c>
       <c r="R17" t="n">
         <v>118.7437726079824</v>
@@ -35959,7 +35959,7 @@
         <v>0</v>
       </c>
       <c r="I18" t="n">
-        <v>0</v>
+        <v>7.521861577688728</v>
       </c>
       <c r="J18" t="n">
         <v>0</v>
@@ -35968,16 +35968,16 @@
         <v>0</v>
       </c>
       <c r="L18" t="n">
-        <v>0</v>
+        <v>845.2513212958648</v>
       </c>
       <c r="M18" t="n">
-        <v>726.6390748562019</v>
+        <v>75.71808234769713</v>
       </c>
       <c r="N18" t="n">
-        <v>1100.318127750374</v>
+        <v>0</v>
       </c>
       <c r="O18" t="n">
-        <v>0</v>
+        <v>898.4659373853249</v>
       </c>
       <c r="P18" t="n">
         <v>0</v>
@@ -36129,19 +36129,19 @@
         <v>939.015199615431</v>
       </c>
       <c r="M20" t="n">
-        <v>1014.430405473796</v>
+        <v>0</v>
       </c>
       <c r="N20" t="n">
-        <v>986.1121802895968</v>
+        <v>886.8993927061638</v>
       </c>
       <c r="O20" t="n">
         <v>853.6814647988001</v>
       </c>
       <c r="P20" t="n">
-        <v>62.48282579338804</v>
+        <v>715.433615311038</v>
       </c>
       <c r="Q20" t="n">
-        <v>0</v>
+        <v>460.6924035395789</v>
       </c>
       <c r="R20" t="n">
         <v>118.7437726079824</v>
@@ -36196,7 +36196,7 @@
         <v>0</v>
       </c>
       <c r="I21" t="n">
-        <v>0</v>
+        <v>7.521861577688728</v>
       </c>
       <c r="J21" t="n">
         <v>0</v>
@@ -36205,19 +36205,19 @@
         <v>0</v>
       </c>
       <c r="L21" t="n">
-        <v>0</v>
+        <v>845.2513212958648</v>
       </c>
       <c r="M21" t="n">
-        <v>1066.653068662672</v>
+        <v>0</v>
       </c>
       <c r="N21" t="n">
-        <v>760.3041339439036</v>
+        <v>0</v>
       </c>
       <c r="O21" t="n">
-        <v>0</v>
+        <v>250.7519823203978</v>
       </c>
       <c r="P21" t="n">
-        <v>0</v>
+        <v>723.4320374126243</v>
       </c>
       <c r="Q21" t="n">
         <v>0</v>
@@ -36357,13 +36357,13 @@
         <v>0</v>
       </c>
       <c r="J23" t="n">
-        <v>0</v>
+        <v>366.2661200170662</v>
       </c>
       <c r="K23" t="n">
-        <v>722.7356646217162</v>
+        <v>0</v>
       </c>
       <c r="L23" t="n">
-        <v>939.015199615431</v>
+        <v>548.1076711799178</v>
       </c>
       <c r="M23" t="n">
         <v>1014.430405473796</v>
@@ -36375,10 +36375,10 @@
         <v>853.6814647988001</v>
       </c>
       <c r="P23" t="n">
-        <v>428.7489458104537</v>
+        <v>715.433615311038</v>
       </c>
       <c r="Q23" t="n">
-        <v>0</v>
+        <v>460.6924035395789</v>
       </c>
       <c r="R23" t="n">
         <v>118.7437726079824</v>
@@ -36445,22 +36445,22 @@
         <v>0</v>
       </c>
       <c r="M24" t="n">
-        <v>1066.653068662672</v>
+        <v>0</v>
       </c>
       <c r="N24" t="n">
-        <v>760.3041339439036</v>
+        <v>122.2114398442797</v>
       </c>
       <c r="O24" t="n">
-        <v>0</v>
+        <v>898.4659373853249</v>
       </c>
       <c r="P24" t="n">
-        <v>0</v>
+        <v>723.4320374126243</v>
       </c>
       <c r="Q24" t="n">
         <v>0</v>
       </c>
       <c r="R24" t="n">
-        <v>0</v>
+        <v>82.84778796434657</v>
       </c>
       <c r="S24" t="n">
         <v>0</v>
@@ -36670,7 +36670,7 @@
         <v>0</v>
       </c>
       <c r="I27" t="n">
-        <v>0</v>
+        <v>7.521861577688728</v>
       </c>
       <c r="J27" t="n">
         <v>0</v>
@@ -36682,19 +36682,19 @@
         <v>0</v>
       </c>
       <c r="M27" t="n">
-        <v>928.4912652212506</v>
+        <v>0</v>
       </c>
       <c r="N27" t="n">
         <v>0</v>
       </c>
       <c r="O27" t="n">
-        <v>898.4659373853249</v>
+        <v>627.1694886033541</v>
       </c>
       <c r="P27" t="n">
-        <v>0</v>
+        <v>723.4320374126243</v>
       </c>
       <c r="Q27" t="n">
-        <v>0</v>
+        <v>468.8338150129084</v>
       </c>
       <c r="R27" t="n">
         <v>0</v>
@@ -36843,13 +36843,13 @@
         <v>1014.430405473796</v>
       </c>
       <c r="N29" t="n">
-        <v>818.1712833969947</v>
+        <v>986.1121802895968</v>
       </c>
       <c r="O29" t="n">
         <v>853.6814647988001</v>
       </c>
       <c r="P29" t="n">
-        <v>715.433615311038</v>
+        <v>547.4927184184359</v>
       </c>
       <c r="Q29" t="n">
         <v>0</v>
@@ -36907,16 +36907,16 @@
         <v>0</v>
       </c>
       <c r="I30" t="n">
-        <v>0</v>
+        <v>7.521861577688728</v>
       </c>
       <c r="J30" t="n">
-        <v>0</v>
+        <v>274.4419083632233</v>
       </c>
       <c r="K30" t="n">
-        <v>0</v>
+        <v>596.4494207761006</v>
       </c>
       <c r="L30" t="n">
-        <v>845.2513212958648</v>
+        <v>0</v>
       </c>
       <c r="M30" t="n">
         <v>0</v>
@@ -36925,16 +36925,16 @@
         <v>0</v>
       </c>
       <c r="O30" t="n">
-        <v>898.4659373853249</v>
+        <v>0</v>
       </c>
       <c r="P30" t="n">
-        <v>83.23994392538575</v>
+        <v>396.8624089123078</v>
       </c>
       <c r="Q30" t="n">
-        <v>0</v>
+        <v>468.8338150129084</v>
       </c>
       <c r="R30" t="n">
-        <v>0</v>
+        <v>82.84778796434657</v>
       </c>
       <c r="S30" t="n">
         <v>0</v>
@@ -37071,13 +37071,13 @@
         <v>366.2661200170662</v>
       </c>
       <c r="K32" t="n">
-        <v>666.8514437878999</v>
+        <v>722.7356646217162</v>
       </c>
       <c r="L32" t="n">
-        <v>0</v>
+        <v>939.015199615431</v>
       </c>
       <c r="M32" t="n">
-        <v>1014.430405473796</v>
+        <v>0</v>
       </c>
       <c r="N32" t="n">
         <v>986.1121802895968</v>
@@ -37086,13 +37086,13 @@
         <v>853.6814647988001</v>
       </c>
       <c r="P32" t="n">
-        <v>715.433615311038</v>
+        <v>616.220827727605</v>
       </c>
       <c r="Q32" t="n">
         <v>460.6924035395789</v>
       </c>
       <c r="R32" t="n">
-        <v>0</v>
+        <v>118.7437726079824</v>
       </c>
       <c r="S32" t="n">
         <v>0</v>
@@ -37147,13 +37147,13 @@
         <v>0</v>
       </c>
       <c r="J33" t="n">
-        <v>0</v>
+        <v>274.4419083632233</v>
       </c>
       <c r="K33" t="n">
-        <v>0</v>
+        <v>596.4494207761006</v>
       </c>
       <c r="L33" t="n">
-        <v>205.0592278086264</v>
+        <v>232.6338360546274</v>
       </c>
       <c r="M33" t="n">
         <v>0</v>
@@ -37162,7 +37162,7 @@
         <v>0</v>
       </c>
       <c r="O33" t="n">
-        <v>898.4659373853249</v>
+        <v>0</v>
       </c>
       <c r="P33" t="n">
         <v>723.4320374126243</v>
@@ -37305,7 +37305,7 @@
         <v>0</v>
       </c>
       <c r="J35" t="n">
-        <v>366.2661200170662</v>
+        <v>0</v>
       </c>
       <c r="K35" t="n">
         <v>722.7356646217162</v>
@@ -37320,13 +37320,13 @@
         <v>986.1121802895968</v>
       </c>
       <c r="O35" t="n">
-        <v>574.2156596605913</v>
+        <v>853.6814647988001</v>
       </c>
       <c r="P35" t="n">
-        <v>0</v>
+        <v>547.4927184184359</v>
       </c>
       <c r="Q35" t="n">
-        <v>460.6924035395789</v>
+        <v>0</v>
       </c>
       <c r="R35" t="n">
         <v>0</v>
@@ -37381,31 +37381,31 @@
         <v>0</v>
       </c>
       <c r="I36" t="n">
-        <v>0</v>
+        <v>7.521861577688728</v>
       </c>
       <c r="J36" t="n">
-        <v>0</v>
+        <v>274.4419083632233</v>
       </c>
       <c r="K36" t="n">
-        <v>0</v>
+        <v>596.4494207761006</v>
       </c>
       <c r="L36" t="n">
         <v>0</v>
       </c>
       <c r="M36" t="n">
-        <v>1066.653068662672</v>
+        <v>0</v>
       </c>
       <c r="N36" t="n">
         <v>0</v>
       </c>
       <c r="O36" t="n">
-        <v>760.3041339439036</v>
+        <v>0</v>
       </c>
       <c r="P36" t="n">
-        <v>0</v>
+        <v>479.7101968766545</v>
       </c>
       <c r="Q36" t="n">
-        <v>0</v>
+        <v>468.8338150129084</v>
       </c>
       <c r="R36" t="n">
         <v>0</v>
@@ -37542,7 +37542,7 @@
         <v>0</v>
       </c>
       <c r="J38" t="n">
-        <v>0</v>
+        <v>366.2661200170662</v>
       </c>
       <c r="K38" t="n">
         <v>722.7356646217162</v>
@@ -37551,19 +37551,19 @@
         <v>939.015199615431</v>
       </c>
       <c r="M38" t="n">
-        <v>1014.430405473796</v>
+        <v>1005.643165314146</v>
       </c>
       <c r="N38" t="n">
-        <v>986.1121802895968</v>
+        <v>0</v>
       </c>
       <c r="O38" t="n">
         <v>853.6814647988001</v>
       </c>
       <c r="P38" t="n">
-        <v>547.4927184184359</v>
+        <v>715.433615311038</v>
       </c>
       <c r="Q38" t="n">
-        <v>0</v>
+        <v>460.6924035395789</v>
       </c>
       <c r="R38" t="n">
         <v>0</v>
@@ -37618,31 +37618,31 @@
         <v>0</v>
       </c>
       <c r="I39" t="n">
-        <v>0</v>
+        <v>7.521861577688728</v>
       </c>
       <c r="J39" t="n">
-        <v>0</v>
+        <v>274.4419083632233</v>
       </c>
       <c r="K39" t="n">
-        <v>0</v>
+        <v>596.4494207761006</v>
       </c>
       <c r="L39" t="n">
         <v>0</v>
       </c>
       <c r="M39" t="n">
-        <v>726.6390748562019</v>
+        <v>0</v>
       </c>
       <c r="N39" t="n">
-        <v>1100.318127750374</v>
+        <v>0</v>
       </c>
       <c r="O39" t="n">
         <v>0</v>
       </c>
       <c r="P39" t="n">
-        <v>0</v>
+        <v>479.7101968766545</v>
       </c>
       <c r="Q39" t="n">
-        <v>0</v>
+        <v>468.8338150129084</v>
       </c>
       <c r="R39" t="n">
         <v>0</v>
@@ -37782,16 +37782,16 @@
         <v>366.2661200170662</v>
       </c>
       <c r="K41" t="n">
-        <v>0</v>
+        <v>722.7356646217162</v>
       </c>
       <c r="L41" t="n">
-        <v>437.9433703566003</v>
+        <v>939.015199615431</v>
       </c>
       <c r="M41" t="n">
-        <v>1014.430405473796</v>
+        <v>0</v>
       </c>
       <c r="N41" t="n">
-        <v>986.1121802895968</v>
+        <v>776.7350918828461</v>
       </c>
       <c r="O41" t="n">
         <v>853.6814647988001</v>
@@ -37855,19 +37855,19 @@
         <v>0</v>
       </c>
       <c r="I42" t="n">
-        <v>0</v>
+        <v>7.521861577688728</v>
       </c>
       <c r="J42" t="n">
         <v>274.4419083632233</v>
       </c>
       <c r="K42" t="n">
-        <v>17.02841056777188</v>
+        <v>596.4494207761006</v>
       </c>
       <c r="L42" t="n">
         <v>0</v>
       </c>
       <c r="M42" t="n">
-        <v>1066.653068662672</v>
+        <v>0</v>
       </c>
       <c r="N42" t="n">
         <v>0</v>
@@ -37876,7 +37876,7 @@
         <v>0</v>
       </c>
       <c r="P42" t="n">
-        <v>0</v>
+        <v>479.7101968766544</v>
       </c>
       <c r="Q42" t="n">
         <v>468.8338150129084</v>
@@ -38019,22 +38019,22 @@
         <v>366.2661200170662</v>
       </c>
       <c r="K44" t="n">
-        <v>0</v>
+        <v>722.7356646217162</v>
       </c>
       <c r="L44" t="n">
-        <v>437.9433703566003</v>
+        <v>939.015199615431</v>
       </c>
       <c r="M44" t="n">
         <v>1014.430405473796</v>
       </c>
       <c r="N44" t="n">
-        <v>986.1121802895968</v>
+        <v>477.7383017200877</v>
       </c>
       <c r="O44" t="n">
         <v>853.6814647988001</v>
       </c>
       <c r="P44" t="n">
-        <v>715.433615311038</v>
+        <v>0</v>
       </c>
       <c r="Q44" t="n">
         <v>460.6924035395789</v>
@@ -38092,31 +38092,31 @@
         <v>0</v>
       </c>
       <c r="I45" t="n">
-        <v>0</v>
+        <v>7.521861577688728</v>
       </c>
       <c r="J45" t="n">
-        <v>0</v>
+        <v>274.4419083632233</v>
       </c>
       <c r="K45" t="n">
-        <v>0</v>
+        <v>596.4494207761006</v>
       </c>
       <c r="L45" t="n">
         <v>0</v>
       </c>
       <c r="M45" t="n">
-        <v>726.6390748562019</v>
+        <v>0</v>
       </c>
       <c r="N45" t="n">
-        <v>1100.318127750374</v>
+        <v>0</v>
       </c>
       <c r="O45" t="n">
         <v>0</v>
       </c>
       <c r="P45" t="n">
-        <v>0</v>
+        <v>479.7101968766544</v>
       </c>
       <c r="Q45" t="n">
-        <v>0</v>
+        <v>468.8338150129084</v>
       </c>
       <c r="R45" t="n">
         <v>0</v>
